--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_19_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_19_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>848039.1661286238</v>
+        <v>770392.6478002578</v>
       </c>
     </row>
     <row r="7">
@@ -1378,16 +1378,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>42.73236457950449</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>48.51540029462364</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>48.51540029462364</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>48.51540029462364</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1417,16 +1417,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>42.73236457950448</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>48.51540029462364</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1460,10 +1460,10 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>42.73236457950448</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>48.51540029462364</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1499,16 +1499,16 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>48.51540029462365</v>
+        <v>48.51540029462364</v>
       </c>
       <c r="T12" t="n">
-        <v>42.73236457950449</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -1533,22 +1533,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>48.51540029462364</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>42.73236457950448</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1572,13 +1572,13 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>27.65621884003237</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>48.51540029462364</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1590,10 +1590,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>48.51540029462364</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>15.07614573947212</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1621,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>48.51540029462367</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1654,19 +1654,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>48.51540029462367</v>
       </c>
       <c r="S14" t="n">
-        <v>42.73236457950449</v>
+        <v>48.51540029462367</v>
       </c>
       <c r="T14" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>48.51540029462365</v>
+        <v>42.73236457950453</v>
       </c>
       <c r="V14" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1685,16 +1685,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>48.51540029462365</v>
+        <v>48.51540029462367</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1739,22 +1739,22 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>42.73236457950452</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>48.51540029462367</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>48.51540029462367</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>42.73236457950449</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>48.51540029462367</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1773,22 +1773,22 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>48.51540029462367</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>47.28602221804548</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>43.96174265608267</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1818,10 +1818,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>48.51540029462367</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>42.73236457950453</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>42.73236457950453</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1897,22 +1897,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>48.51540029462365</v>
+        <v>48.51540029462367</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>48.51540029462367</v>
       </c>
       <c r="X17" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>42.73236457950448</v>
+        <v>48.51540029462367</v>
       </c>
     </row>
     <row r="18">
@@ -1940,7 +1940,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>42.73236457950448</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1970,16 +1970,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>48.41420986353356</v>
       </c>
       <c r="S18" t="n">
-        <v>48.51540029462365</v>
+        <v>48.51540029462367</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -1988,10 +1988,10 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>48.51540029462367</v>
       </c>
       <c r="Y18" t="n">
-        <v>48.51540029462365</v>
+        <v>42.83355501059464</v>
       </c>
     </row>
     <row r="19">
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2010,16 +2010,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>48.51540029462367</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>42.73236457950453</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>48.51540029462367</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>48.51540029462367</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2061,13 +2061,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>42.73236457950448</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2086,19 +2086,19 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>48.51540029462363</v>
       </c>
       <c r="E20" t="n">
-        <v>42.73236457950448</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>42.7323645795045</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>48.51540029462363</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>48.51540029462363</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2174,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>42.83355501059457</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2207,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>48.41420986353356</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>48.51540029462363</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2219,16 +2219,16 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>48.51540029462365</v>
+        <v>48.51540029462363</v>
       </c>
       <c r="X21" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>42.73236457950448</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2256,10 +2256,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>42.73236457950448</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,22 +2289,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>48.51540029462363</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>48.51540029462363</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>48.51540029462363</v>
       </c>
       <c r="W22" t="n">
-        <v>48.51540029462365</v>
+        <v>42.7323645795045</v>
       </c>
       <c r="X22" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2317,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>69.02937206709291</v>
       </c>
       <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
         <v>69.02937206709291</v>
       </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>69.02937206709291</v>
       </c>
       <c r="G23" t="n">
-        <v>69.02937206709291</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>69.02937206709291</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>60.80107091669541</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>52.02582218557539</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2377,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>8.775248731120021</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2399,13 +2399,13 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
         <v>69.02937206709291</v>
       </c>
-      <c r="D24" t="n">
+      <c r="E24" t="n">
         <v>60.80107091669541</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2450,7 +2450,7 @@
         <v>69.02937206709291</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>69.02937206709291</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -2459,7 +2459,7 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>69.02937206709291</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>33.14485207666304</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>33.14485207666303</v>
       </c>
       <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
         <v>69.02937206709291</v>
       </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>69.02937206709291</v>
       </c>
       <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
         <v>69.02937206709291</v>
       </c>
-      <c r="X25" t="n">
-        <v>0</v>
-      </c>
       <c r="Y25" t="n">
-        <v>69.02937206709291</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>69.02937206709291</v>
+      </c>
+      <c r="C26" t="n">
         <v>60.80107091669541</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2614,7 +2614,7 @@
         <v>69.02937206709291</v>
       </c>
       <c r="V26" t="n">
-        <v>69.02937206709291</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2636,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>60.80107091669541</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2684,25 +2684,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>60.8010709166954</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" t="n">
         <v>69.02937206709291</v>
-      </c>
-      <c r="V27" t="n">
-        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>69.02937206709291</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>69.02937206709291</v>
       </c>
       <c r="Y27" t="n">
-        <v>69.02937206709291</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2736,7 +2736,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>43.96174265608267</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>16.83932826061276</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>69.02937206709291</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>69.02937206709291</v>
@@ -2772,13 +2772,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>69.02937206709291</v>
       </c>
       <c r="W28" t="n">
+        <v>60.8010709166954</v>
+      </c>
+      <c r="X28" t="n">
         <v>69.02937206709291</v>
-      </c>
-      <c r="X28" t="n">
-        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2794,64 +2794,64 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
         <v>69.02937206709291</v>
       </c>
-      <c r="D29" t="n">
-        <v>60.8010709166954</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
+      <c r="T29" t="n">
         <v>69.02937206709291</v>
       </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>69.02937206709291</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>69.02937206709291</v>
+        <v>60.80107091669541</v>
       </c>
     </row>
     <row r="30">
@@ -2885,7 +2885,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>60.80107091669541</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2921,22 +2921,22 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>69.02937206709291</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>69.02937206709291</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>60.8010709166954</v>
       </c>
       <c r="V30" t="n">
         <v>69.02937206709291</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>69.02937206709291</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>69.02937206709291</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -2952,53 +2952,53 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>60.8010709166954</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>69.02937206709291</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
         <v>69.02937206709291</v>
       </c>
-      <c r="H31" t="n">
-        <v>60.80107091669541</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0</v>
-      </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
@@ -3009,16 +3009,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y31" t="n">
         <v>69.02937206709291</v>
-      </c>
-      <c r="W31" t="n">
-        <v>69.02937206709291</v>
-      </c>
-      <c r="X31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3031,73 +3031,73 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
         <v>69.02937206709291</v>
       </c>
-      <c r="D32" t="n">
+      <c r="G32" t="n">
         <v>69.02937206709291</v>
       </c>
-      <c r="E32" t="n">
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>60.8010709166954</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="n">
         <v>69.02937206709291</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>60.80107091669541</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3116,19 +3116,19 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>60.8010709166954</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.09809804475969912</v>
+      </c>
+      <c r="H33" t="n">
         <v>69.02937206709291</v>
       </c>
-      <c r="G33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>60.7029728719357</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3167,13 +3167,13 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0</v>
+      </c>
+      <c r="X33" t="n">
         <v>69.02937206709291</v>
-      </c>
-      <c r="W33" t="n">
-        <v>0</v>
-      </c>
-      <c r="X33" t="n">
-        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3186,73 +3186,73 @@
         </is>
       </c>
       <c r="B34" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>60.8010709166954</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
         <v>69.02937206709291</v>
       </c>
-      <c r="C34" t="n">
-        <v>0</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>27.65621884003237</v>
-      </c>
-      <c r="R34" t="n">
-        <v>33.14485207666303</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>69.02937206709291</v>
       </c>
       <c r="X34" t="n">
-        <v>69.02937206709291</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>69.02937206709291</v>
@@ -3265,76 +3265,76 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>48.51540029462364</v>
+      </c>
+      <c r="S35" t="n">
+        <v>48.51540029462364</v>
+      </c>
+      <c r="T35" t="n">
+        <v>48.51540029462364</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
         <v>42.73236457950448</v>
       </c>
-      <c r="C35" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>48.51540029462365</v>
-      </c>
-      <c r="X35" t="n">
-        <v>48.51540029462365</v>
-      </c>
       <c r="Y35" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3344,10 +3344,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>48.51540029462364</v>
       </c>
       <c r="C36" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,13 +3392,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>42.73236457950449</v>
+        <v>48.41420986353356</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>48.51540029462364</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>42.83355501059458</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -3413,7 +3413,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>48.51540029462364</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3471,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>48.51540029462364</v>
       </c>
       <c r="S37" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>42.73236457950449</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>48.51540029462365</v>
+        <v>42.73236457950448</v>
       </c>
       <c r="V37" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>48.51540029462364</v>
       </c>
     </row>
     <row r="38">
@@ -3550,28 +3550,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>48.51540029462367</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>48.51540029462367</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>48.51540029462367</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>42.73236457950449</v>
+        <v>42.73236457950453</v>
       </c>
       <c r="W38" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3596,7 +3596,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>42.83355501059464</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3629,22 +3629,22 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>48.41420986353356</v>
       </c>
       <c r="S39" t="n">
-        <v>42.73236457950449</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>48.51540029462365</v>
+        <v>48.51540029462367</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>48.51540029462365</v>
+        <v>48.51540029462367</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3669,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>48.51540029462367</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3717,16 +3717,16 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>48.51540029462367</v>
       </c>
       <c r="V40" t="n">
-        <v>42.73236457950449</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>48.51540029462365</v>
+        <v>48.51540029462367</v>
       </c>
       <c r="X40" t="n">
-        <v>48.51540029462365</v>
+        <v>42.73236457950453</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3745,22 +3745,22 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>42.73236457950453</v>
       </c>
       <c r="E41" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>42.73236457950448</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>48.51540029462367</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3805,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>48.51540029462367</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>48.51540029462367</v>
       </c>
     </row>
     <row r="42">
@@ -3818,7 +3818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>48.51540029462367</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -3827,16 +3827,16 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>48.51540029462365</v>
+        <v>48.51540029462367</v>
       </c>
       <c r="G42" t="n">
-        <v>42.83355501059459</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>42.83355501059464</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3909,16 +3909,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>42.73236457950449</v>
+        <v>42.73236457950453</v>
       </c>
       <c r="G43" t="n">
-        <v>48.51540029462365</v>
+        <v>48.51540029462367</v>
       </c>
       <c r="H43" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3954,10 +3954,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>48.51540029462367</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>48.51540029462367</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3976,76 +3976,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>42.73236457950449</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
         <v>48.51540029462365</v>
       </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
+      <c r="W44" t="n">
         <v>48.51540029462365</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" t="n">
-        <v>0</v>
-      </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="Y44" t="n">
-        <v>48.51540029462365</v>
+        <v>42.73236457950448</v>
       </c>
     </row>
     <row r="45">
@@ -4058,19 +4058,19 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
         <v>48.51540029462365</v>
       </c>
-      <c r="D45" t="n">
-        <v>0</v>
-      </c>
-      <c r="E45" t="n">
-        <v>0</v>
-      </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4106,13 +4106,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
+        <v>0</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0</v>
+      </c>
+      <c r="U45" t="n">
         <v>42.73236457950449</v>
-      </c>
-      <c r="T45" t="n">
-        <v>0</v>
-      </c>
-      <c r="U45" t="n">
-        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>48.51540029462365</v>
@@ -4124,7 +4124,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4134,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>42.73236457950448</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>48.51540029462365</v>
       </c>
       <c r="T46" t="n">
-        <v>42.73236457950448</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -5017,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.881232023569892</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="C11" t="n">
-        <v>3.881232023569892</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="D11" t="n">
-        <v>3.881232023569892</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="E11" t="n">
-        <v>3.881232023569892</v>
+        <v>150.8975965527324</v>
       </c>
       <c r="F11" t="n">
-        <v>3.881232023569892</v>
+        <v>101.8921417096783</v>
       </c>
       <c r="G11" t="n">
-        <v>3.881232023569892</v>
+        <v>52.88668686662407</v>
       </c>
       <c r="H11" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569891</v>
       </c>
       <c r="I11" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569891</v>
       </c>
       <c r="J11" t="n">
-        <v>51.9114783152473</v>
+        <v>3.881232023569891</v>
       </c>
       <c r="K11" t="n">
-        <v>51.9114783152473</v>
+        <v>3.881232023569891</v>
       </c>
       <c r="L11" t="n">
-        <v>61.84743266278371</v>
+        <v>51.91147831524729</v>
       </c>
       <c r="M11" t="n">
-        <v>104.5725337719637</v>
+        <v>99.94172460692469</v>
       </c>
       <c r="N11" t="n">
-        <v>152.6027800636411</v>
+        <v>147.9719708986021</v>
       </c>
       <c r="O11" t="n">
         <v>194.0616011784946</v>
@@ -5065,28 +5065,28 @@
         <v>194.0616011784946</v>
       </c>
       <c r="R11" t="n">
-        <v>145.0561463354404</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="S11" t="n">
-        <v>96.05069149238619</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="T11" t="n">
-        <v>47.045236649332</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="U11" t="n">
-        <v>3.881232023569892</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="V11" t="n">
-        <v>3.881232023569892</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="W11" t="n">
-        <v>3.881232023569892</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="X11" t="n">
-        <v>3.881232023569892</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="Y11" t="n">
-        <v>3.881232023569892</v>
+        <v>194.0616011784946</v>
       </c>
     </row>
     <row r="12">
@@ -5096,40 +5096,40 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3.881232023569892</v>
+        <v>96.05069149238618</v>
       </c>
       <c r="C12" t="n">
-        <v>3.881232023569892</v>
+        <v>96.05069149238618</v>
       </c>
       <c r="D12" t="n">
-        <v>3.881232023569892</v>
+        <v>96.05069149238618</v>
       </c>
       <c r="E12" t="n">
-        <v>3.881232023569892</v>
+        <v>96.05069149238618</v>
       </c>
       <c r="F12" t="n">
-        <v>3.881232023569892</v>
+        <v>52.88668686662407</v>
       </c>
       <c r="G12" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569891</v>
       </c>
       <c r="H12" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569891</v>
       </c>
       <c r="I12" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569891</v>
       </c>
       <c r="J12" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569891</v>
       </c>
       <c r="K12" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569891</v>
       </c>
       <c r="L12" t="n">
-        <v>45.85568787732696</v>
+        <v>25.05496226725347</v>
       </c>
       <c r="M12" t="n">
-        <v>93.88593416900437</v>
+        <v>73.08520855893087</v>
       </c>
       <c r="N12" t="n">
         <v>121.1154548506083</v>
@@ -5150,22 +5150,22 @@
         <v>145.0561463354404</v>
       </c>
       <c r="T12" t="n">
-        <v>101.8921417096783</v>
+        <v>145.0561463354404</v>
       </c>
       <c r="U12" t="n">
-        <v>52.88668686662408</v>
+        <v>145.0561463354404</v>
       </c>
       <c r="V12" t="n">
-        <v>3.881232023569892</v>
+        <v>145.0561463354404</v>
       </c>
       <c r="W12" t="n">
-        <v>3.881232023569892</v>
+        <v>145.0561463354404</v>
       </c>
       <c r="X12" t="n">
-        <v>3.881232023569892</v>
+        <v>145.0561463354404</v>
       </c>
       <c r="Y12" t="n">
-        <v>3.881232023569892</v>
+        <v>145.0561463354404</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>194.0616011784946</v>
+        <v>52.88668686662407</v>
       </c>
       <c r="C13" t="n">
-        <v>194.0616011784946</v>
+        <v>52.88668686662407</v>
       </c>
       <c r="D13" t="n">
-        <v>194.0616011784946</v>
+        <v>3.881232023569891</v>
       </c>
       <c r="E13" t="n">
-        <v>194.0616011784946</v>
+        <v>3.881232023569891</v>
       </c>
       <c r="F13" t="n">
-        <v>145.0561463354404</v>
+        <v>3.881232023569891</v>
       </c>
       <c r="G13" t="n">
-        <v>96.05069149238619</v>
+        <v>3.881232023569891</v>
       </c>
       <c r="H13" t="n">
-        <v>47.045236649332</v>
+        <v>3.881232023569891</v>
       </c>
       <c r="I13" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569891</v>
       </c>
       <c r="J13" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569891</v>
       </c>
       <c r="K13" t="n">
-        <v>51.9114783152473</v>
+        <v>51.91147831524729</v>
       </c>
       <c r="L13" t="n">
-        <v>99.94172460692471</v>
+        <v>98.00110859513975</v>
       </c>
       <c r="M13" t="n">
         <v>146.0313548868172</v>
       </c>
       <c r="N13" t="n">
-        <v>194.0616011784946</v>
+        <v>146.0313548868172</v>
       </c>
       <c r="O13" t="n">
-        <v>194.0616011784946</v>
+        <v>146.0313548868172</v>
       </c>
       <c r="P13" t="n">
         <v>194.0616011784946</v>
       </c>
       <c r="Q13" t="n">
-        <v>194.0616011784946</v>
+        <v>166.1260265926033</v>
       </c>
       <c r="R13" t="n">
-        <v>194.0616011784946</v>
+        <v>166.1260265926033</v>
       </c>
       <c r="S13" t="n">
-        <v>194.0616011784946</v>
+        <v>117.1205717495491</v>
       </c>
       <c r="T13" t="n">
-        <v>194.0616011784946</v>
+        <v>117.1205717495491</v>
       </c>
       <c r="U13" t="n">
-        <v>194.0616011784946</v>
+        <v>117.1205717495491</v>
       </c>
       <c r="V13" t="n">
-        <v>194.0616011784946</v>
+        <v>117.1205717495491</v>
       </c>
       <c r="W13" t="n">
-        <v>194.0616011784946</v>
+        <v>68.1151169064949</v>
       </c>
       <c r="X13" t="n">
-        <v>194.0616011784946</v>
+        <v>52.88668686662407</v>
       </c>
       <c r="Y13" t="n">
-        <v>194.0616011784946</v>
+        <v>52.88668686662407</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.881232023569892</v>
+        <v>52.8866868666241</v>
       </c>
       <c r="C14" t="n">
-        <v>3.881232023569892</v>
+        <v>52.8866868666241</v>
       </c>
       <c r="D14" t="n">
-        <v>3.881232023569892</v>
+        <v>52.8866868666241</v>
       </c>
       <c r="E14" t="n">
-        <v>3.881232023569892</v>
+        <v>52.8866868666241</v>
       </c>
       <c r="F14" t="n">
-        <v>3.881232023569892</v>
+        <v>52.8866868666241</v>
       </c>
       <c r="G14" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569893</v>
       </c>
       <c r="H14" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569893</v>
       </c>
       <c r="I14" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569893</v>
       </c>
       <c r="J14" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569893</v>
       </c>
       <c r="K14" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569893</v>
       </c>
       <c r="L14" t="n">
-        <v>13.8171863711063</v>
+        <v>51.91147831524732</v>
       </c>
       <c r="M14" t="n">
-        <v>61.84743266278371</v>
+        <v>98.00110859513981</v>
       </c>
       <c r="N14" t="n">
-        <v>109.8776789544611</v>
+        <v>146.0313548868172</v>
       </c>
       <c r="O14" t="n">
-        <v>157.9079252461385</v>
+        <v>194.0616011784947</v>
       </c>
       <c r="P14" t="n">
-        <v>194.0616011784946</v>
+        <v>194.0616011784947</v>
       </c>
       <c r="Q14" t="n">
-        <v>194.0616011784946</v>
+        <v>194.0616011784947</v>
       </c>
       <c r="R14" t="n">
-        <v>194.0616011784946</v>
+        <v>145.0561463354405</v>
       </c>
       <c r="S14" t="n">
-        <v>150.8975965527325</v>
+        <v>96.05069149238626</v>
       </c>
       <c r="T14" t="n">
-        <v>101.8921417096783</v>
+        <v>96.05069149238626</v>
       </c>
       <c r="U14" t="n">
-        <v>52.88668686662408</v>
+        <v>52.8866868666241</v>
       </c>
       <c r="V14" t="n">
-        <v>3.881232023569892</v>
+        <v>52.8866868666241</v>
       </c>
       <c r="W14" t="n">
-        <v>3.881232023569892</v>
+        <v>52.8866868666241</v>
       </c>
       <c r="X14" t="n">
-        <v>3.881232023569892</v>
+        <v>52.8866868666241</v>
       </c>
       <c r="Y14" t="n">
-        <v>3.881232023569892</v>
+        <v>52.8866868666241</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
+        <v>52.8866868666241</v>
+      </c>
+      <c r="C15" t="n">
+        <v>52.8866868666241</v>
+      </c>
+      <c r="D15" t="n">
+        <v>52.8866868666241</v>
+      </c>
+      <c r="E15" t="n">
+        <v>3.881232023569893</v>
+      </c>
+      <c r="F15" t="n">
+        <v>3.881232023569893</v>
+      </c>
+      <c r="G15" t="n">
+        <v>3.881232023569893</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3.881232023569893</v>
+      </c>
+      <c r="I15" t="n">
+        <v>3.881232023569893</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3.881232023569893</v>
+      </c>
+      <c r="K15" t="n">
+        <v>3.881232023569893</v>
+      </c>
+      <c r="L15" t="n">
+        <v>45.85568787732696</v>
+      </c>
+      <c r="M15" t="n">
+        <v>93.8859341690044</v>
+      </c>
+      <c r="N15" t="n">
+        <v>141.9161804606818</v>
+      </c>
+      <c r="O15" t="n">
+        <v>189.9464267523593</v>
+      </c>
+      <c r="P15" t="n">
+        <v>194.0616011784947</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>194.0616011784947</v>
+      </c>
+      <c r="R15" t="n">
+        <v>194.0616011784947</v>
+      </c>
+      <c r="S15" t="n">
+        <v>194.0616011784947</v>
+      </c>
+      <c r="T15" t="n">
+        <v>150.8975965527325</v>
+      </c>
+      <c r="U15" t="n">
         <v>101.8921417096783</v>
       </c>
-      <c r="C15" t="n">
-        <v>52.88668686662408</v>
-      </c>
-      <c r="D15" t="n">
-        <v>52.88668686662408</v>
-      </c>
-      <c r="E15" t="n">
-        <v>3.881232023569892</v>
-      </c>
-      <c r="F15" t="n">
-        <v>3.881232023569892</v>
-      </c>
-      <c r="G15" t="n">
-        <v>3.881232023569892</v>
-      </c>
-      <c r="H15" t="n">
-        <v>3.881232023569892</v>
-      </c>
-      <c r="I15" t="n">
-        <v>3.881232023569892</v>
-      </c>
-      <c r="J15" t="n">
-        <v>3.881232023569892</v>
-      </c>
-      <c r="K15" t="n">
-        <v>3.881232023569892</v>
-      </c>
-      <c r="L15" t="n">
-        <v>25.05496226725349</v>
-      </c>
-      <c r="M15" t="n">
-        <v>73.0852085589309</v>
-      </c>
-      <c r="N15" t="n">
-        <v>121.1154548506083</v>
-      </c>
-      <c r="O15" t="n">
-        <v>169.1457011422857</v>
-      </c>
-      <c r="P15" t="n">
-        <v>194.0616011784946</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>194.0616011784946</v>
-      </c>
-      <c r="R15" t="n">
-        <v>194.0616011784946</v>
-      </c>
-      <c r="S15" t="n">
-        <v>194.0616011784946</v>
-      </c>
-      <c r="T15" t="n">
-        <v>194.0616011784946</v>
-      </c>
-      <c r="U15" t="n">
-        <v>194.0616011784946</v>
-      </c>
       <c r="V15" t="n">
-        <v>194.0616011784946</v>
+        <v>101.8921417096783</v>
       </c>
       <c r="W15" t="n">
-        <v>194.0616011784946</v>
+        <v>52.8866868666241</v>
       </c>
       <c r="X15" t="n">
-        <v>194.0616011784946</v>
+        <v>52.8866868666241</v>
       </c>
       <c r="Y15" t="n">
-        <v>150.8975965527325</v>
+        <v>52.8866868666241</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>194.0616011784946</v>
+        <v>52.8866868666241</v>
       </c>
       <c r="C16" t="n">
-        <v>194.0616011784946</v>
+        <v>52.8866868666241</v>
       </c>
       <c r="D16" t="n">
-        <v>194.0616011784946</v>
+        <v>52.8866868666241</v>
       </c>
       <c r="E16" t="n">
-        <v>194.0616011784946</v>
+        <v>3.881232023569893</v>
       </c>
       <c r="F16" t="n">
-        <v>194.0616011784946</v>
+        <v>3.881232023569893</v>
       </c>
       <c r="G16" t="n">
-        <v>146.297942372388</v>
+        <v>3.881232023569893</v>
       </c>
       <c r="H16" t="n">
-        <v>97.29248752933385</v>
+        <v>3.881232023569893</v>
       </c>
       <c r="I16" t="n">
-        <v>48.28703268627967</v>
+        <v>3.881232023569893</v>
       </c>
       <c r="J16" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569893</v>
       </c>
       <c r="K16" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569893</v>
       </c>
       <c r="L16" t="n">
-        <v>51.9114783152473</v>
+        <v>49.97086230346238</v>
       </c>
       <c r="M16" t="n">
-        <v>99.94172460692471</v>
+        <v>98.00110859513981</v>
       </c>
       <c r="N16" t="n">
+        <v>98.00110859513981</v>
+      </c>
+      <c r="O16" t="n">
         <v>146.0313548868172</v>
       </c>
-      <c r="O16" t="n">
-        <v>194.0616011784946</v>
-      </c>
       <c r="P16" t="n">
-        <v>194.0616011784946</v>
+        <v>194.0616011784947</v>
       </c>
       <c r="Q16" t="n">
-        <v>194.0616011784946</v>
+        <v>194.0616011784947</v>
       </c>
       <c r="R16" t="n">
-        <v>194.0616011784946</v>
+        <v>194.0616011784947</v>
       </c>
       <c r="S16" t="n">
-        <v>194.0616011784946</v>
+        <v>194.0616011784947</v>
       </c>
       <c r="T16" t="n">
-        <v>194.0616011784946</v>
+        <v>145.0561463354405</v>
       </c>
       <c r="U16" t="n">
-        <v>194.0616011784946</v>
+        <v>101.8921417096783</v>
       </c>
       <c r="V16" t="n">
-        <v>194.0616011784946</v>
+        <v>101.8921417096783</v>
       </c>
       <c r="W16" t="n">
-        <v>194.0616011784946</v>
+        <v>101.8921417096783</v>
       </c>
       <c r="X16" t="n">
-        <v>194.0616011784946</v>
+        <v>101.8921417096783</v>
       </c>
       <c r="Y16" t="n">
-        <v>194.0616011784946</v>
+        <v>101.8921417096783</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3.881232023569892</v>
+        <v>47.04523664933205</v>
       </c>
       <c r="C17" t="n">
-        <v>3.881232023569892</v>
+        <v>47.04523664933205</v>
       </c>
       <c r="D17" t="n">
-        <v>3.881232023569892</v>
+        <v>47.04523664933205</v>
       </c>
       <c r="E17" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569893</v>
       </c>
       <c r="F17" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569893</v>
       </c>
       <c r="G17" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569893</v>
       </c>
       <c r="H17" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569893</v>
       </c>
       <c r="I17" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569893</v>
       </c>
       <c r="J17" t="n">
-        <v>51.9114783152473</v>
+        <v>3.881232023569893</v>
       </c>
       <c r="K17" t="n">
-        <v>61.35196108175484</v>
+        <v>3.881232023569893</v>
       </c>
       <c r="L17" t="n">
-        <v>71.28791542929125</v>
+        <v>51.91147831524732</v>
       </c>
       <c r="M17" t="n">
-        <v>114.0130165384712</v>
+        <v>99.94172460692475</v>
       </c>
       <c r="N17" t="n">
-        <v>162.0432628301486</v>
+        <v>147.9719708986022</v>
       </c>
       <c r="O17" t="n">
-        <v>194.0616011784946</v>
+        <v>194.0616011784947</v>
       </c>
       <c r="P17" t="n">
-        <v>194.0616011784946</v>
+        <v>194.0616011784947</v>
       </c>
       <c r="Q17" t="n">
-        <v>194.0616011784946</v>
+        <v>194.0616011784947</v>
       </c>
       <c r="R17" t="n">
-        <v>194.0616011784946</v>
+        <v>194.0616011784947</v>
       </c>
       <c r="S17" t="n">
-        <v>194.0616011784946</v>
+        <v>194.0616011784947</v>
       </c>
       <c r="T17" t="n">
-        <v>145.0561463354404</v>
+        <v>194.0616011784947</v>
       </c>
       <c r="U17" t="n">
-        <v>145.0561463354404</v>
+        <v>194.0616011784947</v>
       </c>
       <c r="V17" t="n">
-        <v>96.05069149238619</v>
+        <v>145.0561463354405</v>
       </c>
       <c r="W17" t="n">
-        <v>96.05069149238619</v>
+        <v>96.05069149238626</v>
       </c>
       <c r="X17" t="n">
-        <v>47.045236649332</v>
+        <v>96.05069149238626</v>
       </c>
       <c r="Y17" t="n">
-        <v>3.881232023569892</v>
+        <v>47.04523664933205</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>47.045236649332</v>
+        <v>3.881232023569893</v>
       </c>
       <c r="C18" t="n">
-        <v>47.045236649332</v>
+        <v>3.881232023569893</v>
       </c>
       <c r="D18" t="n">
-        <v>47.045236649332</v>
+        <v>3.881232023569893</v>
       </c>
       <c r="E18" t="n">
-        <v>47.045236649332</v>
+        <v>3.881232023569893</v>
       </c>
       <c r="F18" t="n">
-        <v>47.045236649332</v>
+        <v>3.881232023569893</v>
       </c>
       <c r="G18" t="n">
-        <v>47.045236649332</v>
+        <v>3.881232023569893</v>
       </c>
       <c r="H18" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569893</v>
       </c>
       <c r="I18" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569893</v>
       </c>
       <c r="J18" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569893</v>
       </c>
       <c r="K18" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569893</v>
       </c>
       <c r="L18" t="n">
         <v>45.85568787732696</v>
       </c>
       <c r="M18" t="n">
-        <v>93.88593416900437</v>
+        <v>93.8859341690044</v>
       </c>
       <c r="N18" t="n">
         <v>141.9161804606818</v>
       </c>
       <c r="O18" t="n">
-        <v>169.1457011422857</v>
+        <v>189.9464267523593</v>
       </c>
       <c r="P18" t="n">
-        <v>194.0616011784946</v>
+        <v>194.0616011784947</v>
       </c>
       <c r="Q18" t="n">
-        <v>194.0616011784946</v>
+        <v>194.0616011784947</v>
       </c>
       <c r="R18" t="n">
-        <v>194.0616011784946</v>
+        <v>145.1583588920971</v>
       </c>
       <c r="S18" t="n">
-        <v>145.0561463354404</v>
+        <v>96.15290404904293</v>
       </c>
       <c r="T18" t="n">
-        <v>145.0561463354404</v>
+        <v>96.15290404904293</v>
       </c>
       <c r="U18" t="n">
-        <v>96.05069149238619</v>
+        <v>96.15290404904293</v>
       </c>
       <c r="V18" t="n">
-        <v>96.05069149238619</v>
+        <v>96.15290404904293</v>
       </c>
       <c r="W18" t="n">
-        <v>96.05069149238619</v>
+        <v>96.15290404904293</v>
       </c>
       <c r="X18" t="n">
-        <v>96.05069149238619</v>
+        <v>47.14744920598872</v>
       </c>
       <c r="Y18" t="n">
-        <v>47.045236649332</v>
+        <v>3.881232023569893</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3.881232023569892</v>
+        <v>145.0561463354405</v>
       </c>
       <c r="C19" t="n">
-        <v>3.881232023569892</v>
+        <v>145.0561463354405</v>
       </c>
       <c r="D19" t="n">
-        <v>3.881232023569892</v>
+        <v>145.0561463354405</v>
       </c>
       <c r="E19" t="n">
-        <v>3.881232023569892</v>
+        <v>96.05069149238626</v>
       </c>
       <c r="F19" t="n">
-        <v>3.881232023569892</v>
+        <v>96.05069149238626</v>
       </c>
       <c r="G19" t="n">
-        <v>3.881232023569892</v>
+        <v>52.8866868666241</v>
       </c>
       <c r="H19" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569893</v>
       </c>
       <c r="I19" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569893</v>
       </c>
       <c r="J19" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569893</v>
       </c>
       <c r="K19" t="n">
-        <v>3.881232023569892</v>
+        <v>51.91147831524732</v>
       </c>
       <c r="L19" t="n">
-        <v>51.9114783152473</v>
+        <v>51.91147831524732</v>
       </c>
       <c r="M19" t="n">
-        <v>99.94172460692471</v>
+        <v>99.94172460692475</v>
       </c>
       <c r="N19" t="n">
-        <v>147.9719708986021</v>
+        <v>99.94172460692475</v>
       </c>
       <c r="O19" t="n">
-        <v>147.9719708986021</v>
+        <v>146.0313548868172</v>
       </c>
       <c r="P19" t="n">
-        <v>194.0616011784946</v>
+        <v>194.0616011784947</v>
       </c>
       <c r="Q19" t="n">
-        <v>194.0616011784946</v>
+        <v>194.0616011784947</v>
       </c>
       <c r="R19" t="n">
-        <v>194.0616011784946</v>
+        <v>194.0616011784947</v>
       </c>
       <c r="S19" t="n">
-        <v>194.0616011784946</v>
+        <v>145.0561463354405</v>
       </c>
       <c r="T19" t="n">
-        <v>194.0616011784946</v>
+        <v>145.0561463354405</v>
       </c>
       <c r="U19" t="n">
-        <v>194.0616011784946</v>
+        <v>145.0561463354405</v>
       </c>
       <c r="V19" t="n">
-        <v>145.0561463354404</v>
+        <v>145.0561463354405</v>
       </c>
       <c r="W19" t="n">
-        <v>96.05069149238619</v>
+        <v>145.0561463354405</v>
       </c>
       <c r="X19" t="n">
-        <v>52.88668686662408</v>
+        <v>145.0561463354405</v>
       </c>
       <c r="Y19" t="n">
-        <v>52.88668686662408</v>
+        <v>145.0561463354405</v>
       </c>
     </row>
     <row r="20">
@@ -5728,58 +5728,58 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>96.05069149238619</v>
+        <v>145.0561463354404</v>
       </c>
       <c r="C20" t="n">
-        <v>96.05069149238619</v>
+        <v>145.0561463354404</v>
       </c>
       <c r="D20" t="n">
         <v>96.05069149238619</v>
       </c>
       <c r="E20" t="n">
-        <v>52.88668686662408</v>
+        <v>96.05069149238619</v>
       </c>
       <c r="F20" t="n">
-        <v>3.881232023569892</v>
+        <v>96.05069149238619</v>
       </c>
       <c r="G20" t="n">
-        <v>3.881232023569892</v>
+        <v>52.88668686662407</v>
       </c>
       <c r="H20" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569891</v>
       </c>
       <c r="I20" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569891</v>
       </c>
       <c r="J20" t="n">
-        <v>51.9114783152473</v>
+        <v>3.881232023569891</v>
       </c>
       <c r="K20" t="n">
-        <v>51.9114783152473</v>
+        <v>3.881232023569891</v>
       </c>
       <c r="L20" t="n">
-        <v>61.84743266278371</v>
+        <v>13.8171863711063</v>
       </c>
       <c r="M20" t="n">
+        <v>56.54228748028625</v>
+      </c>
+      <c r="N20" t="n">
         <v>104.5725337719637</v>
       </c>
-      <c r="N20" t="n">
-        <v>152.6027800636411</v>
-      </c>
       <c r="O20" t="n">
-        <v>184.6211184119871</v>
+        <v>136.5908721203097</v>
       </c>
       <c r="P20" t="n">
-        <v>184.6211184119871</v>
+        <v>146.0313548868171</v>
       </c>
       <c r="Q20" t="n">
-        <v>194.0616011784946</v>
+        <v>194.0616011784945</v>
       </c>
       <c r="R20" t="n">
-        <v>194.0616011784946</v>
+        <v>194.0616011784945</v>
       </c>
       <c r="S20" t="n">
-        <v>145.0561463354404</v>
+        <v>194.0616011784945</v>
       </c>
       <c r="T20" t="n">
         <v>145.0561463354404</v>
@@ -5788,16 +5788,16 @@
         <v>145.0561463354404</v>
       </c>
       <c r="V20" t="n">
-        <v>96.05069149238619</v>
+        <v>145.0561463354404</v>
       </c>
       <c r="W20" t="n">
-        <v>96.05069149238619</v>
+        <v>145.0561463354404</v>
       </c>
       <c r="X20" t="n">
-        <v>96.05069149238619</v>
+        <v>145.0561463354404</v>
       </c>
       <c r="Y20" t="n">
-        <v>96.05069149238619</v>
+        <v>145.0561463354404</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3.881232023569892</v>
+        <v>47.14744920598866</v>
       </c>
       <c r="C21" t="n">
-        <v>3.881232023569892</v>
+        <v>47.14744920598866</v>
       </c>
       <c r="D21" t="n">
-        <v>3.881232023569892</v>
+        <v>47.14744920598866</v>
       </c>
       <c r="E21" t="n">
-        <v>3.881232023569892</v>
+        <v>47.14744920598866</v>
       </c>
       <c r="F21" t="n">
-        <v>3.881232023569892</v>
+        <v>47.14744920598866</v>
       </c>
       <c r="G21" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569891</v>
       </c>
       <c r="H21" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569891</v>
       </c>
       <c r="I21" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569891</v>
       </c>
       <c r="J21" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569891</v>
       </c>
       <c r="K21" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569891</v>
       </c>
       <c r="L21" t="n">
         <v>45.85568787732696</v>
       </c>
       <c r="M21" t="n">
-        <v>93.88593416900437</v>
+        <v>73.08520855893084</v>
       </c>
       <c r="N21" t="n">
-        <v>121.1154548506083</v>
+        <v>121.1154548506082</v>
       </c>
       <c r="O21" t="n">
-        <v>169.1457011422857</v>
+        <v>169.1457011422856</v>
       </c>
       <c r="P21" t="n">
-        <v>194.0616011784946</v>
+        <v>194.0616011784945</v>
       </c>
       <c r="Q21" t="n">
-        <v>194.0616011784946</v>
+        <v>194.0616011784945</v>
       </c>
       <c r="R21" t="n">
-        <v>194.0616011784946</v>
+        <v>145.158358892097</v>
       </c>
       <c r="S21" t="n">
-        <v>194.0616011784946</v>
+        <v>96.15290404904283</v>
       </c>
       <c r="T21" t="n">
-        <v>194.0616011784946</v>
+        <v>96.15290404904283</v>
       </c>
       <c r="U21" t="n">
-        <v>194.0616011784946</v>
+        <v>96.15290404904283</v>
       </c>
       <c r="V21" t="n">
-        <v>145.0561463354404</v>
+        <v>96.15290404904283</v>
       </c>
       <c r="W21" t="n">
-        <v>96.05069149238619</v>
+        <v>47.14744920598866</v>
       </c>
       <c r="X21" t="n">
-        <v>47.045236649332</v>
+        <v>47.14744920598866</v>
       </c>
       <c r="Y21" t="n">
-        <v>3.881232023569892</v>
+        <v>47.14744920598866</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
+        <v>3.881232023569891</v>
+      </c>
+      <c r="C22" t="n">
+        <v>3.881232023569891</v>
+      </c>
+      <c r="D22" t="n">
+        <v>3.881232023569891</v>
+      </c>
+      <c r="E22" t="n">
+        <v>3.881232023569891</v>
+      </c>
+      <c r="F22" t="n">
+        <v>3.881232023569891</v>
+      </c>
+      <c r="G22" t="n">
+        <v>3.881232023569891</v>
+      </c>
+      <c r="H22" t="n">
+        <v>3.881232023569891</v>
+      </c>
+      <c r="I22" t="n">
+        <v>3.881232023569891</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3.881232023569891</v>
+      </c>
+      <c r="K22" t="n">
+        <v>51.91147831524729</v>
+      </c>
+      <c r="L22" t="n">
+        <v>99.94172460692468</v>
+      </c>
+      <c r="M22" t="n">
+        <v>99.94172460692468</v>
+      </c>
+      <c r="N22" t="n">
+        <v>99.94172460692468</v>
+      </c>
+      <c r="O22" t="n">
+        <v>146.0313548868171</v>
+      </c>
+      <c r="P22" t="n">
+        <v>194.0616011784945</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>194.0616011784945</v>
+      </c>
+      <c r="R22" t="n">
+        <v>194.0616011784945</v>
+      </c>
+      <c r="S22" t="n">
+        <v>145.0561463354404</v>
+      </c>
+      <c r="T22" t="n">
         <v>96.05069149238619</v>
       </c>
-      <c r="C22" t="n">
+      <c r="U22" t="n">
         <v>96.05069149238619</v>
       </c>
-      <c r="D22" t="n">
-        <v>96.05069149238619</v>
-      </c>
-      <c r="E22" t="n">
-        <v>96.05069149238619</v>
-      </c>
-      <c r="F22" t="n">
-        <v>96.05069149238619</v>
-      </c>
-      <c r="G22" t="n">
-        <v>96.05069149238619</v>
-      </c>
-      <c r="H22" t="n">
-        <v>47.045236649332</v>
-      </c>
-      <c r="I22" t="n">
-        <v>3.881232023569892</v>
-      </c>
-      <c r="J22" t="n">
-        <v>3.881232023569892</v>
-      </c>
-      <c r="K22" t="n">
-        <v>51.9114783152473</v>
-      </c>
-      <c r="L22" t="n">
-        <v>99.94172460692471</v>
-      </c>
-      <c r="M22" t="n">
-        <v>147.9719708986021</v>
-      </c>
-      <c r="N22" t="n">
-        <v>194.0616011784946</v>
-      </c>
-      <c r="O22" t="n">
-        <v>194.0616011784946</v>
-      </c>
-      <c r="P22" t="n">
-        <v>194.0616011784946</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>194.0616011784946</v>
-      </c>
-      <c r="R22" t="n">
-        <v>194.0616011784946</v>
-      </c>
-      <c r="S22" t="n">
-        <v>194.0616011784946</v>
-      </c>
-      <c r="T22" t="n">
-        <v>194.0616011784946</v>
-      </c>
-      <c r="U22" t="n">
-        <v>194.0616011784946</v>
-      </c>
       <c r="V22" t="n">
-        <v>194.0616011784946</v>
+        <v>47.04523664933202</v>
       </c>
       <c r="W22" t="n">
-        <v>145.0561463354404</v>
+        <v>3.881232023569891</v>
       </c>
       <c r="X22" t="n">
-        <v>96.05069149238619</v>
+        <v>3.881232023569891</v>
       </c>
       <c r="Y22" t="n">
-        <v>96.05069149238619</v>
+        <v>3.881232023569891</v>
       </c>
     </row>
     <row r="23">
@@ -5965,31 +5965,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>276.1174882683716</v>
+        <v>144.9756266685854</v>
       </c>
       <c r="C23" t="n">
-        <v>206.3908498167626</v>
+        <v>144.9756266685854</v>
       </c>
       <c r="D23" t="n">
-        <v>206.3908498167626</v>
+        <v>144.9756266685854</v>
       </c>
       <c r="E23" t="n">
-        <v>206.3908498167626</v>
+        <v>75.24898821697644</v>
       </c>
       <c r="F23" t="n">
-        <v>206.3908498167626</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="G23" t="n">
-        <v>136.6642113651536</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="H23" t="n">
-        <v>66.93757291354461</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="I23" t="n">
         <v>5.522349765367433</v>
       </c>
       <c r="J23" t="n">
-        <v>5.522349765367433</v>
+        <v>73.86142811178941</v>
       </c>
       <c r="K23" t="n">
         <v>73.86142811178941</v>
@@ -5998,43 +5998,43 @@
         <v>83.79738245932582</v>
       </c>
       <c r="M23" t="n">
-        <v>126.5224835685058</v>
+        <v>139.4393315755277</v>
       </c>
       <c r="N23" t="n">
-        <v>174.5527298601832</v>
+        <v>207.7784099219497</v>
       </c>
       <c r="O23" t="n">
-        <v>242.8918082066052</v>
+        <v>276.1174882683716</v>
       </c>
       <c r="P23" t="n">
-        <v>242.8918082066052</v>
+        <v>276.1174882683716</v>
       </c>
       <c r="Q23" t="n">
         <v>276.1174882683716</v>
       </c>
       <c r="R23" t="n">
-        <v>276.1174882683716</v>
+        <v>223.5661527273864</v>
       </c>
       <c r="S23" t="n">
-        <v>276.1174882683716</v>
+        <v>223.5661527273864</v>
       </c>
       <c r="T23" t="n">
-        <v>276.1174882683716</v>
+        <v>223.5661527273864</v>
       </c>
       <c r="U23" t="n">
-        <v>276.1174882683716</v>
+        <v>223.5661527273864</v>
       </c>
       <c r="V23" t="n">
-        <v>276.1174882683716</v>
+        <v>214.7022651201945</v>
       </c>
       <c r="W23" t="n">
-        <v>276.1174882683716</v>
+        <v>214.7022651201945</v>
       </c>
       <c r="X23" t="n">
-        <v>276.1174882683716</v>
+        <v>214.7022651201945</v>
       </c>
       <c r="Y23" t="n">
-        <v>276.1174882683716</v>
+        <v>214.7022651201945</v>
       </c>
     </row>
     <row r="24">
@@ -6047,10 +6047,10 @@
         <v>136.6642113651536</v>
       </c>
       <c r="C24" t="n">
+        <v>136.6642113651536</v>
+      </c>
+      <c r="D24" t="n">
         <v>66.93757291354461</v>
-      </c>
-      <c r="D24" t="n">
-        <v>5.522349765367433</v>
       </c>
       <c r="E24" t="n">
         <v>5.522349765367433</v>
@@ -6071,22 +6071,22 @@
         <v>5.522349765367433</v>
       </c>
       <c r="K24" t="n">
-        <v>5.522349765367433</v>
+        <v>17.41613371387393</v>
       </c>
       <c r="L24" t="n">
-        <v>47.4968056191245</v>
+        <v>59.390589567631</v>
       </c>
       <c r="M24" t="n">
-        <v>115.8358839655465</v>
+        <v>127.729667914053</v>
       </c>
       <c r="N24" t="n">
-        <v>184.1749623119684</v>
+        <v>196.0687462604749</v>
       </c>
       <c r="O24" t="n">
-        <v>239.3078042836563</v>
+        <v>251.2015882321627</v>
       </c>
       <c r="P24" t="n">
-        <v>264.2237043198651</v>
+        <v>276.1174882683716</v>
       </c>
       <c r="Q24" t="n">
         <v>276.1174882683716</v>
@@ -6098,13 +6098,13 @@
         <v>206.3908498167626</v>
       </c>
       <c r="T24" t="n">
-        <v>206.3908498167626</v>
+        <v>136.6642113651536</v>
       </c>
       <c r="U24" t="n">
-        <v>206.3908498167626</v>
+        <v>136.6642113651536</v>
       </c>
       <c r="V24" t="n">
-        <v>206.3908498167626</v>
+        <v>136.6642113651536</v>
       </c>
       <c r="W24" t="n">
         <v>136.6642113651536</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>39.00199832765333</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="C25" t="n">
-        <v>39.00199832765333</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="D25" t="n">
-        <v>39.00199832765333</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="E25" t="n">
-        <v>39.00199832765333</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="F25" t="n">
-        <v>39.00199832765333</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="G25" t="n">
-        <v>39.00199832765333</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="H25" t="n">
-        <v>39.00199832765333</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="I25" t="n">
         <v>5.522349765367433</v>
@@ -6150,19 +6150,19 @@
         <v>5.522349765367433</v>
       </c>
       <c r="K25" t="n">
-        <v>63.83896525826776</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="L25" t="n">
-        <v>132.1780436046897</v>
+        <v>73.86142811178941</v>
       </c>
       <c r="M25" t="n">
-        <v>200.5171219511117</v>
+        <v>142.2005064582114</v>
       </c>
       <c r="N25" t="n">
-        <v>268.8562002975336</v>
+        <v>210.5395848046334</v>
       </c>
       <c r="O25" t="n">
-        <v>268.8562002975336</v>
+        <v>276.1174882683716</v>
       </c>
       <c r="P25" t="n">
         <v>276.1174882683716</v>
@@ -6174,25 +6174,25 @@
         <v>248.1819136824803</v>
       </c>
       <c r="S25" t="n">
-        <v>248.1819136824803</v>
+        <v>214.7022651201945</v>
       </c>
       <c r="T25" t="n">
-        <v>178.4552752308713</v>
+        <v>214.7022651201945</v>
       </c>
       <c r="U25" t="n">
-        <v>178.4552752308713</v>
+        <v>144.9756266685854</v>
       </c>
       <c r="V25" t="n">
-        <v>178.4552752308713</v>
+        <v>75.24898821697644</v>
       </c>
       <c r="W25" t="n">
-        <v>108.7286367792623</v>
+        <v>75.24898821697644</v>
       </c>
       <c r="X25" t="n">
-        <v>108.7286367792623</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="Y25" t="n">
-        <v>39.00199832765333</v>
+        <v>5.522349765367433</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>5.522349765367433</v>
+        <v>66.93757291354461</v>
       </c>
       <c r="C26" t="n">
         <v>5.522349765367433</v>
@@ -6229,16 +6229,16 @@
         <v>73.86142811178941</v>
       </c>
       <c r="K26" t="n">
-        <v>142.2005064582114</v>
+        <v>73.86142811178941</v>
       </c>
       <c r="L26" t="n">
+        <v>83.79738245932582</v>
+      </c>
+      <c r="M26" t="n">
         <v>152.1364608057478</v>
       </c>
-      <c r="M26" t="n">
-        <v>196.0689036283482</v>
-      </c>
       <c r="N26" t="n">
-        <v>244.0991499200256</v>
+        <v>207.7784099219497</v>
       </c>
       <c r="O26" t="n">
         <v>276.1174882683716</v>
@@ -6262,16 +6262,16 @@
         <v>136.6642113651536</v>
       </c>
       <c r="V26" t="n">
-        <v>66.93757291354461</v>
+        <v>136.6642113651536</v>
       </c>
       <c r="W26" t="n">
-        <v>66.93757291354461</v>
+        <v>136.6642113651536</v>
       </c>
       <c r="X26" t="n">
-        <v>66.93757291354461</v>
+        <v>136.6642113651536</v>
       </c>
       <c r="Y26" t="n">
-        <v>66.93757291354461</v>
+        <v>136.6642113651536</v>
       </c>
     </row>
     <row r="27">
@@ -6281,7 +6281,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>66.93757291354461</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="C27" t="n">
         <v>5.522349765367433</v>
@@ -6311,16 +6311,16 @@
         <v>5.522349765367433</v>
       </c>
       <c r="L27" t="n">
-        <v>47.4968056191245</v>
+        <v>59.390589567631</v>
       </c>
       <c r="M27" t="n">
-        <v>115.8358839655465</v>
+        <v>127.729667914053</v>
       </c>
       <c r="N27" t="n">
-        <v>184.1749623119684</v>
+        <v>196.0687462604749</v>
       </c>
       <c r="O27" t="n">
-        <v>239.3078042836563</v>
+        <v>251.2015882321627</v>
       </c>
       <c r="P27" t="n">
         <v>276.1174882683716</v>
@@ -6332,25 +6332,25 @@
         <v>276.1174882683716</v>
       </c>
       <c r="S27" t="n">
-        <v>276.1174882683716</v>
+        <v>214.7022651201945</v>
       </c>
       <c r="T27" t="n">
-        <v>276.1174882683716</v>
+        <v>214.7022651201945</v>
       </c>
       <c r="U27" t="n">
-        <v>206.3908498167626</v>
+        <v>214.7022651201945</v>
       </c>
       <c r="V27" t="n">
-        <v>206.3908498167626</v>
+        <v>144.9756266685854</v>
       </c>
       <c r="W27" t="n">
-        <v>136.6642113651536</v>
+        <v>75.24898821697644</v>
       </c>
       <c r="X27" t="n">
-        <v>136.6642113651536</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="Y27" t="n">
-        <v>66.93757291354461</v>
+        <v>5.522349765367433</v>
       </c>
     </row>
     <row r="28">
@@ -6360,46 +6360,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>49.9281504280772</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="C28" t="n">
-        <v>49.9281504280772</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="D28" t="n">
-        <v>49.9281504280772</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="E28" t="n">
-        <v>49.9281504280772</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="F28" t="n">
-        <v>49.9281504280772</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="G28" t="n">
-        <v>49.9281504280772</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="H28" t="n">
-        <v>49.9281504280772</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="I28" t="n">
-        <v>49.9281504280772</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="J28" t="n">
         <v>5.522349765367433</v>
       </c>
       <c r="K28" t="n">
-        <v>5.522349765367433</v>
+        <v>63.83896525826776</v>
       </c>
       <c r="L28" t="n">
-        <v>71.10025322910575</v>
+        <v>63.83896525826776</v>
       </c>
       <c r="M28" t="n">
-        <v>139.4393315755277</v>
+        <v>132.1780436046897</v>
       </c>
       <c r="N28" t="n">
-        <v>139.4393315755277</v>
+        <v>200.5171219511117</v>
       </c>
       <c r="O28" t="n">
-        <v>207.7784099219497</v>
+        <v>268.8562002975336</v>
       </c>
       <c r="P28" t="n">
         <v>276.1174882683716</v>
@@ -6408,28 +6408,28 @@
         <v>276.1174882683716</v>
       </c>
       <c r="R28" t="n">
-        <v>259.1080657829042</v>
+        <v>276.1174882683716</v>
       </c>
       <c r="S28" t="n">
-        <v>189.3814273312952</v>
+        <v>276.1174882683716</v>
       </c>
       <c r="T28" t="n">
-        <v>119.6547888796862</v>
+        <v>206.3908498167626</v>
       </c>
       <c r="U28" t="n">
-        <v>119.6547888796862</v>
+        <v>206.3908498167626</v>
       </c>
       <c r="V28" t="n">
-        <v>119.6547888796862</v>
+        <v>136.6642113651536</v>
       </c>
       <c r="W28" t="n">
-        <v>49.9281504280772</v>
+        <v>75.24898821697644</v>
       </c>
       <c r="X28" t="n">
-        <v>49.9281504280772</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="Y28" t="n">
-        <v>49.9281504280772</v>
+        <v>5.522349765367433</v>
       </c>
     </row>
     <row r="29">
@@ -6439,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>206.3908498167626</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="C29" t="n">
-        <v>136.6642113651536</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="D29" t="n">
-        <v>75.24898821697644</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="E29" t="n">
-        <v>75.24898821697644</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="F29" t="n">
         <v>5.522349765367433</v>
@@ -6466,22 +6466,22 @@
         <v>5.522349765367433</v>
       </c>
       <c r="K29" t="n">
-        <v>73.86142811178941</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="L29" t="n">
+        <v>15.45830411290384</v>
+      </c>
+      <c r="M29" t="n">
         <v>83.79738245932582</v>
       </c>
-      <c r="M29" t="n">
-        <v>126.5224835685058</v>
-      </c>
       <c r="N29" t="n">
-        <v>174.5527298601832</v>
+        <v>152.1364608057478</v>
       </c>
       <c r="O29" t="n">
-        <v>207.7784099219497</v>
+        <v>220.4755391521697</v>
       </c>
       <c r="P29" t="n">
-        <v>207.7784099219497</v>
+        <v>220.4755391521697</v>
       </c>
       <c r="Q29" t="n">
         <v>276.1174882683716</v>
@@ -6490,25 +6490,25 @@
         <v>276.1174882683716</v>
       </c>
       <c r="S29" t="n">
-        <v>276.1174882683716</v>
+        <v>206.3908498167626</v>
       </c>
       <c r="T29" t="n">
-        <v>276.1174882683716</v>
+        <v>136.6642113651536</v>
       </c>
       <c r="U29" t="n">
-        <v>276.1174882683716</v>
+        <v>136.6642113651536</v>
       </c>
       <c r="V29" t="n">
-        <v>276.1174882683716</v>
+        <v>66.93757291354461</v>
       </c>
       <c r="W29" t="n">
-        <v>276.1174882683716</v>
+        <v>66.93757291354461</v>
       </c>
       <c r="X29" t="n">
-        <v>276.1174882683716</v>
+        <v>66.93757291354461</v>
       </c>
       <c r="Y29" t="n">
-        <v>206.3908498167626</v>
+        <v>5.522349765367433</v>
       </c>
     </row>
     <row r="30">
@@ -6518,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>66.93757291354461</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="C30" t="n">
-        <v>66.93757291354461</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="D30" t="n">
-        <v>66.93757291354461</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="E30" t="n">
-        <v>66.93757291354461</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="F30" t="n">
-        <v>66.93757291354461</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="G30" t="n">
         <v>5.522349765367433</v>
@@ -6545,16 +6545,16 @@
         <v>5.522349765367433</v>
       </c>
       <c r="K30" t="n">
-        <v>5.522349765367433</v>
+        <v>17.41613371387393</v>
       </c>
       <c r="L30" t="n">
-        <v>47.4968056191245</v>
+        <v>59.390589567631</v>
       </c>
       <c r="M30" t="n">
-        <v>115.8358839655465</v>
+        <v>127.729667914053</v>
       </c>
       <c r="N30" t="n">
-        <v>184.1749623119684</v>
+        <v>196.0687462604749</v>
       </c>
       <c r="O30" t="n">
         <v>251.2015882321627</v>
@@ -6569,25 +6569,25 @@
         <v>276.1174882683716</v>
       </c>
       <c r="S30" t="n">
-        <v>206.3908498167626</v>
+        <v>276.1174882683716</v>
       </c>
       <c r="T30" t="n">
-        <v>136.6642113651536</v>
+        <v>276.1174882683716</v>
       </c>
       <c r="U30" t="n">
-        <v>136.6642113651536</v>
+        <v>214.7022651201945</v>
       </c>
       <c r="V30" t="n">
-        <v>66.93757291354461</v>
+        <v>144.9756266685854</v>
       </c>
       <c r="W30" t="n">
-        <v>66.93757291354461</v>
+        <v>75.24898821697644</v>
       </c>
       <c r="X30" t="n">
-        <v>66.93757291354461</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="Y30" t="n">
-        <v>66.93757291354461</v>
+        <v>5.522349765367433</v>
       </c>
     </row>
     <row r="31">
@@ -6600,19 +6600,19 @@
         <v>136.6642113651536</v>
       </c>
       <c r="C31" t="n">
-        <v>136.6642113651536</v>
+        <v>75.24898821697644</v>
       </c>
       <c r="D31" t="n">
-        <v>136.6642113651536</v>
+        <v>75.24898821697644</v>
       </c>
       <c r="E31" t="n">
-        <v>136.6642113651536</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="F31" t="n">
-        <v>136.6642113651536</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="G31" t="n">
-        <v>66.93757291354461</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="H31" t="n">
         <v>5.522349765367433</v>
@@ -6630,13 +6630,13 @@
         <v>71.10025322910575</v>
       </c>
       <c r="M31" t="n">
-        <v>71.10025322910575</v>
+        <v>139.4393315755277</v>
       </c>
       <c r="N31" t="n">
-        <v>139.4393315755277</v>
+        <v>207.7784099219497</v>
       </c>
       <c r="O31" t="n">
-        <v>207.7784099219497</v>
+        <v>276.1174882683716</v>
       </c>
       <c r="P31" t="n">
         <v>276.1174882683716</v>
@@ -6645,25 +6645,25 @@
         <v>276.1174882683716</v>
       </c>
       <c r="R31" t="n">
-        <v>276.1174882683716</v>
+        <v>206.3908498167626</v>
       </c>
       <c r="S31" t="n">
-        <v>276.1174882683716</v>
+        <v>206.3908498167626</v>
       </c>
       <c r="T31" t="n">
-        <v>276.1174882683716</v>
+        <v>206.3908498167626</v>
       </c>
       <c r="U31" t="n">
-        <v>276.1174882683716</v>
+        <v>206.3908498167626</v>
       </c>
       <c r="V31" t="n">
         <v>206.3908498167626</v>
       </c>
       <c r="W31" t="n">
-        <v>136.6642113651536</v>
+        <v>206.3908498167626</v>
       </c>
       <c r="X31" t="n">
-        <v>136.6642113651536</v>
+        <v>206.3908498167626</v>
       </c>
       <c r="Y31" t="n">
         <v>136.6642113651536</v>
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>276.1174882683716</v>
+        <v>144.9756266685854</v>
       </c>
       <c r="C32" t="n">
-        <v>206.3908498167626</v>
+        <v>144.9756266685854</v>
       </c>
       <c r="D32" t="n">
-        <v>136.6642113651536</v>
+        <v>144.9756266685854</v>
       </c>
       <c r="E32" t="n">
-        <v>66.93757291354461</v>
+        <v>144.9756266685854</v>
       </c>
       <c r="F32" t="n">
-        <v>66.93757291354461</v>
+        <v>75.24898821697644</v>
       </c>
       <c r="G32" t="n">
-        <v>66.93757291354461</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="H32" t="n">
-        <v>66.93757291354461</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="I32" t="n">
         <v>5.522349765367433</v>
@@ -6703,19 +6703,19 @@
         <v>5.522349765367433</v>
       </c>
       <c r="K32" t="n">
-        <v>5.522349765367433</v>
+        <v>73.86142811178941</v>
       </c>
       <c r="L32" t="n">
-        <v>73.86142811178941</v>
+        <v>83.79738245932582</v>
       </c>
       <c r="M32" t="n">
-        <v>127.7298252819263</v>
+        <v>152.1364608057478</v>
       </c>
       <c r="N32" t="n">
-        <v>175.7600715736037</v>
+        <v>207.7784099219497</v>
       </c>
       <c r="O32" t="n">
-        <v>207.7784099219497</v>
+        <v>276.1174882683716</v>
       </c>
       <c r="P32" t="n">
         <v>276.1174882683716</v>
@@ -6730,22 +6730,22 @@
         <v>276.1174882683716</v>
       </c>
       <c r="T32" t="n">
-        <v>276.1174882683716</v>
+        <v>214.7022651201945</v>
       </c>
       <c r="U32" t="n">
-        <v>276.1174882683716</v>
+        <v>214.7022651201945</v>
       </c>
       <c r="V32" t="n">
-        <v>276.1174882683716</v>
+        <v>214.7022651201945</v>
       </c>
       <c r="W32" t="n">
-        <v>276.1174882683716</v>
+        <v>214.7022651201945</v>
       </c>
       <c r="X32" t="n">
-        <v>276.1174882683716</v>
+        <v>214.7022651201945</v>
       </c>
       <c r="Y32" t="n">
-        <v>276.1174882683716</v>
+        <v>144.9756266685854</v>
       </c>
     </row>
     <row r="33">
@@ -6764,25 +6764,25 @@
         <v>136.6642113651536</v>
       </c>
       <c r="E33" t="n">
-        <v>75.24898821697644</v>
+        <v>136.6642113651536</v>
       </c>
       <c r="F33" t="n">
-        <v>5.522349765367433</v>
+        <v>136.6642113651536</v>
       </c>
       <c r="G33" t="n">
-        <v>5.522349765367433</v>
+        <v>136.5651224310529</v>
       </c>
       <c r="H33" t="n">
-        <v>5.522349765367433</v>
+        <v>66.83848397944391</v>
       </c>
       <c r="I33" t="n">
         <v>5.522349765367433</v>
       </c>
       <c r="J33" t="n">
-        <v>5.522349765367433</v>
+        <v>17.41613371387393</v>
       </c>
       <c r="K33" t="n">
-        <v>5.522349765367433</v>
+        <v>17.41613371387393</v>
       </c>
       <c r="L33" t="n">
         <v>59.390589567631</v>
@@ -6815,10 +6815,10 @@
         <v>206.3908498167626</v>
       </c>
       <c r="V33" t="n">
-        <v>136.6642113651536</v>
+        <v>206.3908498167626</v>
       </c>
       <c r="W33" t="n">
-        <v>136.6642113651536</v>
+        <v>206.3908498167626</v>
       </c>
       <c r="X33" t="n">
         <v>136.6642113651536</v>
@@ -6861,25 +6861,25 @@
         <v>5.522349765367433</v>
       </c>
       <c r="K34" t="n">
-        <v>63.83896525826776</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="L34" t="n">
-        <v>63.83896525826776</v>
+        <v>71.10025322910575</v>
       </c>
       <c r="M34" t="n">
-        <v>71.10025322910575</v>
+        <v>139.4393315755277</v>
       </c>
       <c r="N34" t="n">
-        <v>139.4393315755277</v>
+        <v>207.7784099219497</v>
       </c>
       <c r="O34" t="n">
-        <v>207.7784099219497</v>
+        <v>276.1174882683716</v>
       </c>
       <c r="P34" t="n">
         <v>276.1174882683716</v>
       </c>
       <c r="Q34" t="n">
-        <v>248.1819136824803</v>
+        <v>276.1174882683716</v>
       </c>
       <c r="R34" t="n">
         <v>214.7022651201945</v>
@@ -6891,19 +6891,19 @@
         <v>214.7022651201945</v>
       </c>
       <c r="U34" t="n">
-        <v>214.7022651201945</v>
+        <v>144.9756266685854</v>
       </c>
       <c r="V34" t="n">
-        <v>214.7022651201945</v>
+        <v>144.9756266685854</v>
       </c>
       <c r="W34" t="n">
-        <v>214.7022651201945</v>
+        <v>75.24898821697644</v>
       </c>
       <c r="X34" t="n">
-        <v>144.9756266685854</v>
+        <v>75.24898821697644</v>
       </c>
       <c r="Y34" t="n">
-        <v>75.24898821697644</v>
+        <v>5.522349765367433</v>
       </c>
     </row>
     <row r="35">
@@ -6913,46 +6913,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569891</v>
       </c>
       <c r="C35" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569891</v>
       </c>
       <c r="D35" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569891</v>
       </c>
       <c r="E35" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569891</v>
       </c>
       <c r="F35" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569891</v>
       </c>
       <c r="G35" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569891</v>
       </c>
       <c r="H35" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569891</v>
       </c>
       <c r="I35" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569891</v>
       </c>
       <c r="J35" t="n">
-        <v>51.9114783152473</v>
+        <v>3.881232023569891</v>
       </c>
       <c r="K35" t="n">
-        <v>51.9114783152473</v>
+        <v>3.881232023569891</v>
       </c>
       <c r="L35" t="n">
-        <v>61.84743266278371</v>
+        <v>13.8171863711063</v>
       </c>
       <c r="M35" t="n">
+        <v>56.54228748028625</v>
+      </c>
+      <c r="N35" t="n">
         <v>104.5725337719637</v>
       </c>
-      <c r="N35" t="n">
-        <v>152.6027800636411</v>
-      </c>
       <c r="O35" t="n">
-        <v>194.0616011784946</v>
+        <v>146.0313548868172</v>
       </c>
       <c r="P35" t="n">
         <v>194.0616011784946</v>
@@ -6961,28 +6961,28 @@
         <v>194.0616011784946</v>
       </c>
       <c r="R35" t="n">
-        <v>194.0616011784946</v>
+        <v>145.0561463354404</v>
       </c>
       <c r="S35" t="n">
-        <v>194.0616011784946</v>
+        <v>96.05069149238618</v>
       </c>
       <c r="T35" t="n">
-        <v>194.0616011784946</v>
+        <v>47.045236649332</v>
       </c>
       <c r="U35" t="n">
-        <v>194.0616011784946</v>
+        <v>47.045236649332</v>
       </c>
       <c r="V35" t="n">
-        <v>194.0616011784946</v>
+        <v>47.045236649332</v>
       </c>
       <c r="W35" t="n">
-        <v>145.0561463354404</v>
+        <v>47.045236649332</v>
       </c>
       <c r="X35" t="n">
-        <v>96.05069149238619</v>
+        <v>3.881232023569891</v>
       </c>
       <c r="Y35" t="n">
-        <v>47.045236649332</v>
+        <v>3.881232023569891</v>
       </c>
     </row>
     <row r="36">
@@ -6992,40 +6992,40 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>101.8921417096783</v>
+        <v>3.881232023569891</v>
       </c>
       <c r="C36" t="n">
-        <v>52.88668686662408</v>
+        <v>3.881232023569891</v>
       </c>
       <c r="D36" t="n">
-        <v>52.88668686662408</v>
+        <v>3.881232023569891</v>
       </c>
       <c r="E36" t="n">
-        <v>52.88668686662408</v>
+        <v>3.881232023569891</v>
       </c>
       <c r="F36" t="n">
-        <v>52.88668686662408</v>
+        <v>3.881232023569891</v>
       </c>
       <c r="G36" t="n">
-        <v>52.88668686662408</v>
+        <v>3.881232023569891</v>
       </c>
       <c r="H36" t="n">
-        <v>52.88668686662408</v>
+        <v>3.881232023569891</v>
       </c>
       <c r="I36" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569891</v>
       </c>
       <c r="J36" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569891</v>
       </c>
       <c r="K36" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569891</v>
       </c>
       <c r="L36" t="n">
         <v>45.85568787732696</v>
       </c>
       <c r="M36" t="n">
-        <v>73.0852085589309</v>
+        <v>93.88593416900437</v>
       </c>
       <c r="N36" t="n">
         <v>121.1154548506083</v>
@@ -7040,28 +7040,28 @@
         <v>194.0616011784946</v>
       </c>
       <c r="R36" t="n">
-        <v>150.8975965527325</v>
+        <v>145.158358892097</v>
       </c>
       <c r="S36" t="n">
-        <v>150.8975965527325</v>
+        <v>96.15290404904285</v>
       </c>
       <c r="T36" t="n">
-        <v>150.8975965527325</v>
+        <v>52.88668686662407</v>
       </c>
       <c r="U36" t="n">
-        <v>150.8975965527325</v>
+        <v>52.88668686662407</v>
       </c>
       <c r="V36" t="n">
-        <v>150.8975965527325</v>
+        <v>52.88668686662407</v>
       </c>
       <c r="W36" t="n">
-        <v>150.8975965527325</v>
+        <v>52.88668686662407</v>
       </c>
       <c r="X36" t="n">
-        <v>150.8975965527325</v>
+        <v>52.88668686662407</v>
       </c>
       <c r="Y36" t="n">
-        <v>101.8921417096783</v>
+        <v>52.88668686662407</v>
       </c>
     </row>
     <row r="37">
@@ -7071,43 +7071,43 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3.881232023569892</v>
+        <v>52.88668686662407</v>
       </c>
       <c r="C37" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569891</v>
       </c>
       <c r="D37" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569891</v>
       </c>
       <c r="E37" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569891</v>
       </c>
       <c r="F37" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569891</v>
       </c>
       <c r="G37" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569891</v>
       </c>
       <c r="H37" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569891</v>
       </c>
       <c r="I37" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569891</v>
       </c>
       <c r="J37" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569891</v>
       </c>
       <c r="K37" t="n">
-        <v>3.881232023569892</v>
+        <v>51.91147831524729</v>
       </c>
       <c r="L37" t="n">
-        <v>49.97086230346238</v>
+        <v>98.00110859513975</v>
       </c>
       <c r="M37" t="n">
-        <v>49.97086230346238</v>
+        <v>98.00110859513975</v>
       </c>
       <c r="N37" t="n">
-        <v>98.00110859513978</v>
+        <v>98.00110859513975</v>
       </c>
       <c r="O37" t="n">
         <v>146.0313548868172</v>
@@ -7119,28 +7119,28 @@
         <v>194.0616011784946</v>
       </c>
       <c r="R37" t="n">
-        <v>194.0616011784946</v>
+        <v>145.0561463354404</v>
       </c>
       <c r="S37" t="n">
         <v>145.0561463354404</v>
       </c>
       <c r="T37" t="n">
+        <v>145.0561463354404</v>
+      </c>
+      <c r="U37" t="n">
         <v>101.8921417096783</v>
       </c>
-      <c r="U37" t="n">
-        <v>52.88668686662408</v>
-      </c>
       <c r="V37" t="n">
-        <v>3.881232023569892</v>
+        <v>101.8921417096783</v>
       </c>
       <c r="W37" t="n">
-        <v>3.881232023569892</v>
+        <v>101.8921417096783</v>
       </c>
       <c r="X37" t="n">
-        <v>3.881232023569892</v>
+        <v>101.8921417096783</v>
       </c>
       <c r="Y37" t="n">
-        <v>3.881232023569892</v>
+        <v>52.88668686662407</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569893</v>
       </c>
       <c r="C38" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569893</v>
       </c>
       <c r="D38" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569893</v>
       </c>
       <c r="E38" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569893</v>
       </c>
       <c r="F38" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569893</v>
       </c>
       <c r="G38" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569893</v>
       </c>
       <c r="H38" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569893</v>
       </c>
       <c r="I38" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569893</v>
       </c>
       <c r="J38" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569893</v>
       </c>
       <c r="K38" t="n">
-        <v>51.9114783152473</v>
+        <v>23.25766913761387</v>
       </c>
       <c r="L38" t="n">
-        <v>61.84743266278371</v>
+        <v>71.2879154292913</v>
       </c>
       <c r="M38" t="n">
-        <v>109.8776789544611</v>
+        <v>114.0130165384712</v>
       </c>
       <c r="N38" t="n">
-        <v>157.9079252461385</v>
+        <v>162.0432628301486</v>
       </c>
       <c r="O38" t="n">
-        <v>194.0616011784946</v>
+        <v>194.0616011784947</v>
       </c>
       <c r="P38" t="n">
-        <v>194.0616011784946</v>
+        <v>194.0616011784947</v>
       </c>
       <c r="Q38" t="n">
-        <v>194.0616011784946</v>
+        <v>194.0616011784947</v>
       </c>
       <c r="R38" t="n">
-        <v>194.0616011784946</v>
+        <v>145.0561463354405</v>
       </c>
       <c r="S38" t="n">
-        <v>194.0616011784946</v>
+        <v>96.05069149238626</v>
       </c>
       <c r="T38" t="n">
-        <v>194.0616011784946</v>
+        <v>47.04523664933205</v>
       </c>
       <c r="U38" t="n">
-        <v>194.0616011784946</v>
+        <v>47.04523664933205</v>
       </c>
       <c r="V38" t="n">
-        <v>150.8975965527325</v>
+        <v>3.881232023569893</v>
       </c>
       <c r="W38" t="n">
-        <v>101.8921417096783</v>
+        <v>3.881232023569893</v>
       </c>
       <c r="X38" t="n">
-        <v>52.88668686662408</v>
+        <v>3.881232023569893</v>
       </c>
       <c r="Y38" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569893</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3.881232023569892</v>
+        <v>47.14744920598872</v>
       </c>
       <c r="C39" t="n">
-        <v>3.881232023569892</v>
+        <v>47.14744920598872</v>
       </c>
       <c r="D39" t="n">
-        <v>3.881232023569892</v>
+        <v>47.14744920598872</v>
       </c>
       <c r="E39" t="n">
-        <v>3.881232023569892</v>
+        <v>47.14744920598872</v>
       </c>
       <c r="F39" t="n">
-        <v>3.881232023569892</v>
+        <v>47.14744920598872</v>
       </c>
       <c r="G39" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569893</v>
       </c>
       <c r="H39" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569893</v>
       </c>
       <c r="I39" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569893</v>
       </c>
       <c r="J39" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569893</v>
       </c>
       <c r="K39" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569893</v>
       </c>
       <c r="L39" t="n">
         <v>45.85568787732696</v>
       </c>
       <c r="M39" t="n">
-        <v>93.88593416900437</v>
+        <v>93.8859341690044</v>
       </c>
       <c r="N39" t="n">
-        <v>121.1154548506083</v>
+        <v>121.1154548506084</v>
       </c>
       <c r="O39" t="n">
-        <v>169.1457011422857</v>
+        <v>169.1457011422858</v>
       </c>
       <c r="P39" t="n">
-        <v>194.0616011784946</v>
+        <v>194.0616011784947</v>
       </c>
       <c r="Q39" t="n">
-        <v>194.0616011784946</v>
+        <v>194.0616011784947</v>
       </c>
       <c r="R39" t="n">
-        <v>194.0616011784946</v>
+        <v>145.1583588920971</v>
       </c>
       <c r="S39" t="n">
-        <v>150.8975965527325</v>
+        <v>145.1583588920971</v>
       </c>
       <c r="T39" t="n">
-        <v>101.8921417096783</v>
+        <v>145.1583588920971</v>
       </c>
       <c r="U39" t="n">
-        <v>52.88668686662408</v>
+        <v>96.15290404904293</v>
       </c>
       <c r="V39" t="n">
-        <v>52.88668686662408</v>
+        <v>96.15290404904293</v>
       </c>
       <c r="W39" t="n">
-        <v>3.881232023569892</v>
+        <v>47.14744920598872</v>
       </c>
       <c r="X39" t="n">
-        <v>3.881232023569892</v>
+        <v>47.14744920598872</v>
       </c>
       <c r="Y39" t="n">
-        <v>3.881232023569892</v>
+        <v>47.14744920598872</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3.881232023569892</v>
+        <v>52.8866868666241</v>
       </c>
       <c r="C40" t="n">
-        <v>3.881232023569892</v>
+        <v>52.8866868666241</v>
       </c>
       <c r="D40" t="n">
-        <v>3.881232023569892</v>
+        <v>52.8866868666241</v>
       </c>
       <c r="E40" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569893</v>
       </c>
       <c r="F40" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569893</v>
       </c>
       <c r="G40" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569893</v>
       </c>
       <c r="H40" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569893</v>
       </c>
       <c r="I40" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569893</v>
       </c>
       <c r="J40" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569893</v>
       </c>
       <c r="K40" t="n">
-        <v>3.881232023569892</v>
+        <v>51.91147831524732</v>
       </c>
       <c r="L40" t="n">
-        <v>49.97086230346238</v>
+        <v>99.94172460692475</v>
       </c>
       <c r="M40" t="n">
-        <v>98.00110859513978</v>
+        <v>146.0313548868172</v>
       </c>
       <c r="N40" t="n">
-        <v>98.00110859513978</v>
+        <v>146.0313548868172</v>
       </c>
       <c r="O40" t="n">
         <v>146.0313548868172</v>
       </c>
       <c r="P40" t="n">
-        <v>194.0616011784946</v>
+        <v>194.0616011784947</v>
       </c>
       <c r="Q40" t="n">
-        <v>194.0616011784946</v>
+        <v>194.0616011784947</v>
       </c>
       <c r="R40" t="n">
-        <v>194.0616011784946</v>
+        <v>194.0616011784947</v>
       </c>
       <c r="S40" t="n">
-        <v>194.0616011784946</v>
+        <v>194.0616011784947</v>
       </c>
       <c r="T40" t="n">
-        <v>194.0616011784946</v>
+        <v>194.0616011784947</v>
       </c>
       <c r="U40" t="n">
-        <v>194.0616011784946</v>
+        <v>145.0561463354405</v>
       </c>
       <c r="V40" t="n">
-        <v>150.8975965527325</v>
+        <v>145.0561463354405</v>
       </c>
       <c r="W40" t="n">
-        <v>101.8921417096783</v>
+        <v>96.05069149238626</v>
       </c>
       <c r="X40" t="n">
-        <v>52.88668686662408</v>
+        <v>52.8866868666241</v>
       </c>
       <c r="Y40" t="n">
-        <v>52.88668686662408</v>
+        <v>52.8866868666241</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>194.0616011784946</v>
+        <v>47.04523664933205</v>
       </c>
       <c r="C41" t="n">
-        <v>194.0616011784946</v>
+        <v>47.04523664933205</v>
       </c>
       <c r="D41" t="n">
-        <v>194.0616011784946</v>
+        <v>3.881232023569893</v>
       </c>
       <c r="E41" t="n">
-        <v>145.0561463354404</v>
+        <v>3.881232023569893</v>
       </c>
       <c r="F41" t="n">
-        <v>96.05069149238619</v>
+        <v>3.881232023569893</v>
       </c>
       <c r="G41" t="n">
-        <v>47.045236649332</v>
+        <v>3.881232023569893</v>
       </c>
       <c r="H41" t="n">
-        <v>47.045236649332</v>
+        <v>3.881232023569893</v>
       </c>
       <c r="I41" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569893</v>
       </c>
       <c r="J41" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569893</v>
       </c>
       <c r="K41" t="n">
-        <v>3.881232023569892</v>
+        <v>45.34005313842346</v>
       </c>
       <c r="L41" t="n">
-        <v>51.9114783152473</v>
+        <v>55.27600748595987</v>
       </c>
       <c r="M41" t="n">
-        <v>98.00110859513978</v>
+        <v>98.00110859513981</v>
       </c>
       <c r="N41" t="n">
         <v>146.0313548868172</v>
       </c>
       <c r="O41" t="n">
-        <v>194.0616011784946</v>
+        <v>194.0616011784947</v>
       </c>
       <c r="P41" t="n">
-        <v>194.0616011784946</v>
+        <v>194.0616011784947</v>
       </c>
       <c r="Q41" t="n">
-        <v>194.0616011784946</v>
+        <v>194.0616011784947</v>
       </c>
       <c r="R41" t="n">
-        <v>194.0616011784946</v>
+        <v>145.0561463354405</v>
       </c>
       <c r="S41" t="n">
-        <v>194.0616011784946</v>
+        <v>145.0561463354405</v>
       </c>
       <c r="T41" t="n">
-        <v>194.0616011784946</v>
+        <v>145.0561463354405</v>
       </c>
       <c r="U41" t="n">
-        <v>194.0616011784946</v>
+        <v>145.0561463354405</v>
       </c>
       <c r="V41" t="n">
-        <v>194.0616011784946</v>
+        <v>145.0561463354405</v>
       </c>
       <c r="W41" t="n">
-        <v>194.0616011784946</v>
+        <v>145.0561463354405</v>
       </c>
       <c r="X41" t="n">
-        <v>194.0616011784946</v>
+        <v>96.05069149238626</v>
       </c>
       <c r="Y41" t="n">
-        <v>194.0616011784946</v>
+        <v>47.04523664933205</v>
       </c>
     </row>
     <row r="42">
@@ -7466,52 +7466,52 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>145.1583588920971</v>
+        <v>96.15290404904293</v>
       </c>
       <c r="C42" t="n">
-        <v>145.1583588920971</v>
+        <v>96.15290404904293</v>
       </c>
       <c r="D42" t="n">
-        <v>145.1583588920971</v>
+        <v>96.15290404904293</v>
       </c>
       <c r="E42" t="n">
-        <v>96.15290404904286</v>
+        <v>96.15290404904293</v>
       </c>
       <c r="F42" t="n">
-        <v>47.14744920598867</v>
+        <v>47.14744920598872</v>
       </c>
       <c r="G42" t="n">
-        <v>3.881232023569892</v>
+        <v>47.14744920598872</v>
       </c>
       <c r="H42" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569893</v>
       </c>
       <c r="I42" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569893</v>
       </c>
       <c r="J42" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569893</v>
       </c>
       <c r="K42" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569893</v>
       </c>
       <c r="L42" t="n">
         <v>45.85568787732696</v>
       </c>
       <c r="M42" t="n">
-        <v>93.88593416900437</v>
+        <v>93.8859341690044</v>
       </c>
       <c r="N42" t="n">
         <v>141.9161804606818</v>
       </c>
       <c r="O42" t="n">
-        <v>169.1457011422857</v>
+        <v>189.9464267523593</v>
       </c>
       <c r="P42" t="n">
-        <v>194.0616011784946</v>
+        <v>194.0616011784947</v>
       </c>
       <c r="Q42" t="n">
-        <v>194.0616011784946</v>
+        <v>194.0616011784947</v>
       </c>
       <c r="R42" t="n">
         <v>145.1583588920971</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>194.0616011784946</v>
+        <v>96.05069149238626</v>
       </c>
       <c r="C43" t="n">
-        <v>194.0616011784946</v>
+        <v>96.05069149238626</v>
       </c>
       <c r="D43" t="n">
-        <v>194.0616011784946</v>
+        <v>96.05069149238626</v>
       </c>
       <c r="E43" t="n">
-        <v>194.0616011784946</v>
+        <v>96.05069149238626</v>
       </c>
       <c r="F43" t="n">
-        <v>150.8975965527325</v>
+        <v>52.8866868666241</v>
       </c>
       <c r="G43" t="n">
-        <v>101.8921417096783</v>
+        <v>3.881232023569893</v>
       </c>
       <c r="H43" t="n">
-        <v>52.88668686662408</v>
+        <v>3.881232023569893</v>
       </c>
       <c r="I43" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569893</v>
       </c>
       <c r="J43" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569893</v>
       </c>
       <c r="K43" t="n">
-        <v>3.881232023569892</v>
+        <v>51.91147831524732</v>
       </c>
       <c r="L43" t="n">
-        <v>3.881232023569892</v>
+        <v>99.94172460692475</v>
       </c>
       <c r="M43" t="n">
-        <v>49.97086230346238</v>
+        <v>147.9719708986022</v>
       </c>
       <c r="N43" t="n">
-        <v>98.00110859513978</v>
+        <v>147.9719708986022</v>
       </c>
       <c r="O43" t="n">
-        <v>146.0313548868172</v>
+        <v>147.9719708986022</v>
       </c>
       <c r="P43" t="n">
-        <v>194.0616011784946</v>
+        <v>194.0616011784947</v>
       </c>
       <c r="Q43" t="n">
-        <v>194.0616011784946</v>
+        <v>194.0616011784947</v>
       </c>
       <c r="R43" t="n">
-        <v>194.0616011784946</v>
+        <v>194.0616011784947</v>
       </c>
       <c r="S43" t="n">
-        <v>194.0616011784946</v>
+        <v>194.0616011784947</v>
       </c>
       <c r="T43" t="n">
-        <v>194.0616011784946</v>
+        <v>194.0616011784947</v>
       </c>
       <c r="U43" t="n">
-        <v>194.0616011784946</v>
+        <v>145.0561463354405</v>
       </c>
       <c r="V43" t="n">
-        <v>194.0616011784946</v>
+        <v>96.05069149238626</v>
       </c>
       <c r="W43" t="n">
-        <v>194.0616011784946</v>
+        <v>96.05069149238626</v>
       </c>
       <c r="X43" t="n">
-        <v>194.0616011784946</v>
+        <v>96.05069149238626</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.0616011784946</v>
+        <v>96.05069149238626</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>101.8921417096783</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="C44" t="n">
-        <v>52.88668686662408</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="D44" t="n">
-        <v>52.88668686662408</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="E44" t="n">
-        <v>52.88668686662408</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="F44" t="n">
-        <v>52.88668686662408</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="G44" t="n">
         <v>3.881232023569892</v>
@@ -7654,19 +7654,19 @@
         <v>3.881232023569892</v>
       </c>
       <c r="L44" t="n">
-        <v>51.9114783152473</v>
+        <v>13.8171863711063</v>
       </c>
       <c r="M44" t="n">
-        <v>99.94172460692471</v>
+        <v>61.84743266278371</v>
       </c>
       <c r="N44" t="n">
-        <v>147.9719708986021</v>
+        <v>109.8776789544611</v>
       </c>
       <c r="O44" t="n">
-        <v>194.0616011784946</v>
+        <v>146.0313548868172</v>
       </c>
       <c r="P44" t="n">
-        <v>194.0616011784946</v>
+        <v>146.0313548868172</v>
       </c>
       <c r="Q44" t="n">
         <v>194.0616011784946</v>
@@ -7684,16 +7684,16 @@
         <v>194.0616011784946</v>
       </c>
       <c r="V44" t="n">
-        <v>194.0616011784946</v>
+        <v>145.0561463354404</v>
       </c>
       <c r="W44" t="n">
-        <v>194.0616011784946</v>
+        <v>96.05069149238619</v>
       </c>
       <c r="X44" t="n">
-        <v>194.0616011784946</v>
+        <v>47.045236649332</v>
       </c>
       <c r="Y44" t="n">
-        <v>145.0561463354404</v>
+        <v>3.881232023569892</v>
       </c>
     </row>
     <row r="45">
@@ -7703,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
+        <v>101.8921417096783</v>
+      </c>
+      <c r="C45" t="n">
+        <v>101.8921417096783</v>
+      </c>
+      <c r="D45" t="n">
+        <v>101.8921417096783</v>
+      </c>
+      <c r="E45" t="n">
         <v>52.88668686662408</v>
       </c>
-      <c r="C45" t="n">
-        <v>3.881232023569892</v>
-      </c>
-      <c r="D45" t="n">
-        <v>3.881232023569892</v>
-      </c>
-      <c r="E45" t="n">
-        <v>3.881232023569892</v>
-      </c>
       <c r="F45" t="n">
-        <v>3.881232023569892</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="G45" t="n">
         <v>3.881232023569892</v>
@@ -7733,7 +7733,7 @@
         <v>3.881232023569892</v>
       </c>
       <c r="L45" t="n">
-        <v>45.85568787732696</v>
+        <v>25.05496226725349</v>
       </c>
       <c r="M45" t="n">
         <v>73.0852085589309</v>
@@ -7754,10 +7754,10 @@
         <v>194.0616011784946</v>
       </c>
       <c r="S45" t="n">
-        <v>150.8975965527325</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="T45" t="n">
-        <v>150.8975965527325</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="U45" t="n">
         <v>150.8975965527325</v>
@@ -7772,7 +7772,7 @@
         <v>101.8921417096783</v>
       </c>
       <c r="Y45" t="n">
-        <v>52.88668686662408</v>
+        <v>101.8921417096783</v>
       </c>
     </row>
     <row r="46">
@@ -7782,13 +7782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3.881232023569892</v>
+        <v>96.05069149238619</v>
       </c>
       <c r="C46" t="n">
-        <v>3.881232023569892</v>
+        <v>96.05069149238619</v>
       </c>
       <c r="D46" t="n">
-        <v>3.881232023569892</v>
+        <v>47.045236649332</v>
       </c>
       <c r="E46" t="n">
         <v>3.881232023569892</v>
@@ -7809,19 +7809,19 @@
         <v>3.881232023569892</v>
       </c>
       <c r="K46" t="n">
-        <v>3.881232023569892</v>
+        <v>51.9114783152473</v>
       </c>
       <c r="L46" t="n">
-        <v>51.9114783152473</v>
+        <v>99.94172460692471</v>
       </c>
       <c r="M46" t="n">
-        <v>99.94172460692471</v>
+        <v>147.9719708986021</v>
       </c>
       <c r="N46" t="n">
-        <v>99.94172460692471</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="O46" t="n">
-        <v>146.0313548868172</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="P46" t="n">
         <v>194.0616011784946</v>
@@ -7830,28 +7830,28 @@
         <v>194.0616011784946</v>
       </c>
       <c r="R46" t="n">
+        <v>194.0616011784946</v>
+      </c>
+      <c r="S46" t="n">
         <v>145.0561463354404</v>
       </c>
-      <c r="S46" t="n">
-        <v>96.05069149238619</v>
-      </c>
       <c r="T46" t="n">
-        <v>52.88668686662408</v>
+        <v>145.0561463354404</v>
       </c>
       <c r="U46" t="n">
-        <v>3.881232023569892</v>
+        <v>145.0561463354404</v>
       </c>
       <c r="V46" t="n">
-        <v>3.881232023569892</v>
+        <v>145.0561463354404</v>
       </c>
       <c r="W46" t="n">
-        <v>3.881232023569892</v>
+        <v>145.0561463354404</v>
       </c>
       <c r="X46" t="n">
-        <v>3.881232023569892</v>
+        <v>145.0561463354404</v>
       </c>
       <c r="Y46" t="n">
-        <v>3.881232023569892</v>
+        <v>145.0561463354404</v>
       </c>
     </row>
   </sheetData>
@@ -8689,22 +8689,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>97.36099959559726</v>
+        <v>48.84559930097362</v>
       </c>
       <c r="K11" t="n">
         <v>21.95586290547635</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>38.47908277185959</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>5.358732507573187</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>9.535841178290418</v>
+        <v>14.21342619348128</v>
       </c>
       <c r="P11" t="n">
         <v>7.246555403111074</v>
@@ -8850,22 +8850,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K13" t="n">
-        <v>96.35349442422533</v>
+        <v>96.35349442422532</v>
       </c>
       <c r="L13" t="n">
-        <v>79.52381423427897</v>
+        <v>77.5635960405568</v>
       </c>
       <c r="M13" t="n">
-        <v>75.95801193600107</v>
+        <v>77.91823012972323</v>
       </c>
       <c r="N13" t="n">
-        <v>69.28220170030768</v>
+        <v>20.76680140568403</v>
       </c>
       <c r="O13" t="n">
         <v>39.69977393631557</v>
       </c>
       <c r="P13" t="n">
-        <v>53.22453124785014</v>
+        <v>101.7399315424738</v>
       </c>
       <c r="Q13" t="n">
         <v>65.34295837775146</v>
@@ -8932,19 +8932,19 @@
         <v>21.95586290547635</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>38.47908277185962</v>
       </c>
       <c r="M14" t="n">
-        <v>5.358732507573194</v>
+        <v>3.398514313851052</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>16.17364438720344</v>
+        <v>16.17364438720347</v>
       </c>
       <c r="P14" t="n">
-        <v>43.76541998124851</v>
+        <v>7.246555403111074</v>
       </c>
       <c r="Q14" t="n">
         <v>54.10120131416818</v>
@@ -9090,19 +9090,19 @@
         <v>47.83809412960169</v>
       </c>
       <c r="L16" t="n">
-        <v>79.52381423427897</v>
+        <v>77.56359604055683</v>
       </c>
       <c r="M16" t="n">
-        <v>77.91823012972323</v>
+        <v>77.91823012972326</v>
       </c>
       <c r="N16" t="n">
-        <v>67.32198350658552</v>
+        <v>20.76680140568403</v>
       </c>
       <c r="O16" t="n">
-        <v>88.21517423093921</v>
+        <v>88.21517423093924</v>
       </c>
       <c r="P16" t="n">
-        <v>53.22453124785014</v>
+        <v>101.7399315424738</v>
       </c>
       <c r="Q16" t="n">
         <v>65.34295837775146</v>
@@ -9163,22 +9163,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>97.36099959559726</v>
+        <v>48.84559930097362</v>
       </c>
       <c r="K17" t="n">
-        <v>31.49170408376679</v>
+        <v>21.95586290547635</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>38.47908277185962</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>5.358732507573215</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>14.21342619348128</v>
       </c>
       <c r="P17" t="n">
         <v>7.246555403111074</v>
@@ -9324,22 +9324,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
-        <v>47.83809412960169</v>
+        <v>96.35349442422535</v>
       </c>
       <c r="L19" t="n">
-        <v>79.52381423427897</v>
+        <v>31.00841393965533</v>
       </c>
       <c r="M19" t="n">
-        <v>77.91823012972323</v>
+        <v>77.91823012972324</v>
       </c>
       <c r="N19" t="n">
-        <v>69.28220170030768</v>
+        <v>20.76680140568403</v>
       </c>
       <c r="O19" t="n">
-        <v>39.69977393631557</v>
+        <v>86.25495603721707</v>
       </c>
       <c r="P19" t="n">
-        <v>99.77971334875163</v>
+        <v>101.7399315424738</v>
       </c>
       <c r="Q19" t="n">
         <v>65.34295837775146</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>97.36099959559726</v>
+        <v>48.84559930097362</v>
       </c>
       <c r="K20" t="n">
         <v>21.95586290547635</v>
@@ -9418,10 +9418,10 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>7.246555403111074</v>
+        <v>16.78239658140145</v>
       </c>
       <c r="Q20" t="n">
-        <v>63.63704249245858</v>
+        <v>102.6166016087918</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9561,22 +9561,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
-        <v>96.35349442422533</v>
+        <v>96.35349442422532</v>
       </c>
       <c r="L22" t="n">
-        <v>79.52381423427897</v>
+        <v>79.52381423427896</v>
       </c>
       <c r="M22" t="n">
-        <v>77.91823012972323</v>
+        <v>29.40282983509958</v>
       </c>
       <c r="N22" t="n">
-        <v>67.32198350658552</v>
+        <v>20.76680140568403</v>
       </c>
       <c r="O22" t="n">
-        <v>39.69977393631557</v>
+        <v>86.25495603721703</v>
       </c>
       <c r="P22" t="n">
-        <v>53.22453124785014</v>
+        <v>101.7399315424738</v>
       </c>
       <c r="Q22" t="n">
         <v>65.34295837775146</v>
@@ -9637,19 +9637,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>48.84559930097362</v>
+        <v>117.8749713680665</v>
       </c>
       <c r="K23" t="n">
-        <v>90.98523497256926</v>
+        <v>21.95586290547635</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>13.04732121921409</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>20.51397177246923</v>
       </c>
       <c r="O23" t="n">
         <v>36.6876161596727</v>
@@ -9658,7 +9658,7 @@
         <v>7.246555403111074</v>
       </c>
       <c r="Q23" t="n">
-        <v>87.66249430585148</v>
+        <v>54.10120131416818</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9719,7 +9719,7 @@
         <v>48.10003053698959</v>
       </c>
       <c r="K24" t="n">
-        <v>3.266346048945991</v>
+        <v>15.28026922925558</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>45.61349598699763</v>
+        <v>33.59957280668804</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9798,7 +9798,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
-        <v>106.7437663446525</v>
+        <v>47.83809412960169</v>
       </c>
       <c r="L25" t="n">
         <v>100.0377860067482</v>
@@ -9810,10 +9810,10 @@
         <v>89.79617347277694</v>
       </c>
       <c r="O25" t="n">
-        <v>39.69977393631557</v>
+        <v>105.9400804653441</v>
       </c>
       <c r="P25" t="n">
-        <v>60.55916556182791</v>
+        <v>53.22453124785014</v>
       </c>
       <c r="Q25" t="n">
         <v>65.34295837775146</v>
@@ -9877,19 +9877,19 @@
         <v>117.8749713680665</v>
       </c>
       <c r="K26" t="n">
-        <v>90.98523497256926</v>
+        <v>21.95586290547635</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>1.219537084263138</v>
+        <v>25.87270428004246</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>7.688588711640882</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>36.6876161596727</v>
       </c>
       <c r="P26" t="n">
         <v>7.246555403111074</v>
@@ -9959,7 +9959,7 @@
         <v>3.266346048945991</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>12.0139231803096</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>12.01392318030958</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>33.59957280668804</v>
@@ -10035,22 +10035,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>47.83809412960169</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L28" t="n">
-        <v>97.24872046868393</v>
+        <v>31.00841393965533</v>
       </c>
       <c r="M28" t="n">
         <v>98.43220190219249</v>
       </c>
       <c r="N28" t="n">
-        <v>20.76680140568403</v>
+        <v>89.79617347277694</v>
       </c>
       <c r="O28" t="n">
         <v>108.7291460034085</v>
       </c>
       <c r="P28" t="n">
-        <v>122.253903314943</v>
+        <v>60.55916556182791</v>
       </c>
       <c r="Q28" t="n">
         <v>65.34295837775146</v>
@@ -10114,25 +10114,25 @@
         <v>48.84559930097362</v>
       </c>
       <c r="K29" t="n">
-        <v>90.98523497256926</v>
+        <v>21.95586290547635</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>25.87270428004246</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>20.51397177246926</v>
       </c>
       <c r="O29" t="n">
-        <v>1.219537084263123</v>
+        <v>36.6876161596727</v>
       </c>
       <c r="P29" t="n">
         <v>7.246555403111074</v>
       </c>
       <c r="Q29" t="n">
-        <v>123.1305733812611</v>
+        <v>110.3051903204327</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10193,7 +10193,7 @@
         <v>48.10003053698959</v>
       </c>
       <c r="K30" t="n">
-        <v>3.266346048945991</v>
+        <v>15.28026922925558</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10205,7 +10205,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>12.01392318030958</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -10278,7 +10278,7 @@
         <v>97.24872046868393</v>
       </c>
       <c r="M31" t="n">
-        <v>29.40282983509958</v>
+        <v>98.43220190219249</v>
       </c>
       <c r="N31" t="n">
         <v>89.79617347277694</v>
@@ -10287,7 +10287,7 @@
         <v>108.7291460034085</v>
       </c>
       <c r="P31" t="n">
-        <v>122.253903314943</v>
+        <v>53.22453124785014</v>
       </c>
       <c r="Q31" t="n">
         <v>65.34295837775146</v>
@@ -10351,22 +10351,22 @@
         <v>48.84559930097362</v>
       </c>
       <c r="K32" t="n">
-        <v>21.95586290547635</v>
+        <v>90.98523497256926</v>
       </c>
       <c r="L32" t="n">
-        <v>58.99305454432886</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>11.2558546070272</v>
+        <v>25.87270428004246</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>7.688588711640882</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>36.6876161596727</v>
       </c>
       <c r="P32" t="n">
-        <v>76.27592747020395</v>
+        <v>7.246555403111074</v>
       </c>
       <c r="Q32" t="n">
         <v>54.10120131416818</v>
@@ -10427,13 +10427,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>48.10003053698959</v>
+        <v>60.11395371729918</v>
       </c>
       <c r="K33" t="n">
         <v>3.266346048945991</v>
       </c>
       <c r="L33" t="n">
-        <v>12.0139231803096</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10509,13 +10509,13 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
-        <v>106.7437663446525</v>
+        <v>47.83809412960169</v>
       </c>
       <c r="L34" t="n">
-        <v>31.00841393965533</v>
+        <v>97.24872046868393</v>
       </c>
       <c r="M34" t="n">
-        <v>36.73746414907734</v>
+        <v>98.43220190219249</v>
       </c>
       <c r="N34" t="n">
         <v>89.79617347277694</v>
@@ -10524,7 +10524,7 @@
         <v>108.7291460034085</v>
       </c>
       <c r="P34" t="n">
-        <v>122.253903314943</v>
+        <v>53.22453124785014</v>
       </c>
       <c r="Q34" t="n">
         <v>65.34295837775146</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>97.36099959559726</v>
+        <v>48.84559930097362</v>
       </c>
       <c r="K35" t="n">
         <v>21.95586290547635</v>
@@ -10600,10 +10600,10 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>9.535841178290418</v>
+        <v>9.53584117829039</v>
       </c>
       <c r="P35" t="n">
-        <v>7.246555403111074</v>
+        <v>55.76195569773472</v>
       </c>
       <c r="Q35" t="n">
         <v>54.10120131416818</v>
@@ -10746,16 +10746,16 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K37" t="n">
-        <v>47.83809412960169</v>
+        <v>96.35349442422532</v>
       </c>
       <c r="L37" t="n">
-        <v>77.56359604055683</v>
+        <v>77.5635960405568</v>
       </c>
       <c r="M37" t="n">
         <v>29.40282983509958</v>
       </c>
       <c r="N37" t="n">
-        <v>69.28220170030768</v>
+        <v>20.76680140568403</v>
       </c>
       <c r="O37" t="n">
         <v>88.21517423093921</v>
@@ -10825,19 +10825,19 @@
         <v>48.84559930097362</v>
       </c>
       <c r="K38" t="n">
-        <v>70.4712632001</v>
+        <v>41.52802160653088</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>38.47908277185959</v>
       </c>
       <c r="M38" t="n">
-        <v>5.358732507573194</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>4.177108670717232</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>7.246555403111074</v>
@@ -10983,19 +10983,19 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
-        <v>47.83809412960169</v>
+        <v>96.35349442422535</v>
       </c>
       <c r="L40" t="n">
-        <v>77.56359604055683</v>
+        <v>79.523814234279</v>
       </c>
       <c r="M40" t="n">
-        <v>77.91823012972323</v>
+        <v>75.95801193600109</v>
       </c>
       <c r="N40" t="n">
         <v>20.76680140568403</v>
       </c>
       <c r="O40" t="n">
-        <v>88.21517423093921</v>
+        <v>39.69977393631557</v>
       </c>
       <c r="P40" t="n">
         <v>101.7399315424738</v>
@@ -11062,13 +11062,13 @@
         <v>48.84559930097362</v>
       </c>
       <c r="K41" t="n">
-        <v>21.95586290547635</v>
+        <v>63.83345999118702</v>
       </c>
       <c r="L41" t="n">
-        <v>38.47908277185959</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>3.398514313851045</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11220,22 +11220,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>47.83809412960169</v>
+        <v>96.35349442422535</v>
       </c>
       <c r="L43" t="n">
-        <v>31.00841393965533</v>
+        <v>79.523814234279</v>
       </c>
       <c r="M43" t="n">
-        <v>75.95801193600107</v>
+        <v>77.91823012972324</v>
       </c>
       <c r="N43" t="n">
-        <v>69.28220170030768</v>
+        <v>20.76680140568403</v>
       </c>
       <c r="O43" t="n">
-        <v>88.21517423093921</v>
+        <v>39.69977393631557</v>
       </c>
       <c r="P43" t="n">
-        <v>101.7399315424738</v>
+        <v>99.77971334875163</v>
       </c>
       <c r="Q43" t="n">
         <v>65.34295837775146</v>
@@ -11302,7 +11302,7 @@
         <v>21.95586290547635</v>
       </c>
       <c r="L44" t="n">
-        <v>38.47908277185959</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>5.358732507573194</v>
@@ -11311,13 +11311,13 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>14.21342619348128</v>
+        <v>4.177108670717232</v>
       </c>
       <c r="P44" t="n">
         <v>7.246555403111074</v>
       </c>
       <c r="Q44" t="n">
-        <v>54.10120131416818</v>
+        <v>102.6166016087919</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11457,7 +11457,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>47.83809412960169</v>
+        <v>96.35349442422533</v>
       </c>
       <c r="L46" t="n">
         <v>79.52381423427897</v>
@@ -11466,13 +11466,13 @@
         <v>77.91823012972323</v>
       </c>
       <c r="N46" t="n">
-        <v>20.76680140568403</v>
+        <v>67.32198350658552</v>
       </c>
       <c r="O46" t="n">
-        <v>86.25495603721706</v>
+        <v>39.69977393631557</v>
       </c>
       <c r="P46" t="n">
-        <v>101.7399315424738</v>
+        <v>53.22453124785014</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -23266,16 +23266,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>339.1980054927573</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>358.3606454470878</v>
       </c>
       <c r="G11" t="n">
-        <v>413.7451262958156</v>
+        <v>365.229726001192</v>
       </c>
       <c r="H11" t="n">
-        <v>323.522916215912</v>
+        <v>275.0075159212884</v>
       </c>
       <c r="I11" t="n">
         <v>150.4260830375935</v>
@@ -23305,16 +23305,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>3.510421890951747</v>
+        <v>52.02582218557539</v>
       </c>
       <c r="S11" t="n">
-        <v>125.0106036313801</v>
+        <v>173.5260039260038</v>
       </c>
       <c r="T11" t="n">
-        <v>167.7620061569369</v>
+        <v>216.2774064515606</v>
       </c>
       <c r="U11" t="n">
-        <v>208.4886794307864</v>
+        <v>251.2210440102909</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23336,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>118.0177833552437</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -23348,10 +23348,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>102.3368478138794</v>
       </c>
       <c r="G12" t="n">
-        <v>136.5101216886474</v>
+        <v>87.99472139402377</v>
       </c>
       <c r="H12" t="n">
         <v>104.1865984690043</v>
@@ -23390,13 +23390,13 @@
         <v>107.6878153935333</v>
       </c>
       <c r="T12" t="n">
-        <v>154.0731955138978</v>
+        <v>196.8055600934023</v>
       </c>
       <c r="U12" t="n">
-        <v>177.3711531367089</v>
+        <v>225.8865534313325</v>
       </c>
       <c r="V12" t="n">
-        <v>184.2851868548016</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
@@ -23421,22 +23421,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>100.1000727235887</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>96.9056477283076</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>118.7768882935297</v>
+        <v>167.2922885881534</v>
       </c>
       <c r="H13" t="n">
-        <v>107.4997760913736</v>
+        <v>156.0151763859972</v>
       </c>
       <c r="I13" t="n">
-        <v>91.70657336438848</v>
+        <v>134.438937943893</v>
       </c>
       <c r="J13" t="n">
         <v>43.96174265608267</v>
@@ -23460,13 +23460,13 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>27.65621884003237</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>145.8777136505296</v>
       </c>
       <c r="S13" t="n">
-        <v>211.8403234308322</v>
+        <v>163.3249231362086</v>
       </c>
       <c r="T13" t="n">
         <v>224.9602743187949</v>
@@ -23478,10 +23478,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>238.0075980419674</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>210.633509649565</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23509,7 +23509,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>413.7451262958156</v>
+        <v>365.229726001192</v>
       </c>
       <c r="H14" t="n">
         <v>323.522916215912</v>
@@ -23542,19 +23542,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>52.02582218557539</v>
+        <v>3.510421890951726</v>
       </c>
       <c r="S14" t="n">
-        <v>130.7936393464993</v>
+        <v>125.0106036313801</v>
       </c>
       <c r="T14" t="n">
-        <v>167.7620061569369</v>
+        <v>216.2774064515606</v>
       </c>
       <c r="U14" t="n">
-        <v>202.7056437156673</v>
+        <v>208.4886794307864</v>
       </c>
       <c r="V14" t="n">
-        <v>279.2368581755113</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23573,10 +23573,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>118.0177833552437</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>124.1930986936921</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -23627,22 +23627,22 @@
         <v>156.2032156881569</v>
       </c>
       <c r="T15" t="n">
-        <v>196.8055600934023</v>
+        <v>154.0731955138978</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8865534313325</v>
+        <v>177.3711531367088</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>203.1795828662959</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>162.9503311977999</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>131.3165798873136</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23661,22 +23661,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>97.9185623519455</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>120.0062663701079</v>
+        <v>167.2922885881534</v>
       </c>
       <c r="H16" t="n">
-        <v>107.4997760913736</v>
+        <v>156.0151763859972</v>
       </c>
       <c r="I16" t="n">
-        <v>85.92353764926932</v>
+        <v>134.438937943893</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>43.96174265608267</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23706,10 +23706,10 @@
         <v>211.8403234308322</v>
       </c>
       <c r="T16" t="n">
-        <v>224.9602743187949</v>
+        <v>176.4448740241712</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2809189508379</v>
+        <v>243.5485543713334</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23740,7 +23740,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>339.1980054927573</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -23785,7 +23785,7 @@
         <v>173.5260039260038</v>
       </c>
       <c r="T17" t="n">
-        <v>167.7620061569369</v>
+        <v>216.2774064515606</v>
       </c>
       <c r="U17" t="n">
         <v>251.2210440102909</v>
@@ -23794,13 +23794,13 @@
         <v>279.2368581755113</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>300.7255684227894</v>
       </c>
       <c r="X17" t="n">
-        <v>321.2157003838454</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>343.5055740765491</v>
+        <v>337.7225383614299</v>
       </c>
     </row>
     <row r="18">
@@ -23828,7 +23828,7 @@
         <v>136.5101216886474</v>
       </c>
       <c r="H18" t="n">
-        <v>61.4542338894998</v>
+        <v>104.1865984690043</v>
       </c>
       <c r="I18" t="n">
         <v>60.7029728719357</v>
@@ -23858,16 +23858,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>48.41420986353356</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>107.6878153935333</v>
+        <v>107.6878153935332</v>
       </c>
       <c r="T18" t="n">
         <v>196.8055600934023</v>
       </c>
       <c r="U18" t="n">
-        <v>177.3711531367089</v>
+        <v>225.8865534313325</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -23876,10 +23876,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>157.2575849088538</v>
       </c>
       <c r="Y18" t="n">
-        <v>157.1672954826807</v>
+        <v>162.8491407667097</v>
       </c>
     </row>
     <row r="19">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>131.3165798873137</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23898,16 +23898,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>97.9185623519455</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.2922885881534</v>
+        <v>124.5599240086488</v>
       </c>
       <c r="H19" t="n">
-        <v>156.0151763859972</v>
+        <v>107.4997760913735</v>
       </c>
       <c r="I19" t="n">
         <v>134.438937943893</v>
@@ -23940,7 +23940,7 @@
         <v>145.8777136505296</v>
       </c>
       <c r="S19" t="n">
-        <v>211.8403234308322</v>
+        <v>163.3249231362085</v>
       </c>
       <c r="T19" t="n">
         <v>224.9602743187949</v>
@@ -23949,13 +23949,13 @@
         <v>286.2809189508379</v>
       </c>
       <c r="V19" t="n">
-        <v>203.6222430292044</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>238.0075980419674</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>182.9772908095327</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23974,19 +23974,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>306.1676413260593</v>
       </c>
       <c r="E20" t="n">
-        <v>339.1980054927573</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>358.3606454470878</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>413.7451262958156</v>
+        <v>371.0127617163111</v>
       </c>
       <c r="H20" t="n">
-        <v>323.522916215912</v>
+        <v>275.0075159212884</v>
       </c>
       <c r="I20" t="n">
         <v>150.4260830375935</v>
@@ -24019,16 +24019,16 @@
         <v>52.02582218557539</v>
       </c>
       <c r="S20" t="n">
-        <v>125.0106036313801</v>
+        <v>173.5260039260038</v>
       </c>
       <c r="T20" t="n">
-        <v>216.2774064515606</v>
+        <v>167.7620061569369</v>
       </c>
       <c r="U20" t="n">
         <v>251.2210440102909</v>
       </c>
       <c r="V20" t="n">
-        <v>279.2368581755113</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24062,7 +24062,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>136.5101216886474</v>
+        <v>93.67656667805284</v>
       </c>
       <c r="H21" t="n">
         <v>104.1865984690043</v>
@@ -24095,10 +24095,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>48.41420986353356</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>156.2032156881569</v>
+        <v>107.6878153935333</v>
       </c>
       <c r="T21" t="n">
         <v>196.8055600934023</v>
@@ -24107,16 +24107,16 @@
         <v>225.8865534313325</v>
       </c>
       <c r="V21" t="n">
-        <v>184.2851868548016</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>203.179582866296</v>
       </c>
       <c r="X21" t="n">
-        <v>157.2575849088538</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>162.9503311977999</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24144,10 +24144,10 @@
         <v>167.2922885881534</v>
       </c>
       <c r="H22" t="n">
-        <v>107.4997760913736</v>
+        <v>156.0151763859972</v>
       </c>
       <c r="I22" t="n">
-        <v>91.70657336438848</v>
+        <v>134.438937943893</v>
       </c>
       <c r="J22" t="n">
         <v>43.96174265608267</v>
@@ -24177,22 +24177,22 @@
         <v>145.8777136505296</v>
       </c>
       <c r="S22" t="n">
-        <v>211.8403234308322</v>
+        <v>163.3249231362086</v>
       </c>
       <c r="T22" t="n">
-        <v>224.9602743187949</v>
+        <v>176.4448740241713</v>
       </c>
       <c r="U22" t="n">
         <v>286.2809189508379</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>203.6222430292044</v>
       </c>
       <c r="W22" t="n">
-        <v>238.0075980419674</v>
+        <v>243.7906337570865</v>
       </c>
       <c r="X22" t="n">
-        <v>177.1942550944135</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24205,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>313.7044695963876</v>
       </c>
       <c r="C23" t="n">
-        <v>296.2435197039147</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>312.9009980051688</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>337.8466736746185</v>
       </c>
       <c r="G23" t="n">
-        <v>344.7157542287227</v>
+        <v>413.7451262958156</v>
       </c>
       <c r="H23" t="n">
-        <v>254.4935441488191</v>
+        <v>323.522916215912</v>
       </c>
       <c r="I23" t="n">
-        <v>89.62501212089808</v>
+        <v>150.4260830375935</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,7 +24253,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>52.02582218557539</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>173.5260039260038</v>
@@ -24265,7 +24265,7 @@
         <v>251.2210440102909</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>318.9770097390149</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24287,13 +24287,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>103.6791269212228</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>86.64399464794334</v>
+        <v>78.41569349754585</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>96.84400953870554</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -24338,7 +24338,7 @@
         <v>87.17384362106401</v>
       </c>
       <c r="T24" t="n">
-        <v>196.8055600934023</v>
+        <v>127.7761880263094</v>
       </c>
       <c r="U24" t="n">
         <v>225.8865534313325</v>
@@ -24347,7 +24347,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>182.6656110938267</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -24384,7 +24384,7 @@
         <v>156.0151763859972</v>
       </c>
       <c r="I25" t="n">
-        <v>101.2940858672299</v>
+        <v>134.438937943893</v>
       </c>
       <c r="J25" t="n">
         <v>43.96174265608267</v>
@@ -24414,25 +24414,25 @@
         <v>145.8777136505296</v>
       </c>
       <c r="S25" t="n">
-        <v>211.8403234308322</v>
+        <v>178.6954713541692</v>
       </c>
       <c r="T25" t="n">
-        <v>155.930902251702</v>
+        <v>224.9602743187949</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2809189508379</v>
+        <v>217.251546883745</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>183.1082712567351</v>
       </c>
       <c r="W25" t="n">
-        <v>217.4936262694981</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>156.6802833219442</v>
       </c>
       <c r="Y25" t="n">
-        <v>149.5552812850019</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24442,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>321.9327707467852</v>
+        <v>313.7044695963876</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>304.4718208543121</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24502,7 +24502,7 @@
         <v>182.191671943198</v>
       </c>
       <c r="V26" t="n">
-        <v>258.722886403042</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24524,7 +24524,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>111.9074280716203</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24572,25 +24572,25 @@
         <v>48.41420986353356</v>
       </c>
       <c r="S27" t="n">
-        <v>156.2032156881569</v>
+        <v>95.40214477146151</v>
       </c>
       <c r="T27" t="n">
         <v>196.8055600934023</v>
       </c>
       <c r="U27" t="n">
-        <v>156.8571813642396</v>
+        <v>225.8865534313325</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>163.7712150823324</v>
       </c>
       <c r="W27" t="n">
         <v>182.6656110938267</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>136.7436131363846</v>
       </c>
       <c r="Y27" t="n">
-        <v>136.6533237102115</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24624,7 +24624,7 @@
         <v>134.438937943893</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>43.96174265608267</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>27.65621884003237</v>
       </c>
       <c r="R28" t="n">
-        <v>129.0383853899168</v>
+        <v>145.8777136505296</v>
       </c>
       <c r="S28" t="n">
-        <v>142.8109513637393</v>
+        <v>211.8403234308322</v>
       </c>
       <c r="T28" t="n">
         <v>155.930902251702</v>
@@ -24660,13 +24660,13 @@
         <v>286.2809189508379</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>183.1082712567351</v>
       </c>
       <c r="W28" t="n">
-        <v>217.4936262694981</v>
+        <v>225.7219274198956</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>156.6802833219442</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24682,16 +24682,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>296.2435197039147</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>293.8819707039876</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>337.8466736746185</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>413.7451262958156</v>
@@ -24730,16 +24730,16 @@
         <v>52.02582218557539</v>
       </c>
       <c r="S29" t="n">
-        <v>173.5260039260038</v>
+        <v>104.4966318589109</v>
       </c>
       <c r="T29" t="n">
-        <v>216.2774064515606</v>
+        <v>147.2480343844676</v>
       </c>
       <c r="U29" t="n">
         <v>251.2210440102909</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>258.722886403042</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24748,7 +24748,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>317.2085665889607</v>
+        <v>325.4368677393581</v>
       </c>
     </row>
     <row r="30">
@@ -24773,7 +24773,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>75.70905077195201</v>
+        <v>136.5101216886474</v>
       </c>
       <c r="H30" t="n">
         <v>104.1865984690043</v>
@@ -24809,22 +24809,22 @@
         <v>48.41420986353356</v>
       </c>
       <c r="S30" t="n">
-        <v>87.17384362106401</v>
+        <v>156.2032156881569</v>
       </c>
       <c r="T30" t="n">
-        <v>127.7761880263094</v>
+        <v>196.8055600934023</v>
       </c>
       <c r="U30" t="n">
-        <v>225.8865534313325</v>
+        <v>165.0854825146371</v>
       </c>
       <c r="V30" t="n">
         <v>163.7712150823324</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>182.6656110938267</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>136.7436131363846</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24840,22 +24840,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>106.4457501819324</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>77.40459057947626</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>98.26291652106048</v>
+        <v>167.2922885881534</v>
       </c>
       <c r="H31" t="n">
-        <v>95.21410546930181</v>
+        <v>156.0151763859972</v>
       </c>
       <c r="I31" t="n">
         <v>134.438937943893</v>
@@ -24885,7 +24885,7 @@
         <v>27.65621884003237</v>
       </c>
       <c r="R31" t="n">
-        <v>145.8777136505296</v>
+        <v>76.84834158343668</v>
       </c>
       <c r="S31" t="n">
         <v>211.8403234308322</v>
@@ -24897,16 +24897,16 @@
         <v>286.2809189508379</v>
       </c>
       <c r="V31" t="n">
-        <v>183.1082712567351</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>217.4936262694981</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>149.5552812850019</v>
       </c>
     </row>
     <row r="32">
@@ -24919,25 +24919,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>296.2435197039147</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>285.65366955359</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>312.9009980051688</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>337.8466736746185</v>
       </c>
       <c r="G32" t="n">
-        <v>413.7451262958156</v>
+        <v>344.7157542287227</v>
       </c>
       <c r="H32" t="n">
         <v>323.522916215912</v>
       </c>
       <c r="I32" t="n">
-        <v>89.62501212089808</v>
+        <v>150.4260830375935</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24970,7 +24970,7 @@
         <v>173.5260039260038</v>
       </c>
       <c r="T32" t="n">
-        <v>216.2774064515606</v>
+        <v>155.4763355348651</v>
       </c>
       <c r="U32" t="n">
         <v>251.2210440102909</v>
@@ -24985,7 +24985,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>317.2085665889607</v>
       </c>
     </row>
     <row r="33">
@@ -25004,19 +25004,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>96.84400953870554</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>76.03984032629097</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>136.5101216886474</v>
+        <v>136.4120236438877</v>
       </c>
       <c r="H33" t="n">
-        <v>104.1865984690043</v>
+        <v>35.15722640191137</v>
       </c>
       <c r="I33" t="n">
-        <v>60.7029728719357</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25055,13 +25055,13 @@
         <v>225.8865534313325</v>
       </c>
       <c r="V33" t="n">
-        <v>163.7712150823324</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>136.7436131363846</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>110.8026081148444</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25119,10 +25119,10 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>27.65621884003237</v>
       </c>
       <c r="R34" t="n">
-        <v>112.7328615738666</v>
+        <v>85.07664273383418</v>
       </c>
       <c r="S34" t="n">
         <v>211.8403234308322</v>
@@ -25131,16 +25131,16 @@
         <v>224.9602743187949</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2809189508379</v>
+        <v>217.251546883745</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>217.4936262694981</v>
       </c>
       <c r="X34" t="n">
-        <v>156.6802833219442</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>149.5552812850019</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>340.0014770839761</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25201,13 +25201,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>52.02582218557539</v>
+        <v>3.510421890951754</v>
       </c>
       <c r="S35" t="n">
-        <v>173.5260039260038</v>
+        <v>125.0106036313801</v>
       </c>
       <c r="T35" t="n">
-        <v>216.2774064515606</v>
+        <v>167.7620061569369</v>
       </c>
       <c r="U35" t="n">
         <v>251.2210440102909</v>
@@ -25216,13 +25216,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>300.7255684227894</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>321.2157003838454</v>
+        <v>326.9987360989646</v>
       </c>
       <c r="Y35" t="n">
-        <v>337.7225383614299</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25232,10 +25232,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>118.0177833552437</v>
       </c>
       <c r="C36" t="n">
-        <v>124.1930986936921</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -25253,7 +25253,7 @@
         <v>104.1865984690043</v>
       </c>
       <c r="I36" t="n">
-        <v>12.18757257731205</v>
+        <v>60.7029728719357</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25280,13 +25280,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>5.681845284029066</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>156.2032156881569</v>
+        <v>107.6878153935333</v>
       </c>
       <c r="T36" t="n">
-        <v>196.8055600934023</v>
+        <v>153.9720050828077</v>
       </c>
       <c r="U36" t="n">
         <v>225.8865534313325</v>
@@ -25301,7 +25301,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>157.1672954826807</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25314,7 +25314,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>118.7314208040042</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25359,19 +25359,19 @@
         <v>27.65621884003237</v>
       </c>
       <c r="R37" t="n">
-        <v>145.8777136505296</v>
+        <v>97.36231335590594</v>
       </c>
       <c r="S37" t="n">
-        <v>163.3249231362086</v>
+        <v>211.8403234308322</v>
       </c>
       <c r="T37" t="n">
-        <v>182.2279097392904</v>
+        <v>224.9602743187949</v>
       </c>
       <c r="U37" t="n">
-        <v>237.7655186562142</v>
+        <v>243.5485543713334</v>
       </c>
       <c r="V37" t="n">
-        <v>203.6222430292044</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25380,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>170.0692530574711</v>
       </c>
     </row>
     <row r="38">
@@ -25438,13 +25438,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>52.02582218557539</v>
+        <v>3.510421890951726</v>
       </c>
       <c r="S38" t="n">
-        <v>173.5260039260038</v>
+        <v>125.0106036313801</v>
       </c>
       <c r="T38" t="n">
-        <v>216.2774064515606</v>
+        <v>167.7620061569369</v>
       </c>
       <c r="U38" t="n">
         <v>251.2210440102909</v>
@@ -25453,13 +25453,13 @@
         <v>285.0198938906304</v>
       </c>
       <c r="W38" t="n">
-        <v>300.7255684227894</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>321.2157003838454</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>337.7225383614299</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25484,7 +25484,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>136.5101216886474</v>
+        <v>93.67656667805278</v>
       </c>
       <c r="H39" t="n">
         <v>104.1865984690043</v>
@@ -25517,22 +25517,22 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>48.41420986353356</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>113.4708511086524</v>
+        <v>156.2032156881569</v>
       </c>
       <c r="T39" t="n">
-        <v>148.2901597987787</v>
+        <v>196.8055600934023</v>
       </c>
       <c r="U39" t="n">
-        <v>177.3711531367089</v>
+        <v>177.3711531367088</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>203.179582866296</v>
+        <v>203.1795828662959</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>131.3165798873137</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25557,7 +25557,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>97.9185623519455</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25605,16 +25605,16 @@
         <v>224.9602743187949</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2809189508379</v>
+        <v>237.7655186562142</v>
       </c>
       <c r="V40" t="n">
-        <v>209.4052787443235</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>238.0075980419674</v>
+        <v>238.0075980419673</v>
       </c>
       <c r="X40" t="n">
-        <v>177.1942550944135</v>
+        <v>182.9772908095326</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25633,22 +25633,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>311.9506770411784</v>
       </c>
       <c r="E41" t="n">
-        <v>333.4149697776381</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>358.3606454470878</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>365.229726001192</v>
+        <v>413.7451262958156</v>
       </c>
       <c r="H41" t="n">
         <v>323.522916215912</v>
       </c>
       <c r="I41" t="n">
-        <v>107.693718458089</v>
+        <v>150.4260830375935</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>52.02582218557539</v>
+        <v>3.510421890951726</v>
       </c>
       <c r="S41" t="n">
         <v>173.5260039260038</v>
@@ -25693,10 +25693,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>321.2157003838454</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>337.7225383614299</v>
       </c>
     </row>
     <row r="42">
@@ -25706,7 +25706,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>118.0177833552437</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -25715,16 +25715,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>109.1296801607773</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>96.55381209876023</v>
+        <v>96.5538120987602</v>
       </c>
       <c r="G42" t="n">
-        <v>93.67656667805284</v>
+        <v>136.5101216886474</v>
       </c>
       <c r="H42" t="n">
-        <v>104.1865984690043</v>
+        <v>61.35304345840964</v>
       </c>
       <c r="I42" t="n">
         <v>60.7029728719357</v>
@@ -25797,16 +25797,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>102.6886834434268</v>
+        <v>102.6886834434267</v>
       </c>
       <c r="G43" t="n">
         <v>118.7768882935297</v>
       </c>
       <c r="H43" t="n">
-        <v>107.4997760913736</v>
+        <v>156.0151763859972</v>
       </c>
       <c r="I43" t="n">
-        <v>85.92353764926932</v>
+        <v>134.438937943893</v>
       </c>
       <c r="J43" t="n">
         <v>43.96174265608267</v>
@@ -25842,10 +25842,10 @@
         <v>224.9602743187949</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2809189508379</v>
+        <v>237.7655186562142</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>203.6222430292043</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>340.0014770839761</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>316.7574914763839</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25879,7 +25879,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>365.229726001192</v>
+        <v>413.7451262958156</v>
       </c>
       <c r="H44" t="n">
         <v>323.522916215912</v>
@@ -25924,16 +25924,16 @@
         <v>251.2210440102909</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>279.2368581755113</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>300.7255684227894</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>321.2157003838454</v>
       </c>
       <c r="Y44" t="n">
-        <v>337.7225383614299</v>
+        <v>343.5055740765491</v>
       </c>
     </row>
     <row r="45">
@@ -25946,19 +25946,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>124.1930986936921</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>109.1296801607773</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>136.5101216886474</v>
+        <v>87.99472139402377</v>
       </c>
       <c r="H45" t="n">
         <v>104.1865984690043</v>
@@ -25994,13 +25994,13 @@
         <v>48.41420986353356</v>
       </c>
       <c r="S45" t="n">
-        <v>113.4708511086524</v>
+        <v>156.2032156881569</v>
       </c>
       <c r="T45" t="n">
         <v>196.8055600934023</v>
       </c>
       <c r="U45" t="n">
-        <v>225.8865534313325</v>
+        <v>183.154188851828</v>
       </c>
       <c r="V45" t="n">
         <v>184.2851868548016</v>
@@ -26012,7 +26012,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>157.1672954826807</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26022,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>131.3165798873137</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>100.1000727235887</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>103.7015980670647</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26070,16 +26070,16 @@
         <v>27.65621884003237</v>
       </c>
       <c r="R46" t="n">
-        <v>97.36231335590594</v>
+        <v>145.8777136505296</v>
       </c>
       <c r="S46" t="n">
         <v>163.3249231362086</v>
       </c>
       <c r="T46" t="n">
-        <v>182.2279097392904</v>
+        <v>224.9602743187949</v>
       </c>
       <c r="U46" t="n">
-        <v>237.7655186562142</v>
+        <v>286.2809189508379</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>309883.9426142952</v>
+        <v>309883.9426142953</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>326617.9727217138</v>
+        <v>326617.9727217137</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>309883.9426142953</v>
+        <v>309883.9426142954</v>
       </c>
     </row>
     <row r="14">
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>553011.528634001</v>
+        <v>553011.5286340008</v>
       </c>
       <c r="C2" t="n">
+        <v>553011.5286340009</v>
+      </c>
+      <c r="D2" t="n">
         <v>553011.5286340008</v>
-      </c>
-      <c r="D2" t="n">
-        <v>553011.5286340009</v>
       </c>
       <c r="E2" t="n">
         <v>183052.0459652118</v>
       </c>
       <c r="F2" t="n">
-        <v>183052.0459652117</v>
+        <v>183052.0459652118</v>
       </c>
       <c r="G2" t="n">
         <v>183052.0459652118</v>
@@ -26337,7 +26337,7 @@
         <v>190897.6727292724</v>
       </c>
       <c r="J2" t="n">
-        <v>190897.6727292723</v>
+        <v>190897.6727292725</v>
       </c>
       <c r="K2" t="n">
         <v>190897.6727292724</v>
@@ -26355,7 +26355,7 @@
         <v>183052.0459652118</v>
       </c>
       <c r="P2" t="n">
-        <v>183052.0459652117</v>
+        <v>183052.0459652118</v>
       </c>
     </row>
     <row r="3">
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>5455.095887706794</v>
+        <v>5455.095887706801</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>6978.067993435006</v>
+        <v>6978.067993434956</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26435,10 +26435,10 @@
         <v>18398.68035405393</v>
       </c>
       <c r="H4" t="n">
-        <v>18398.68035405393</v>
+        <v>18398.68035405392</v>
       </c>
       <c r="I4" t="n">
-        <v>22655.6121144874</v>
+        <v>22655.61211448741</v>
       </c>
       <c r="J4" t="n">
         <v>22655.61211448741</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>72359.30836160816</v>
+        <v>72315.1725829268</v>
       </c>
       <c r="C6" t="n">
-        <v>72359.30836160792</v>
+        <v>72315.17258292691</v>
       </c>
       <c r="D6" t="n">
-        <v>72359.30836160804</v>
+        <v>72315.1725829268</v>
       </c>
       <c r="E6" t="n">
-        <v>-172511.6828561666</v>
+        <v>-186258.0216966548</v>
       </c>
       <c r="F6" t="n">
-        <v>153257.0930336802</v>
+        <v>139510.7541931921</v>
       </c>
       <c r="G6" t="n">
-        <v>153257.0930336803</v>
+        <v>139510.7541931921</v>
       </c>
       <c r="H6" t="n">
-        <v>153257.0930336803</v>
+        <v>139510.7541931921</v>
       </c>
       <c r="I6" t="n">
-        <v>150143.4426658346</v>
+        <v>136687.6825943857</v>
       </c>
       <c r="J6" t="n">
-        <v>155598.5385535412</v>
+        <v>142142.7784820925</v>
       </c>
       <c r="K6" t="n">
-        <v>155598.5385535412</v>
+        <v>142142.7784820925</v>
       </c>
       <c r="L6" t="n">
-        <v>155598.5385535413</v>
+        <v>142142.7784820925</v>
       </c>
       <c r="M6" t="n">
-        <v>146279.0250402453</v>
+        <v>132532.6861997572</v>
       </c>
       <c r="N6" t="n">
-        <v>153257.0930336803</v>
+        <v>139510.7541931922</v>
       </c>
       <c r="O6" t="n">
-        <v>153257.0930336803</v>
+        <v>139510.7541931921</v>
       </c>
       <c r="P6" t="n">
-        <v>153257.0930336802</v>
+        <v>139510.7541931921</v>
       </c>
     </row>
   </sheetData>
@@ -26798,16 +26798,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>48.51540029462365</v>
+        <v>48.51540029462364</v>
       </c>
       <c r="F4" t="n">
-        <v>48.51540029462365</v>
+        <v>48.51540029462367</v>
       </c>
       <c r="G4" t="n">
-        <v>48.51540029462365</v>
+        <v>48.51540029462367</v>
       </c>
       <c r="H4" t="n">
-        <v>48.51540029462365</v>
+        <v>48.51540029462363</v>
       </c>
       <c r="I4" t="n">
         <v>69.02937206709291</v>
@@ -26822,13 +26822,13 @@
         <v>69.02937206709291</v>
       </c>
       <c r="M4" t="n">
-        <v>48.51540029462365</v>
+        <v>48.51540029462364</v>
       </c>
       <c r="N4" t="n">
-        <v>48.51540029462365</v>
+        <v>48.51540029462367</v>
       </c>
       <c r="O4" t="n">
-        <v>48.51540029462365</v>
+        <v>48.51540029462367</v>
       </c>
       <c r="P4" t="n">
         <v>48.51540029462365</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>48.51540029462365</v>
+        <v>48.51540029462364</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>20.51397177246925</v>
+        <v>20.51397177246927</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>28.00142852215456</v>
+        <v>28.00142852215436</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>48.51540029462365</v>
+        <v>48.51540029462364</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31846,13 +31846,13 @@
         <v>134.575092925413</v>
       </c>
       <c r="L12" t="n">
-        <v>180.9528200361945</v>
+        <v>159.9419860866253</v>
       </c>
       <c r="M12" t="n">
         <v>190.649434216642</v>
       </c>
       <c r="N12" t="n">
-        <v>158.8462784283878</v>
+        <v>179.857112377957</v>
       </c>
       <c r="O12" t="n">
         <v>191.1116447390681</v>
@@ -32083,7 +32083,7 @@
         <v>134.575092925413</v>
       </c>
       <c r="L15" t="n">
-        <v>159.9419860866253</v>
+        <v>180.9528200361945</v>
       </c>
       <c r="M15" t="n">
         <v>190.649434216642</v>
@@ -32095,7 +32095,7 @@
         <v>191.1116447390681</v>
       </c>
       <c r="P15" t="n">
-        <v>159.1419832084806</v>
+        <v>138.1311492589115</v>
       </c>
       <c r="Q15" t="n">
         <v>106.3822012793335</v>
@@ -32329,10 +32329,10 @@
         <v>179.857112377957</v>
       </c>
       <c r="O18" t="n">
-        <v>170.1008107894989</v>
+        <v>191.1116447390681</v>
       </c>
       <c r="P18" t="n">
-        <v>159.1419832084806</v>
+        <v>138.1311492589115</v>
       </c>
       <c r="Q18" t="n">
         <v>106.3822012793335</v>
@@ -32560,10 +32560,10 @@
         <v>180.9528200361945</v>
       </c>
       <c r="M21" t="n">
-        <v>190.649434216642</v>
+        <v>169.6386002670727</v>
       </c>
       <c r="N21" t="n">
-        <v>158.8462784283878</v>
+        <v>179.8571123779569</v>
       </c>
       <c r="O21" t="n">
         <v>191.1116447390681</v>
@@ -33745,10 +33745,10 @@
         <v>180.9528200361945</v>
       </c>
       <c r="M36" t="n">
-        <v>169.6386002670728</v>
+        <v>190.649434216642</v>
       </c>
       <c r="N36" t="n">
-        <v>179.857112377957</v>
+        <v>158.8462784283878</v>
       </c>
       <c r="O36" t="n">
         <v>191.1116447390681</v>
@@ -34225,10 +34225,10 @@
         <v>179.857112377957</v>
       </c>
       <c r="O42" t="n">
-        <v>170.1008107894989</v>
+        <v>191.1116447390681</v>
       </c>
       <c r="P42" t="n">
-        <v>159.1419832084806</v>
+        <v>138.1311492589115</v>
       </c>
       <c r="Q42" t="n">
         <v>106.3822012793335</v>
@@ -34453,10 +34453,10 @@
         <v>134.575092925413</v>
       </c>
       <c r="L45" t="n">
-        <v>180.9528200361945</v>
+        <v>159.9419860866253</v>
       </c>
       <c r="M45" t="n">
-        <v>169.6386002670728</v>
+        <v>190.649434216642</v>
       </c>
       <c r="N45" t="n">
         <v>179.857112377957</v>
@@ -35409,22 +35409,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>10.03631752276405</v>
+        <v>48.51540029462364</v>
       </c>
       <c r="M11" t="n">
-        <v>43.15666778705045</v>
+        <v>48.51540029462364</v>
       </c>
       <c r="N11" t="n">
-        <v>48.51540029462365</v>
+        <v>48.51540029462364</v>
       </c>
       <c r="O11" t="n">
-        <v>41.87759708571063</v>
+        <v>46.55518210090149</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -35494,16 +35494,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>42.39844025632027</v>
+        <v>21.38760630675109</v>
       </c>
       <c r="M12" t="n">
-        <v>48.51540029462365</v>
+        <v>48.51540029462364</v>
       </c>
       <c r="N12" t="n">
-        <v>27.50456634505447</v>
+        <v>48.51540029462364</v>
       </c>
       <c r="O12" t="n">
-        <v>48.51540029462365</v>
+        <v>48.51540029462364</v>
       </c>
       <c r="P12" t="n">
         <v>25.16757579415039</v>
@@ -35570,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>48.51540029462365</v>
+        <v>48.51540029462364</v>
       </c>
       <c r="L13" t="n">
-        <v>48.51540029462365</v>
+        <v>46.55518210090148</v>
       </c>
       <c r="M13" t="n">
-        <v>46.55518210090149</v>
+        <v>48.51540029462364</v>
       </c>
       <c r="N13" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>48.51540029462364</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35652,19 +35652,19 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>10.03631752276405</v>
+        <v>48.51540029462367</v>
       </c>
       <c r="M14" t="n">
-        <v>48.51540029462365</v>
+        <v>46.5551821009015</v>
       </c>
       <c r="N14" t="n">
-        <v>48.51540029462365</v>
+        <v>48.51540029462367</v>
       </c>
       <c r="O14" t="n">
-        <v>48.51540029462365</v>
+        <v>48.51540029462367</v>
       </c>
       <c r="P14" t="n">
-        <v>36.51886457813744</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35731,19 +35731,19 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>21.38760630675111</v>
+        <v>42.39844025632027</v>
       </c>
       <c r="M15" t="n">
-        <v>48.51540029462365</v>
+        <v>48.51540029462367</v>
       </c>
       <c r="N15" t="n">
-        <v>48.51540029462365</v>
+        <v>48.51540029462367</v>
       </c>
       <c r="O15" t="n">
-        <v>48.51540029462365</v>
+        <v>48.51540029462367</v>
       </c>
       <c r="P15" t="n">
-        <v>25.16757579415039</v>
+        <v>4.156741844581223</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35810,19 +35810,19 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>48.51540029462365</v>
+        <v>46.5551821009015</v>
       </c>
       <c r="M16" t="n">
-        <v>48.51540029462365</v>
+        <v>48.51540029462367</v>
       </c>
       <c r="N16" t="n">
-        <v>46.55518210090149</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>48.51540029462365</v>
+        <v>48.51540029462367</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>48.51540029462367</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,22 +35883,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>9.53584117829044</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>10.03631752276405</v>
+        <v>48.51540029462367</v>
       </c>
       <c r="M17" t="n">
-        <v>43.15666778705045</v>
+        <v>48.51540029462367</v>
       </c>
       <c r="N17" t="n">
-        <v>48.51540029462365</v>
+        <v>48.51540029462367</v>
       </c>
       <c r="O17" t="n">
-        <v>32.34175590742021</v>
+        <v>46.55518210090149</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -35971,16 +35971,16 @@
         <v>42.39844025632027</v>
       </c>
       <c r="M18" t="n">
-        <v>48.51540029462365</v>
+        <v>48.51540029462367</v>
       </c>
       <c r="N18" t="n">
-        <v>48.51540029462365</v>
+        <v>48.51540029462367</v>
       </c>
       <c r="O18" t="n">
-        <v>27.50456634505447</v>
+        <v>48.51540029462367</v>
       </c>
       <c r="P18" t="n">
-        <v>25.16757579415039</v>
+        <v>4.156741844581223</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>48.51540029462367</v>
       </c>
       <c r="L19" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>48.51540029462365</v>
+        <v>48.51540029462367</v>
       </c>
       <c r="N19" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>46.5551821009015</v>
       </c>
       <c r="P19" t="n">
-        <v>46.55518210090149</v>
+        <v>48.51540029462367</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -36138,10 +36138,10 @@
         <v>32.34175590742021</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>9.535841178290376</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.535841178290404</v>
+        <v>48.51540029462363</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36208,13 +36208,13 @@
         <v>42.39844025632027</v>
       </c>
       <c r="M21" t="n">
-        <v>48.51540029462365</v>
+        <v>27.50456634505442</v>
       </c>
       <c r="N21" t="n">
-        <v>27.50456634505447</v>
+        <v>48.51540029462363</v>
       </c>
       <c r="O21" t="n">
-        <v>48.51540029462365</v>
+        <v>48.51540029462363</v>
       </c>
       <c r="P21" t="n">
         <v>25.16757579415039</v>
@@ -36281,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>48.51540029462365</v>
+        <v>48.51540029462363</v>
       </c>
       <c r="L22" t="n">
-        <v>48.51540029462365</v>
+        <v>48.51540029462363</v>
       </c>
       <c r="M22" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>46.55518210090149</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>46.55518210090146</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>48.51540029462363</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36357,19 +36357,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>69.02937206709291</v>
       </c>
       <c r="K23" t="n">
-        <v>69.02937206709291</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>10.03631752276405</v>
       </c>
       <c r="M23" t="n">
-        <v>43.15666778705045</v>
+        <v>56.20398900626454</v>
       </c>
       <c r="N23" t="n">
-        <v>48.51540029462365</v>
+        <v>69.02937206709291</v>
       </c>
       <c r="O23" t="n">
         <v>69.02937206709291</v>
@@ -36378,7 +36378,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>33.5612929916833</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>12.01392318030959</v>
       </c>
       <c r="L24" t="n">
         <v>42.39844025632027</v>
@@ -36457,7 +36457,7 @@
         <v>25.16757579415039</v>
       </c>
       <c r="Q24" t="n">
-        <v>12.01392318030959</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36518,7 +36518,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>58.90567221505084</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>69.02937206709291</v>
@@ -36530,10 +36530,10 @@
         <v>69.02937206709291</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>66.24030652902856</v>
       </c>
       <c r="P25" t="n">
-        <v>7.334634313977776</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36597,19 +36597,19 @@
         <v>69.02937206709291</v>
       </c>
       <c r="K26" t="n">
-        <v>69.02937206709291</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>10.03631752276405</v>
       </c>
       <c r="M26" t="n">
-        <v>44.37620487131359</v>
+        <v>69.02937206709291</v>
       </c>
       <c r="N26" t="n">
-        <v>48.51540029462365</v>
+        <v>56.20398900626453</v>
       </c>
       <c r="O26" t="n">
-        <v>32.34175590742021</v>
+        <v>69.02937206709291</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -36679,7 +36679,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>42.39844025632027</v>
+        <v>54.41236343662987</v>
       </c>
       <c r="M27" t="n">
         <v>69.02937206709291</v>
@@ -36691,7 +36691,7 @@
         <v>55.68973936534124</v>
       </c>
       <c r="P27" t="n">
-        <v>37.18149897445998</v>
+        <v>25.16757579415039</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36755,22 +36755,22 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>58.90567221505084</v>
       </c>
       <c r="L28" t="n">
-        <v>66.2403065290286</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>69.02937206709291</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>69.02937206709291</v>
       </c>
       <c r="O28" t="n">
         <v>69.02937206709291</v>
       </c>
       <c r="P28" t="n">
-        <v>69.02937206709291</v>
+        <v>7.334634313977776</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36834,25 +36834,25 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>69.02937206709291</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>10.03631752276405</v>
       </c>
       <c r="M29" t="n">
-        <v>43.15666778705045</v>
+        <v>69.02937206709291</v>
       </c>
       <c r="N29" t="n">
-        <v>48.51540029462365</v>
+        <v>69.02937206709291</v>
       </c>
       <c r="O29" t="n">
-        <v>33.56129299168333</v>
+        <v>69.02937206709291</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>69.02937206709291</v>
+        <v>56.20398900626453</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36913,7 +36913,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>12.01392318030959</v>
       </c>
       <c r="L30" t="n">
         <v>42.39844025632027</v>
@@ -36925,7 +36925,7 @@
         <v>69.02937206709291</v>
       </c>
       <c r="O30" t="n">
-        <v>67.70366254565081</v>
+        <v>55.68973936534124</v>
       </c>
       <c r="P30" t="n">
         <v>25.16757579415039</v>
@@ -36998,7 +36998,7 @@
         <v>66.2403065290286</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>69.02937206709291</v>
       </c>
       <c r="N31" t="n">
         <v>69.02937206709291</v>
@@ -37007,7 +37007,7 @@
         <v>69.02937206709291</v>
       </c>
       <c r="P31" t="n">
-        <v>69.02937206709291</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37071,22 +37071,22 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>69.02937206709291</v>
       </c>
       <c r="L32" t="n">
+        <v>10.03631752276405</v>
+      </c>
+      <c r="M32" t="n">
         <v>69.02937206709291</v>
       </c>
-      <c r="M32" t="n">
-        <v>54.41252239407765</v>
-      </c>
       <c r="N32" t="n">
-        <v>48.51540029462365</v>
+        <v>56.20398900626453</v>
       </c>
       <c r="O32" t="n">
-        <v>32.34175590742021</v>
+        <v>69.02937206709291</v>
       </c>
       <c r="P32" t="n">
-        <v>69.02937206709291</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37147,13 +37147,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>12.01392318030959</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>54.41236343662987</v>
+        <v>42.39844025632027</v>
       </c>
       <c r="M33" t="n">
         <v>69.02937206709291</v>
@@ -37229,13 +37229,13 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>58.90567221505084</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>66.2403065290286</v>
       </c>
       <c r="M34" t="n">
-        <v>7.334634313977761</v>
+        <v>69.02937206709291</v>
       </c>
       <c r="N34" t="n">
         <v>69.02937206709291</v>
@@ -37244,7 +37244,7 @@
         <v>69.02937206709291</v>
       </c>
       <c r="P34" t="n">
-        <v>69.02937206709291</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -37320,10 +37320,10 @@
         <v>48.51540029462365</v>
       </c>
       <c r="O35" t="n">
-        <v>41.87759708571063</v>
+        <v>41.8775970857106</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>48.51540029462364</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37393,13 +37393,13 @@
         <v>42.39844025632027</v>
       </c>
       <c r="M36" t="n">
-        <v>27.50456634505448</v>
+        <v>48.51540029462364</v>
       </c>
       <c r="N36" t="n">
-        <v>48.51540029462365</v>
+        <v>27.50456634505445</v>
       </c>
       <c r="O36" t="n">
-        <v>48.51540029462365</v>
+        <v>48.51540029462364</v>
       </c>
       <c r="P36" t="n">
         <v>25.16757579415039</v>
@@ -37466,22 +37466,22 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>48.51540029462364</v>
       </c>
       <c r="L37" t="n">
-        <v>46.5551821009015</v>
+        <v>46.55518210090148</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>48.51540029462365</v>
+        <v>48.51540029462364</v>
       </c>
       <c r="P37" t="n">
-        <v>48.51540029462365</v>
+        <v>48.51540029462364</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37545,19 +37545,19 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>48.51540029462365</v>
+        <v>19.57215870105453</v>
       </c>
       <c r="L38" t="n">
-        <v>10.03631752276405</v>
+        <v>48.51540029462367</v>
       </c>
       <c r="M38" t="n">
-        <v>48.51540029462365</v>
+        <v>43.15666778705045</v>
       </c>
       <c r="N38" t="n">
         <v>48.51540029462365</v>
       </c>
       <c r="O38" t="n">
-        <v>36.51886457813744</v>
+        <v>32.34175590742021</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -37630,13 +37630,13 @@
         <v>42.39844025632027</v>
       </c>
       <c r="M39" t="n">
-        <v>48.51540029462365</v>
+        <v>48.51540029462367</v>
       </c>
       <c r="N39" t="n">
-        <v>27.50456634505447</v>
+        <v>27.5045663450545</v>
       </c>
       <c r="O39" t="n">
-        <v>48.51540029462365</v>
+        <v>48.51540029462367</v>
       </c>
       <c r="P39" t="n">
         <v>25.16757579415039</v>
@@ -37703,22 +37703,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>48.51540029462367</v>
       </c>
       <c r="L40" t="n">
+        <v>48.51540029462367</v>
+      </c>
+      <c r="M40" t="n">
         <v>46.5551821009015</v>
       </c>
-      <c r="M40" t="n">
-        <v>48.51540029462365</v>
-      </c>
       <c r="N40" t="n">
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>48.51540029462365</v>
+        <v>48.51540029462367</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37782,19 +37782,19 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>41.87759708571067</v>
       </c>
       <c r="L41" t="n">
-        <v>48.51540029462365</v>
+        <v>10.03631752276405</v>
       </c>
       <c r="M41" t="n">
-        <v>46.5551821009015</v>
+        <v>43.15666778705045</v>
       </c>
       <c r="N41" t="n">
-        <v>48.51540029462365</v>
+        <v>48.51540029462367</v>
       </c>
       <c r="O41" t="n">
-        <v>48.51540029462365</v>
+        <v>48.51540029462367</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -37867,16 +37867,16 @@
         <v>42.39844025632027</v>
       </c>
       <c r="M42" t="n">
-        <v>48.51540029462365</v>
+        <v>48.51540029462367</v>
       </c>
       <c r="N42" t="n">
-        <v>48.51540029462365</v>
+        <v>48.51540029462367</v>
       </c>
       <c r="O42" t="n">
-        <v>27.50456634505447</v>
+        <v>48.51540029462367</v>
       </c>
       <c r="P42" t="n">
-        <v>25.16757579415039</v>
+        <v>4.156741844581223</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37940,22 +37940,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>48.51540029462367</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>48.51540029462367</v>
       </c>
       <c r="M43" t="n">
-        <v>46.5551821009015</v>
+        <v>48.51540029462367</v>
       </c>
       <c r="N43" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>48.51540029462365</v>
+        <v>46.55518210090149</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38022,7 +38022,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>48.51540029462365</v>
+        <v>10.03631752276405</v>
       </c>
       <c r="M44" t="n">
         <v>48.51540029462365</v>
@@ -38031,13 +38031,13 @@
         <v>48.51540029462365</v>
       </c>
       <c r="O44" t="n">
-        <v>46.55518210090149</v>
+        <v>36.51886457813744</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38101,10 +38101,10 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>42.39844025632027</v>
+        <v>21.38760630675111</v>
       </c>
       <c r="M45" t="n">
-        <v>27.50456634505448</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="N45" t="n">
         <v>48.51540029462365</v>
@@ -38177,7 +38177,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="L46" t="n">
         <v>48.51540029462365</v>
@@ -38186,13 +38186,13 @@
         <v>48.51540029462365</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>46.55518210090149</v>
       </c>
       <c r="O46" t="n">
-        <v>46.55518210090149</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_19_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_19_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>770392.6478002578</v>
+        <v>839700.2980171141</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16392615.83457438</v>
+        <v>16392615.83457437</v>
       </c>
     </row>
     <row r="9">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1378,16 +1378,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>42.73236457950449</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>48.51540029462364</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>48.51540029462364</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>48.51540029462364</v>
+        <v>42.73236457950448</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1417,10 +1417,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1448,25 +1448,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>48.51540029462364</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>42.73236457950448</v>
+        <v>42.83355501059459</v>
       </c>
       <c r="G12" t="n">
-        <v>48.51540029462364</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>48.41420986353356</v>
       </c>
       <c r="S12" t="n">
-        <v>48.51540029462364</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="D13" t="n">
-        <v>48.51540029462364</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1572,13 +1572,13 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>27.65621884003237</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>48.51540029462364</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1590,10 +1590,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>48.51540029462364</v>
+        <v>42.73236457950449</v>
       </c>
       <c r="X13" t="n">
-        <v>15.07614573947212</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1615,19 +1615,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>48.51540029462367</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>42.73236457950448</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,16 +1654,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>48.51540029462367</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="S14" t="n">
-        <v>48.51540029462367</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>42.73236457950453</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1694,7 +1694,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>48.51540029462367</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1739,19 +1739,19 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>42.73236457950452</v>
+        <v>42.73236457950449</v>
       </c>
       <c r="U15" t="n">
-        <v>48.51540029462367</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>48.51540029462367</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1764,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>48.51540029462367</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>42.73236457950448</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>48.51540029462367</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1818,22 +1818,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>48.51540029462367</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>42.73236457950453</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
     </row>
     <row r="17">
@@ -1849,10 +1849,10 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="E17" t="n">
-        <v>42.73236457950453</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1900,19 +1900,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>42.73236457950449</v>
       </c>
       <c r="V17" t="n">
-        <v>48.51540029462367</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>48.51540029462367</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>48.51540029462367</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1970,28 +1970,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>48.41420986353356</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>48.51540029462367</v>
+        <v>42.73236457950449</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="X18" t="n">
-        <v>48.51540029462367</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>42.83355501059464</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2010,16 +2010,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>48.51540029462367</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>42.73236457950453</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>48.51540029462367</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="S19" t="n">
-        <v>48.51540029462367</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>42.73236457950448</v>
       </c>
     </row>
     <row r="20">
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>48.51540029462363</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2095,10 +2095,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>42.7323645795045</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>48.51540029462363</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2128,25 +2128,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>48.51540029462363</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>42.73236457950448</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2174,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>42.83355501059457</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2207,22 +2207,22 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>48.41420986353356</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>48.51540029462363</v>
+        <v>42.73236457950449</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="W21" t="n">
-        <v>48.51540029462363</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,19 +2289,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>48.51540029462363</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>48.51540029462363</v>
+        <v>42.73236457950449</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>48.51540029462363</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="W22" t="n">
-        <v>42.7323645795045</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>8.775248731120021</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
         <v>69.02937206709291</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>69.02937206709291</v>
-      </c>
-      <c r="F23" t="n">
-        <v>69.02937206709291</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2368,16 +2368,16 @@
         <v>52.02582218557539</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>69.02937206709291</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>69.02937206709291</v>
       </c>
       <c r="V23" t="n">
-        <v>8.775248731120021</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2402,13 +2402,13 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
         <v>69.02937206709291</v>
       </c>
-      <c r="E24" t="n">
-        <v>60.80107091669541</v>
-      </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>69.02937206709291</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>60.7029728719357</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,16 +2444,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>48.41420986353356</v>
       </c>
       <c r="S24" t="n">
-        <v>69.02937206709291</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>69.02937206709291</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>20.71326024831906</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>69.02937206709291</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2526,22 +2526,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>33.14485207666303</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>69.02937206709291</v>
       </c>
       <c r="U25" t="n">
         <v>69.02937206709291</v>
       </c>
       <c r="V25" t="n">
-        <v>69.02937206709291</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>33.14485207666303</v>
       </c>
       <c r="X25" t="n">
-        <v>69.02937206709291</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
         <v>69.02937206709291</v>
       </c>
-      <c r="C26" t="n">
-        <v>60.80107091669541</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>69.02937206709291</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>8.775248731120024</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,28 +2602,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>52.02582218557539</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
         <v>69.02937206709291</v>
-      </c>
-      <c r="U26" t="n">
-        <v>69.02937206709291</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2642,7 +2642,7 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>12.38686105316186</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2681,25 +2681,25 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>48.41420986353356</v>
       </c>
       <c r="S27" t="n">
-        <v>60.8010709166954</v>
+        <v>69.02937206709291</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>69.02937206709291</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>69.02937206709291</v>
       </c>
       <c r="V27" t="n">
-        <v>69.02937206709291</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>69.02937206709291</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>69.02937206709291</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>60.80107091669541</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2766,16 +2766,16 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
         <v>69.02937206709291</v>
       </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
       <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
         <v>69.02937206709291</v>
-      </c>
-      <c r="W28" t="n">
-        <v>60.8010709166954</v>
       </c>
       <c r="X28" t="n">
         <v>69.02937206709291</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>69.02937206709291</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2803,13 +2803,13 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>8.775248731120021</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>69.02937206709291</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2839,19 +2839,19 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>52.02582218557539</v>
       </c>
       <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
         <v>69.02937206709291</v>
       </c>
-      <c r="T29" t="n">
-        <v>69.02937206709291</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
       <c r="V29" t="n">
-        <v>69.02937206709291</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>60.80107091669541</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2882,13 +2882,13 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>69.02937206709291</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>69.02937206709291</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>69.02937206709291</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>48.41420986353356</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -2927,16 +2927,16 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>60.8010709166954</v>
+        <v>12.38686105316185</v>
       </c>
       <c r="V30" t="n">
-        <v>69.02937206709291</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>69.02937206709291</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>69.02937206709291</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -2952,22 +2952,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
         <v>60.8010709166954</v>
       </c>
-      <c r="D31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" t="n">
+      <c r="G31" t="n">
         <v>69.02937206709291</v>
       </c>
-      <c r="F31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>69.02937206709291</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>69.02937206709291</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3028,76 +3028,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>69.02937206709291</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>69.02937206709291</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
+        <v>8.775248731120024</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>52.02582218557539</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
         <v>69.02937206709291</v>
       </c>
-      <c r="G32" t="n">
-        <v>69.02937206709291</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>60.8010709166954</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>69.02937206709291</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3107,7 +3107,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>69.02937206709291</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3116,52 +3116,52 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>69.02937206709291</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.09809804475969912</v>
+        <v>12.38686105316186</v>
       </c>
       <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" t="n">
+        <v>48.41420986353356</v>
+      </c>
+      <c r="S33" t="n">
         <v>69.02937206709291</v>
       </c>
-      <c r="I33" t="n">
-        <v>60.7029728719357</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>0</v>
-      </c>
-      <c r="R33" t="n">
-        <v>0</v>
-      </c>
-      <c r="S33" t="n">
-        <v>0</v>
-      </c>
       <c r="T33" t="n">
-        <v>69.02937206709291</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -3173,7 +3173,7 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>69.02937206709291</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>60.8010709166954</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>69.02937206709291</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>69.02937206709291</v>
       </c>
       <c r="U34" t="n">
         <v>69.02937206709291</v>
@@ -3249,13 +3249,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>69.02937206709291</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>69.02937206709291</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3280,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3313,16 +3313,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>48.51540029462364</v>
+        <v>42.73236457950449</v>
       </c>
       <c r="S35" t="n">
-        <v>48.51540029462364</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>48.51540029462364</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3331,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>42.73236457950448</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>48.51540029462364</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -3392,25 +3392,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>48.41420986353356</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>48.51540029462364</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="T36" t="n">
-        <v>42.83355501059458</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>42.73236457950448</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3426,10 +3426,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>48.51540029462364</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>42.73236457950448</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>48.51540029462364</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="U37" t="n">
-        <v>42.73236457950448</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>48.51540029462364</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3517,7 +3517,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3550,19 +3550,19 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>48.51540029462367</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>48.51540029462367</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>48.51540029462367</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="V38" t="n">
-        <v>42.73236457950453</v>
+        <v>42.73236457950448</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3596,7 +3596,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>42.83355501059464</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3629,22 +3629,22 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>48.41420986353356</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>42.73236457950449</v>
       </c>
       <c r="U39" t="n">
-        <v>48.51540029462367</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="W39" t="n">
-        <v>48.51540029462367</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3669,13 +3669,13 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>48.51540029462367</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,22 +3711,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>42.73236457950449</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="U40" t="n">
-        <v>48.51540029462367</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>48.51540029462367</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>42.73236457950453</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>42.73236457950453</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>48.51540029462367</v>
+        <v>42.73236457950449</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3796,19 +3796,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>48.51540029462367</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>48.51540029462367</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3818,7 +3818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>48.51540029462367</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -3830,13 +3830,13 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>48.51540029462367</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="H42" t="n">
-        <v>42.83355501059464</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3875,13 +3875,13 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>42.83355501059459</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3909,10 +3909,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>42.73236457950453</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="G43" t="n">
-        <v>48.51540029462367</v>
+        <v>42.73236457950448</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3954,16 +3954,16 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>48.51540029462367</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>48.51540029462367</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3982,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>42.73236457950449</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4033,19 +4033,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="V44" t="n">
         <v>48.51540029462365</v>
       </c>
       <c r="W44" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>42.73236457950448</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4064,58 +4064,58 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>42.83355501059459</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
+      <c r="R45" t="n">
+        <v>48.41420986353356</v>
+      </c>
+      <c r="S45" t="n">
         <v>48.51540029462365</v>
       </c>
-      <c r="F45" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" t="n">
+      <c r="T45" t="n">
         <v>48.51540029462365</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>0</v>
-      </c>
-      <c r="R45" t="n">
-        <v>0</v>
-      </c>
-      <c r="S45" t="n">
-        <v>0</v>
-      </c>
-      <c r="T45" t="n">
-        <v>0</v>
-      </c>
       <c r="U45" t="n">
-        <v>42.73236457950449</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -4134,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>42.73236457950448</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4188,16 +4188,16 @@
         <v>48.51540029462365</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>42.73236457950449</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5017,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>194.0616011784946</v>
+        <v>47.045236649332</v>
       </c>
       <c r="C11" t="n">
-        <v>194.0616011784946</v>
+        <v>47.045236649332</v>
       </c>
       <c r="D11" t="n">
-        <v>194.0616011784946</v>
+        <v>47.045236649332</v>
       </c>
       <c r="E11" t="n">
-        <v>150.8975965527324</v>
+        <v>47.045236649332</v>
       </c>
       <c r="F11" t="n">
-        <v>101.8921417096783</v>
+        <v>47.045236649332</v>
       </c>
       <c r="G11" t="n">
-        <v>52.88668686662407</v>
+        <v>47.045236649332</v>
       </c>
       <c r="H11" t="n">
-        <v>3.881232023569891</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="I11" t="n">
-        <v>3.881232023569891</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="J11" t="n">
-        <v>3.881232023569891</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="K11" t="n">
-        <v>3.881232023569891</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="L11" t="n">
-        <v>51.91147831524729</v>
+        <v>51.9114783152473</v>
       </c>
       <c r="M11" t="n">
-        <v>99.94172460692469</v>
+        <v>99.94172460692471</v>
       </c>
       <c r="N11" t="n">
         <v>147.9719708986021</v>
@@ -5065,28 +5065,28 @@
         <v>194.0616011784946</v>
       </c>
       <c r="R11" t="n">
-        <v>194.0616011784946</v>
+        <v>145.0561463354404</v>
       </c>
       <c r="S11" t="n">
-        <v>194.0616011784946</v>
+        <v>96.05069149238619</v>
       </c>
       <c r="T11" t="n">
-        <v>194.0616011784946</v>
+        <v>96.05069149238619</v>
       </c>
       <c r="U11" t="n">
-        <v>194.0616011784946</v>
+        <v>96.05069149238619</v>
       </c>
       <c r="V11" t="n">
-        <v>194.0616011784946</v>
+        <v>96.05069149238619</v>
       </c>
       <c r="W11" t="n">
-        <v>194.0616011784946</v>
+        <v>96.05069149238619</v>
       </c>
       <c r="X11" t="n">
-        <v>194.0616011784946</v>
+        <v>96.05069149238619</v>
       </c>
       <c r="Y11" t="n">
-        <v>194.0616011784946</v>
+        <v>96.05069149238619</v>
       </c>
     </row>
     <row r="12">
@@ -5096,46 +5096,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>96.05069149238618</v>
+        <v>145.1583588920971</v>
       </c>
       <c r="C12" t="n">
-        <v>96.05069149238618</v>
+        <v>145.1583588920971</v>
       </c>
       <c r="D12" t="n">
-        <v>96.05069149238618</v>
+        <v>96.15290404904286</v>
       </c>
       <c r="E12" t="n">
-        <v>96.05069149238618</v>
+        <v>96.15290404904286</v>
       </c>
       <c r="F12" t="n">
-        <v>52.88668686662407</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="G12" t="n">
-        <v>3.881232023569891</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="H12" t="n">
-        <v>3.881232023569891</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="I12" t="n">
-        <v>3.881232023569891</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="J12" t="n">
-        <v>3.881232023569891</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="K12" t="n">
-        <v>3.881232023569891</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="L12" t="n">
-        <v>25.05496226725347</v>
+        <v>45.85568787732696</v>
       </c>
       <c r="M12" t="n">
-        <v>73.08520855893087</v>
+        <v>93.88593416900437</v>
       </c>
       <c r="N12" t="n">
-        <v>121.1154548506083</v>
+        <v>141.9161804606818</v>
       </c>
       <c r="O12" t="n">
-        <v>169.1457011422857</v>
+        <v>189.9464267523592</v>
       </c>
       <c r="P12" t="n">
         <v>194.0616011784946</v>
@@ -5144,28 +5144,28 @@
         <v>194.0616011784946</v>
       </c>
       <c r="R12" t="n">
-        <v>194.0616011784946</v>
+        <v>145.1583588920971</v>
       </c>
       <c r="S12" t="n">
-        <v>145.0561463354404</v>
+        <v>145.1583588920971</v>
       </c>
       <c r="T12" t="n">
-        <v>145.0561463354404</v>
+        <v>145.1583588920971</v>
       </c>
       <c r="U12" t="n">
-        <v>145.0561463354404</v>
+        <v>145.1583588920971</v>
       </c>
       <c r="V12" t="n">
-        <v>145.0561463354404</v>
+        <v>145.1583588920971</v>
       </c>
       <c r="W12" t="n">
-        <v>145.0561463354404</v>
+        <v>145.1583588920971</v>
       </c>
       <c r="X12" t="n">
-        <v>145.0561463354404</v>
+        <v>145.1583588920971</v>
       </c>
       <c r="Y12" t="n">
-        <v>145.0561463354404</v>
+        <v>145.1583588920971</v>
       </c>
     </row>
     <row r="13">
@@ -5175,43 +5175,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>52.88668686662407</v>
+        <v>101.8921417096783</v>
       </c>
       <c r="C13" t="n">
-        <v>52.88668686662407</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="D13" t="n">
-        <v>3.881232023569891</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="E13" t="n">
-        <v>3.881232023569891</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="F13" t="n">
-        <v>3.881232023569891</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="G13" t="n">
-        <v>3.881232023569891</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="H13" t="n">
-        <v>3.881232023569891</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="I13" t="n">
-        <v>3.881232023569891</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="J13" t="n">
-        <v>3.881232023569891</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="K13" t="n">
-        <v>51.91147831524729</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="L13" t="n">
-        <v>98.00110859513975</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="M13" t="n">
-        <v>146.0313548868172</v>
+        <v>49.97086230346238</v>
       </c>
       <c r="N13" t="n">
-        <v>146.0313548868172</v>
+        <v>98.00110859513978</v>
       </c>
       <c r="O13" t="n">
         <v>146.0313548868172</v>
@@ -5220,31 +5220,31 @@
         <v>194.0616011784946</v>
       </c>
       <c r="Q13" t="n">
-        <v>166.1260265926033</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="R13" t="n">
-        <v>166.1260265926033</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="S13" t="n">
-        <v>117.1205717495491</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="T13" t="n">
-        <v>117.1205717495491</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="U13" t="n">
-        <v>117.1205717495491</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="V13" t="n">
-        <v>117.1205717495491</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="W13" t="n">
-        <v>68.1151169064949</v>
+        <v>150.8975965527325</v>
       </c>
       <c r="X13" t="n">
-        <v>52.88668686662407</v>
+        <v>150.8975965527325</v>
       </c>
       <c r="Y13" t="n">
-        <v>52.88668686662407</v>
+        <v>150.8975965527325</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>52.8866868666241</v>
+        <v>96.05069149238619</v>
       </c>
       <c r="C14" t="n">
-        <v>52.8866868666241</v>
+        <v>96.05069149238619</v>
       </c>
       <c r="D14" t="n">
-        <v>52.8866868666241</v>
+        <v>96.05069149238619</v>
       </c>
       <c r="E14" t="n">
-        <v>52.8866868666241</v>
+        <v>47.045236649332</v>
       </c>
       <c r="F14" t="n">
-        <v>52.8866868666241</v>
+        <v>47.045236649332</v>
       </c>
       <c r="G14" t="n">
-        <v>3.881232023569893</v>
+        <v>47.045236649332</v>
       </c>
       <c r="H14" t="n">
-        <v>3.881232023569893</v>
+        <v>47.045236649332</v>
       </c>
       <c r="I14" t="n">
-        <v>3.881232023569893</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="J14" t="n">
-        <v>3.881232023569893</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="K14" t="n">
-        <v>3.881232023569893</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="L14" t="n">
-        <v>51.91147831524732</v>
+        <v>49.97086230346238</v>
       </c>
       <c r="M14" t="n">
-        <v>98.00110859513981</v>
+        <v>98.00110859513978</v>
       </c>
       <c r="N14" t="n">
         <v>146.0313548868172</v>
       </c>
       <c r="O14" t="n">
-        <v>194.0616011784947</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="P14" t="n">
-        <v>194.0616011784947</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="Q14" t="n">
-        <v>194.0616011784947</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="R14" t="n">
-        <v>145.0561463354405</v>
+        <v>145.0561463354404</v>
       </c>
       <c r="S14" t="n">
-        <v>96.05069149238626</v>
+        <v>96.05069149238619</v>
       </c>
       <c r="T14" t="n">
-        <v>96.05069149238626</v>
+        <v>96.05069149238619</v>
       </c>
       <c r="U14" t="n">
-        <v>52.8866868666241</v>
+        <v>96.05069149238619</v>
       </c>
       <c r="V14" t="n">
-        <v>52.8866868666241</v>
+        <v>96.05069149238619</v>
       </c>
       <c r="W14" t="n">
-        <v>52.8866868666241</v>
+        <v>96.05069149238619</v>
       </c>
       <c r="X14" t="n">
-        <v>52.8866868666241</v>
+        <v>96.05069149238619</v>
       </c>
       <c r="Y14" t="n">
-        <v>52.8866868666241</v>
+        <v>96.05069149238619</v>
       </c>
     </row>
     <row r="15">
@@ -5333,58 +5333,58 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>52.8866868666241</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="C15" t="n">
-        <v>52.8866868666241</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="D15" t="n">
-        <v>52.8866868666241</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="E15" t="n">
-        <v>3.881232023569893</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="F15" t="n">
-        <v>3.881232023569893</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="G15" t="n">
-        <v>3.881232023569893</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="H15" t="n">
-        <v>3.881232023569893</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="I15" t="n">
-        <v>3.881232023569893</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="J15" t="n">
-        <v>3.881232023569893</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="K15" t="n">
-        <v>3.881232023569893</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="L15" t="n">
         <v>45.85568787732696</v>
       </c>
       <c r="M15" t="n">
-        <v>93.8859341690044</v>
+        <v>93.88593416900437</v>
       </c>
       <c r="N15" t="n">
-        <v>141.9161804606818</v>
+        <v>121.1154548506083</v>
       </c>
       <c r="O15" t="n">
-        <v>189.9464267523593</v>
+        <v>169.1457011422857</v>
       </c>
       <c r="P15" t="n">
-        <v>194.0616011784947</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="Q15" t="n">
-        <v>194.0616011784947</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="R15" t="n">
-        <v>194.0616011784947</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="S15" t="n">
-        <v>194.0616011784947</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="T15" t="n">
         <v>150.8975965527325</v>
@@ -5396,13 +5396,13 @@
         <v>101.8921417096783</v>
       </c>
       <c r="W15" t="n">
-        <v>52.8866868666241</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="X15" t="n">
-        <v>52.8866868666241</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="Y15" t="n">
-        <v>52.8866868666241</v>
+        <v>3.881232023569892</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>52.8866868666241</v>
+        <v>47.045236649332</v>
       </c>
       <c r="C16" t="n">
-        <v>52.8866868666241</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="D16" t="n">
-        <v>52.8866868666241</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="E16" t="n">
-        <v>3.881232023569893</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="F16" t="n">
-        <v>3.881232023569893</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="G16" t="n">
-        <v>3.881232023569893</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="H16" t="n">
-        <v>3.881232023569893</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="I16" t="n">
-        <v>3.881232023569893</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="J16" t="n">
-        <v>3.881232023569893</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="K16" t="n">
-        <v>3.881232023569893</v>
+        <v>49.97086230346238</v>
       </c>
       <c r="L16" t="n">
-        <v>49.97086230346238</v>
+        <v>98.00110859513978</v>
       </c>
       <c r="M16" t="n">
-        <v>98.00110859513981</v>
+        <v>146.0313548868172</v>
       </c>
       <c r="N16" t="n">
-        <v>98.00110859513981</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="O16" t="n">
-        <v>146.0313548868172</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="P16" t="n">
-        <v>194.0616011784947</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="Q16" t="n">
-        <v>194.0616011784947</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="R16" t="n">
-        <v>194.0616011784947</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="S16" t="n">
-        <v>194.0616011784947</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="T16" t="n">
-        <v>145.0561463354405</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="U16" t="n">
-        <v>101.8921417096783</v>
+        <v>145.0561463354404</v>
       </c>
       <c r="V16" t="n">
-        <v>101.8921417096783</v>
+        <v>145.0561463354404</v>
       </c>
       <c r="W16" t="n">
-        <v>101.8921417096783</v>
+        <v>96.05069149238619</v>
       </c>
       <c r="X16" t="n">
-        <v>101.8921417096783</v>
+        <v>96.05069149238619</v>
       </c>
       <c r="Y16" t="n">
-        <v>101.8921417096783</v>
+        <v>47.045236649332</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>47.04523664933205</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="C17" t="n">
-        <v>47.04523664933205</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="D17" t="n">
-        <v>47.04523664933205</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="E17" t="n">
-        <v>3.881232023569893</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="F17" t="n">
-        <v>3.881232023569893</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="G17" t="n">
-        <v>3.881232023569893</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="H17" t="n">
-        <v>3.881232023569893</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="I17" t="n">
-        <v>3.881232023569893</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="J17" t="n">
-        <v>3.881232023569893</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="K17" t="n">
-        <v>3.881232023569893</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="L17" t="n">
-        <v>51.91147831524732</v>
+        <v>51.9114783152473</v>
       </c>
       <c r="M17" t="n">
-        <v>99.94172460692475</v>
+        <v>98.00110859513978</v>
       </c>
       <c r="N17" t="n">
-        <v>147.9719708986022</v>
+        <v>146.0313548868172</v>
       </c>
       <c r="O17" t="n">
-        <v>194.0616011784947</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="P17" t="n">
-        <v>194.0616011784947</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="Q17" t="n">
-        <v>194.0616011784947</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="R17" t="n">
-        <v>194.0616011784947</v>
+        <v>145.0561463354404</v>
       </c>
       <c r="S17" t="n">
-        <v>194.0616011784947</v>
+        <v>145.0561463354404</v>
       </c>
       <c r="T17" t="n">
-        <v>194.0616011784947</v>
+        <v>145.0561463354404</v>
       </c>
       <c r="U17" t="n">
-        <v>194.0616011784947</v>
+        <v>101.8921417096783</v>
       </c>
       <c r="V17" t="n">
-        <v>145.0561463354405</v>
+        <v>101.8921417096783</v>
       </c>
       <c r="W17" t="n">
-        <v>96.05069149238626</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="X17" t="n">
-        <v>96.05069149238626</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="Y17" t="n">
-        <v>47.04523664933205</v>
+        <v>52.88668686662408</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3.881232023569893</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="C18" t="n">
-        <v>3.881232023569893</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="D18" t="n">
-        <v>3.881232023569893</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="E18" t="n">
-        <v>3.881232023569893</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="F18" t="n">
-        <v>3.881232023569893</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="G18" t="n">
-        <v>3.881232023569893</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="H18" t="n">
-        <v>3.881232023569893</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="I18" t="n">
-        <v>3.881232023569893</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="J18" t="n">
-        <v>3.881232023569893</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="K18" t="n">
-        <v>3.881232023569893</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="L18" t="n">
         <v>45.85568787732696</v>
       </c>
       <c r="M18" t="n">
-        <v>93.8859341690044</v>
+        <v>73.0852085589309</v>
       </c>
       <c r="N18" t="n">
-        <v>141.9161804606818</v>
+        <v>121.1154548506083</v>
       </c>
       <c r="O18" t="n">
-        <v>189.9464267523593</v>
+        <v>169.1457011422857</v>
       </c>
       <c r="P18" t="n">
-        <v>194.0616011784947</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="Q18" t="n">
-        <v>194.0616011784947</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="R18" t="n">
-        <v>145.1583588920971</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="S18" t="n">
-        <v>96.15290404904293</v>
+        <v>150.8975965527325</v>
       </c>
       <c r="T18" t="n">
-        <v>96.15290404904293</v>
+        <v>101.8921417096783</v>
       </c>
       <c r="U18" t="n">
-        <v>96.15290404904293</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="V18" t="n">
-        <v>96.15290404904293</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="W18" t="n">
-        <v>96.15290404904293</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="X18" t="n">
-        <v>47.14744920598872</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="Y18" t="n">
-        <v>3.881232023569893</v>
+        <v>3.881232023569892</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>145.0561463354405</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="C19" t="n">
-        <v>145.0561463354405</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="D19" t="n">
-        <v>145.0561463354405</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="E19" t="n">
-        <v>96.05069149238626</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="F19" t="n">
-        <v>96.05069149238626</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="G19" t="n">
-        <v>52.8866868666241</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="H19" t="n">
-        <v>3.881232023569893</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="I19" t="n">
-        <v>3.881232023569893</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="J19" t="n">
-        <v>3.881232023569893</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="K19" t="n">
-        <v>51.91147831524732</v>
+        <v>51.9114783152473</v>
       </c>
       <c r="L19" t="n">
-        <v>51.91147831524732</v>
+        <v>51.9114783152473</v>
       </c>
       <c r="M19" t="n">
-        <v>99.94172460692475</v>
+        <v>99.94172460692471</v>
       </c>
       <c r="N19" t="n">
-        <v>99.94172460692475</v>
+        <v>99.94172460692471</v>
       </c>
       <c r="O19" t="n">
         <v>146.0313548868172</v>
       </c>
       <c r="P19" t="n">
-        <v>194.0616011784947</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="Q19" t="n">
-        <v>194.0616011784947</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="R19" t="n">
-        <v>194.0616011784947</v>
+        <v>145.0561463354404</v>
       </c>
       <c r="S19" t="n">
-        <v>145.0561463354405</v>
+        <v>96.05069149238619</v>
       </c>
       <c r="T19" t="n">
-        <v>145.0561463354405</v>
+        <v>47.045236649332</v>
       </c>
       <c r="U19" t="n">
-        <v>145.0561463354405</v>
+        <v>47.045236649332</v>
       </c>
       <c r="V19" t="n">
-        <v>145.0561463354405</v>
+        <v>47.045236649332</v>
       </c>
       <c r="W19" t="n">
-        <v>145.0561463354405</v>
+        <v>47.045236649332</v>
       </c>
       <c r="X19" t="n">
-        <v>145.0561463354405</v>
+        <v>47.045236649332</v>
       </c>
       <c r="Y19" t="n">
-        <v>145.0561463354405</v>
+        <v>3.881232023569892</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>145.0561463354404</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="C20" t="n">
-        <v>145.0561463354404</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="D20" t="n">
-        <v>96.05069149238619</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="E20" t="n">
-        <v>96.05069149238619</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="F20" t="n">
-        <v>96.05069149238619</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="G20" t="n">
-        <v>52.88668686662407</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="H20" t="n">
-        <v>3.881232023569891</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="I20" t="n">
-        <v>3.881232023569891</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="J20" t="n">
-        <v>3.881232023569891</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="K20" t="n">
-        <v>3.881232023569891</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="L20" t="n">
         <v>13.8171863711063</v>
@@ -5767,37 +5767,37 @@
         <v>104.5725337719637</v>
       </c>
       <c r="O20" t="n">
-        <v>136.5908721203097</v>
+        <v>152.6027800636411</v>
       </c>
       <c r="P20" t="n">
-        <v>146.0313548868171</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="Q20" t="n">
-        <v>194.0616011784945</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="R20" t="n">
-        <v>194.0616011784945</v>
+        <v>145.0561463354404</v>
       </c>
       <c r="S20" t="n">
-        <v>194.0616011784945</v>
+        <v>145.0561463354404</v>
       </c>
       <c r="T20" t="n">
-        <v>145.0561463354404</v>
+        <v>96.05069149238619</v>
       </c>
       <c r="U20" t="n">
-        <v>145.0561463354404</v>
+        <v>96.05069149238619</v>
       </c>
       <c r="V20" t="n">
-        <v>145.0561463354404</v>
+        <v>47.045236649332</v>
       </c>
       <c r="W20" t="n">
-        <v>145.0561463354404</v>
+        <v>47.045236649332</v>
       </c>
       <c r="X20" t="n">
-        <v>145.0561463354404</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.0561463354404</v>
+        <v>3.881232023569892</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>47.14744920598866</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="C21" t="n">
-        <v>47.14744920598866</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="D21" t="n">
-        <v>47.14744920598866</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="E21" t="n">
-        <v>47.14744920598866</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="F21" t="n">
-        <v>47.14744920598866</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="G21" t="n">
-        <v>3.881232023569891</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="H21" t="n">
-        <v>3.881232023569891</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="I21" t="n">
-        <v>3.881232023569891</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="J21" t="n">
-        <v>3.881232023569891</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="K21" t="n">
-        <v>3.881232023569891</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="L21" t="n">
         <v>45.85568787732696</v>
       </c>
       <c r="M21" t="n">
-        <v>73.08520855893084</v>
+        <v>93.88593416900437</v>
       </c>
       <c r="N21" t="n">
-        <v>121.1154548506082</v>
+        <v>121.1154548506083</v>
       </c>
       <c r="O21" t="n">
-        <v>169.1457011422856</v>
+        <v>169.1457011422857</v>
       </c>
       <c r="P21" t="n">
-        <v>194.0616011784945</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="Q21" t="n">
-        <v>194.0616011784945</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="R21" t="n">
-        <v>145.158358892097</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="S21" t="n">
-        <v>96.15290404904283</v>
+        <v>150.8975965527325</v>
       </c>
       <c r="T21" t="n">
-        <v>96.15290404904283</v>
+        <v>101.8921417096783</v>
       </c>
       <c r="U21" t="n">
-        <v>96.15290404904283</v>
+        <v>101.8921417096783</v>
       </c>
       <c r="V21" t="n">
-        <v>96.15290404904283</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="W21" t="n">
-        <v>47.14744920598866</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="X21" t="n">
-        <v>47.14744920598866</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="Y21" t="n">
-        <v>47.14744920598866</v>
+        <v>3.881232023569892</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3.881232023569891</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="C22" t="n">
-        <v>3.881232023569891</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="D22" t="n">
-        <v>3.881232023569891</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="E22" t="n">
-        <v>3.881232023569891</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="F22" t="n">
-        <v>3.881232023569891</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="G22" t="n">
-        <v>3.881232023569891</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="H22" t="n">
-        <v>3.881232023569891</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="I22" t="n">
-        <v>3.881232023569891</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="J22" t="n">
-        <v>3.881232023569891</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="K22" t="n">
-        <v>51.91147831524729</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="L22" t="n">
-        <v>99.94172460692468</v>
+        <v>51.9114783152473</v>
       </c>
       <c r="M22" t="n">
-        <v>99.94172460692468</v>
+        <v>99.94172460692471</v>
       </c>
       <c r="N22" t="n">
-        <v>99.94172460692468</v>
+        <v>146.0313548868172</v>
       </c>
       <c r="O22" t="n">
-        <v>146.0313548868171</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="P22" t="n">
-        <v>194.0616011784945</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="Q22" t="n">
-        <v>194.0616011784945</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="R22" t="n">
-        <v>194.0616011784945</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="S22" t="n">
-        <v>145.0561463354404</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="T22" t="n">
-        <v>96.05069149238619</v>
+        <v>150.8975965527325</v>
       </c>
       <c r="U22" t="n">
-        <v>96.05069149238619</v>
+        <v>150.8975965527325</v>
       </c>
       <c r="V22" t="n">
-        <v>47.04523664933202</v>
+        <v>101.8921417096783</v>
       </c>
       <c r="W22" t="n">
-        <v>3.881232023569891</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="X22" t="n">
-        <v>3.881232023569891</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="Y22" t="n">
-        <v>3.881232023569891</v>
+        <v>52.88668686662408</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>144.9756266685854</v>
+        <v>84.11287582416838</v>
       </c>
       <c r="C23" t="n">
-        <v>144.9756266685854</v>
+        <v>84.11287582416838</v>
       </c>
       <c r="D23" t="n">
-        <v>144.9756266685854</v>
+        <v>84.11287582416838</v>
       </c>
       <c r="E23" t="n">
         <v>75.24898821697644</v>
       </c>
       <c r="F23" t="n">
-        <v>5.522349765367433</v>
+        <v>75.24898821697644</v>
       </c>
       <c r="G23" t="n">
         <v>5.522349765367433</v>
@@ -5998,16 +5998,16 @@
         <v>83.79738245932582</v>
       </c>
       <c r="M23" t="n">
-        <v>139.4393315755277</v>
+        <v>126.5224835685058</v>
       </c>
       <c r="N23" t="n">
-        <v>207.7784099219497</v>
+        <v>174.5527298601832</v>
       </c>
       <c r="O23" t="n">
-        <v>276.1174882683716</v>
+        <v>206.5710682085292</v>
       </c>
       <c r="P23" t="n">
-        <v>276.1174882683716</v>
+        <v>274.9101465549512</v>
       </c>
       <c r="Q23" t="n">
         <v>276.1174882683716</v>
@@ -6016,25 +6016,25 @@
         <v>223.5661527273864</v>
       </c>
       <c r="S23" t="n">
-        <v>223.5661527273864</v>
+        <v>153.8395142757774</v>
       </c>
       <c r="T23" t="n">
-        <v>223.5661527273864</v>
+        <v>153.8395142757774</v>
       </c>
       <c r="U23" t="n">
-        <v>223.5661527273864</v>
+        <v>84.11287582416838</v>
       </c>
       <c r="V23" t="n">
-        <v>214.7022651201945</v>
+        <v>84.11287582416838</v>
       </c>
       <c r="W23" t="n">
-        <v>214.7022651201945</v>
+        <v>84.11287582416838</v>
       </c>
       <c r="X23" t="n">
-        <v>214.7022651201945</v>
+        <v>84.11287582416838</v>
       </c>
       <c r="Y23" t="n">
-        <v>214.7022651201945</v>
+        <v>84.11287582416838</v>
       </c>
     </row>
     <row r="24">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>136.6642113651536</v>
+        <v>206.2917608826619</v>
       </c>
       <c r="C24" t="n">
-        <v>136.6642113651536</v>
+        <v>206.2917608826619</v>
       </c>
       <c r="D24" t="n">
-        <v>66.93757291354461</v>
+        <v>206.2917608826619</v>
       </c>
       <c r="E24" t="n">
-        <v>5.522349765367433</v>
+        <v>136.5651224310529</v>
       </c>
       <c r="F24" t="n">
-        <v>5.522349765367433</v>
+        <v>66.83848397944391</v>
       </c>
       <c r="G24" t="n">
-        <v>5.522349765367433</v>
+        <v>66.83848397944391</v>
       </c>
       <c r="H24" t="n">
-        <v>5.522349765367433</v>
+        <v>66.83848397944391</v>
       </c>
       <c r="I24" t="n">
         <v>5.522349765367433</v>
@@ -6092,28 +6092,28 @@
         <v>276.1174882683716</v>
       </c>
       <c r="R24" t="n">
-        <v>276.1174882683716</v>
+        <v>227.2142459819741</v>
       </c>
       <c r="S24" t="n">
-        <v>206.3908498167626</v>
+        <v>227.2142459819741</v>
       </c>
       <c r="T24" t="n">
-        <v>136.6642113651536</v>
+        <v>227.2142459819741</v>
       </c>
       <c r="U24" t="n">
-        <v>136.6642113651536</v>
+        <v>206.2917608826619</v>
       </c>
       <c r="V24" t="n">
-        <v>136.6642113651536</v>
+        <v>206.2917608826619</v>
       </c>
       <c r="W24" t="n">
-        <v>136.6642113651536</v>
+        <v>206.2917608826619</v>
       </c>
       <c r="X24" t="n">
-        <v>136.6642113651536</v>
+        <v>206.2917608826619</v>
       </c>
       <c r="Y24" t="n">
-        <v>136.6642113651536</v>
+        <v>206.2917608826619</v>
       </c>
     </row>
     <row r="25">
@@ -6162,7 +6162,7 @@
         <v>210.5395848046334</v>
       </c>
       <c r="O25" t="n">
-        <v>276.1174882683716</v>
+        <v>210.5395848046334</v>
       </c>
       <c r="P25" t="n">
         <v>276.1174882683716</v>
@@ -6174,25 +6174,25 @@
         <v>248.1819136824803</v>
       </c>
       <c r="S25" t="n">
-        <v>214.7022651201945</v>
+        <v>248.1819136824803</v>
       </c>
       <c r="T25" t="n">
-        <v>214.7022651201945</v>
+        <v>178.4552752308713</v>
       </c>
       <c r="U25" t="n">
-        <v>144.9756266685854</v>
+        <v>108.7286367792623</v>
       </c>
       <c r="V25" t="n">
-        <v>75.24898821697644</v>
+        <v>108.7286367792623</v>
       </c>
       <c r="W25" t="n">
         <v>75.24898821697644</v>
       </c>
       <c r="X25" t="n">
-        <v>5.522349765367433</v>
+        <v>75.24898821697644</v>
       </c>
       <c r="Y25" t="n">
-        <v>5.522349765367433</v>
+        <v>75.24898821697644</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>66.93757291354461</v>
+        <v>153.8395142757774</v>
       </c>
       <c r="C26" t="n">
-        <v>5.522349765367433</v>
+        <v>153.8395142757774</v>
       </c>
       <c r="D26" t="n">
-        <v>5.522349765367433</v>
+        <v>153.8395142757774</v>
       </c>
       <c r="E26" t="n">
-        <v>5.522349765367433</v>
+        <v>153.8395142757774</v>
       </c>
       <c r="F26" t="n">
-        <v>5.522349765367433</v>
+        <v>84.11287582416838</v>
       </c>
       <c r="G26" t="n">
-        <v>5.522349765367433</v>
+        <v>14.38623737255938</v>
       </c>
       <c r="H26" t="n">
-        <v>5.522349765367433</v>
+        <v>14.38623737255938</v>
       </c>
       <c r="I26" t="n">
         <v>5.522349765367433</v>
       </c>
       <c r="J26" t="n">
-        <v>73.86142811178941</v>
+        <v>49.4547925879679</v>
       </c>
       <c r="K26" t="n">
-        <v>73.86142811178941</v>
+        <v>49.4547925879679</v>
       </c>
       <c r="L26" t="n">
-        <v>83.79738245932582</v>
+        <v>59.39074693550431</v>
       </c>
       <c r="M26" t="n">
-        <v>152.1364608057478</v>
+        <v>127.7298252819263</v>
       </c>
       <c r="N26" t="n">
+        <v>175.7600715736037</v>
+      </c>
+      <c r="O26" t="n">
         <v>207.7784099219497</v>
       </c>
-      <c r="O26" t="n">
-        <v>276.1174882683716</v>
-      </c>
       <c r="P26" t="n">
-        <v>276.1174882683716</v>
+        <v>207.7784099219497</v>
       </c>
       <c r="Q26" t="n">
         <v>276.1174882683716</v>
       </c>
       <c r="R26" t="n">
-        <v>276.1174882683716</v>
+        <v>223.5661527273864</v>
       </c>
       <c r="S26" t="n">
-        <v>276.1174882683716</v>
+        <v>223.5661527273864</v>
       </c>
       <c r="T26" t="n">
-        <v>206.3908498167626</v>
+        <v>223.5661527273864</v>
       </c>
       <c r="U26" t="n">
-        <v>136.6642113651536</v>
+        <v>223.5661527273864</v>
       </c>
       <c r="V26" t="n">
-        <v>136.6642113651536</v>
+        <v>223.5661527273864</v>
       </c>
       <c r="W26" t="n">
-        <v>136.6642113651536</v>
+        <v>223.5661527273864</v>
       </c>
       <c r="X26" t="n">
-        <v>136.6642113651536</v>
+        <v>223.5661527273864</v>
       </c>
       <c r="Y26" t="n">
-        <v>136.6642113651536</v>
+        <v>153.8395142757774</v>
       </c>
     </row>
     <row r="27">
@@ -6281,13 +6281,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>5.522349765367433</v>
+        <v>18.03433062714709</v>
       </c>
       <c r="C27" t="n">
-        <v>5.522349765367433</v>
+        <v>18.03433062714709</v>
       </c>
       <c r="D27" t="n">
-        <v>5.522349765367433</v>
+        <v>18.03433062714709</v>
       </c>
       <c r="E27" t="n">
         <v>5.522349765367433</v>
@@ -6311,13 +6311,13 @@
         <v>5.522349765367433</v>
       </c>
       <c r="L27" t="n">
-        <v>59.390589567631</v>
+        <v>47.4968056191245</v>
       </c>
       <c r="M27" t="n">
-        <v>127.729667914053</v>
+        <v>115.8358839655465</v>
       </c>
       <c r="N27" t="n">
-        <v>196.0687462604749</v>
+        <v>184.1749623119684</v>
       </c>
       <c r="O27" t="n">
         <v>251.2015882321627</v>
@@ -6329,28 +6329,28 @@
         <v>276.1174882683716</v>
       </c>
       <c r="R27" t="n">
-        <v>276.1174882683716</v>
+        <v>227.2142459819741</v>
       </c>
       <c r="S27" t="n">
-        <v>214.7022651201945</v>
+        <v>157.4876075303651</v>
       </c>
       <c r="T27" t="n">
-        <v>214.7022651201945</v>
+        <v>87.76096907875609</v>
       </c>
       <c r="U27" t="n">
-        <v>214.7022651201945</v>
+        <v>18.03433062714709</v>
       </c>
       <c r="V27" t="n">
-        <v>144.9756266685854</v>
+        <v>18.03433062714709</v>
       </c>
       <c r="W27" t="n">
-        <v>75.24898821697644</v>
+        <v>18.03433062714709</v>
       </c>
       <c r="X27" t="n">
-        <v>5.522349765367433</v>
+        <v>18.03433062714709</v>
       </c>
       <c r="Y27" t="n">
-        <v>5.522349765367433</v>
+        <v>18.03433062714709</v>
       </c>
     </row>
     <row r="28">
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>5.522349765367433</v>
+        <v>66.93757291354461</v>
       </c>
       <c r="C28" t="n">
-        <v>5.522349765367433</v>
+        <v>66.93757291354461</v>
       </c>
       <c r="D28" t="n">
-        <v>5.522349765367433</v>
+        <v>66.93757291354461</v>
       </c>
       <c r="E28" t="n">
-        <v>5.522349765367433</v>
+        <v>66.93757291354461</v>
       </c>
       <c r="F28" t="n">
-        <v>5.522349765367433</v>
+        <v>66.93757291354461</v>
       </c>
       <c r="G28" t="n">
         <v>5.522349765367433</v>
@@ -6387,19 +6387,19 @@
         <v>5.522349765367433</v>
       </c>
       <c r="K28" t="n">
-        <v>63.83896525826776</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="L28" t="n">
-        <v>63.83896525826776</v>
+        <v>73.86142811178941</v>
       </c>
       <c r="M28" t="n">
-        <v>132.1780436046897</v>
+        <v>142.2005064582114</v>
       </c>
       <c r="N28" t="n">
-        <v>200.5171219511117</v>
+        <v>210.5395848046334</v>
       </c>
       <c r="O28" t="n">
-        <v>268.8562002975336</v>
+        <v>276.1174882683716</v>
       </c>
       <c r="P28" t="n">
         <v>276.1174882683716</v>
@@ -6414,22 +6414,22 @@
         <v>276.1174882683716</v>
       </c>
       <c r="T28" t="n">
-        <v>206.3908498167626</v>
+        <v>276.1174882683716</v>
       </c>
       <c r="U28" t="n">
         <v>206.3908498167626</v>
       </c>
       <c r="V28" t="n">
+        <v>206.3908498167626</v>
+      </c>
+      <c r="W28" t="n">
         <v>136.6642113651536</v>
       </c>
-      <c r="W28" t="n">
-        <v>75.24898821697644</v>
-      </c>
       <c r="X28" t="n">
-        <v>5.522349765367433</v>
+        <v>66.93757291354461</v>
       </c>
       <c r="Y28" t="n">
-        <v>5.522349765367433</v>
+        <v>66.93757291354461</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>5.522349765367433</v>
+        <v>84.11287582416838</v>
       </c>
       <c r="C29" t="n">
-        <v>5.522349765367433</v>
+        <v>84.11287582416838</v>
       </c>
       <c r="D29" t="n">
-        <v>5.522349765367433</v>
+        <v>84.11287582416838</v>
       </c>
       <c r="E29" t="n">
-        <v>5.522349765367433</v>
+        <v>84.11287582416838</v>
       </c>
       <c r="F29" t="n">
-        <v>5.522349765367433</v>
+        <v>75.24898821697644</v>
       </c>
       <c r="G29" t="n">
-        <v>5.522349765367433</v>
+        <v>75.24898821697644</v>
       </c>
       <c r="H29" t="n">
         <v>5.522349765367433</v>
@@ -6463,52 +6463,52 @@
         <v>5.522349765367433</v>
       </c>
       <c r="J29" t="n">
-        <v>5.522349765367433</v>
+        <v>73.86142811178941</v>
       </c>
       <c r="K29" t="n">
-        <v>5.522349765367433</v>
+        <v>73.86142811178941</v>
       </c>
       <c r="L29" t="n">
-        <v>15.45830411290384</v>
+        <v>83.79738245932582</v>
       </c>
       <c r="M29" t="n">
-        <v>83.79738245932582</v>
+        <v>126.5224835685058</v>
       </c>
       <c r="N29" t="n">
-        <v>152.1364608057478</v>
+        <v>174.5527298601832</v>
       </c>
       <c r="O29" t="n">
-        <v>220.4755391521697</v>
+        <v>207.7784099219497</v>
       </c>
       <c r="P29" t="n">
-        <v>220.4755391521697</v>
+        <v>207.7784099219497</v>
       </c>
       <c r="Q29" t="n">
         <v>276.1174882683716</v>
       </c>
       <c r="R29" t="n">
-        <v>276.1174882683716</v>
+        <v>223.5661527273864</v>
       </c>
       <c r="S29" t="n">
-        <v>206.3908498167626</v>
+        <v>223.5661527273864</v>
       </c>
       <c r="T29" t="n">
-        <v>136.6642113651536</v>
+        <v>223.5661527273864</v>
       </c>
       <c r="U29" t="n">
-        <v>136.6642113651536</v>
+        <v>153.8395142757774</v>
       </c>
       <c r="V29" t="n">
-        <v>66.93757291354461</v>
+        <v>153.8395142757774</v>
       </c>
       <c r="W29" t="n">
-        <v>66.93757291354461</v>
+        <v>153.8395142757774</v>
       </c>
       <c r="X29" t="n">
-        <v>66.93757291354461</v>
+        <v>153.8395142757774</v>
       </c>
       <c r="Y29" t="n">
-        <v>5.522349765367433</v>
+        <v>153.8395142757774</v>
       </c>
     </row>
     <row r="30">
@@ -6518,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>5.522349765367433</v>
+        <v>214.7022651201945</v>
       </c>
       <c r="C30" t="n">
-        <v>5.522349765367433</v>
+        <v>214.7022651201945</v>
       </c>
       <c r="D30" t="n">
-        <v>5.522349765367433</v>
+        <v>214.7022651201945</v>
       </c>
       <c r="E30" t="n">
-        <v>5.522349765367433</v>
+        <v>214.7022651201945</v>
       </c>
       <c r="F30" t="n">
-        <v>5.522349765367433</v>
+        <v>144.9756266685854</v>
       </c>
       <c r="G30" t="n">
-        <v>5.522349765367433</v>
+        <v>75.24898821697644</v>
       </c>
       <c r="H30" t="n">
         <v>5.522349765367433</v>
@@ -6545,49 +6545,49 @@
         <v>5.522349765367433</v>
       </c>
       <c r="K30" t="n">
-        <v>17.41613371387393</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="L30" t="n">
-        <v>59.390589567631</v>
+        <v>47.4968056191245</v>
       </c>
       <c r="M30" t="n">
-        <v>127.729667914053</v>
+        <v>115.8358839655465</v>
       </c>
       <c r="N30" t="n">
-        <v>196.0687462604749</v>
+        <v>184.1749623119684</v>
       </c>
       <c r="O30" t="n">
-        <v>251.2015882321627</v>
+        <v>239.3078042836563</v>
       </c>
       <c r="P30" t="n">
-        <v>276.1174882683716</v>
+        <v>264.2237043198651</v>
       </c>
       <c r="Q30" t="n">
         <v>276.1174882683716</v>
       </c>
       <c r="R30" t="n">
-        <v>276.1174882683716</v>
+        <v>227.2142459819741</v>
       </c>
       <c r="S30" t="n">
-        <v>276.1174882683716</v>
+        <v>227.2142459819741</v>
       </c>
       <c r="T30" t="n">
-        <v>276.1174882683716</v>
+        <v>227.2142459819741</v>
       </c>
       <c r="U30" t="n">
         <v>214.7022651201945</v>
       </c>
       <c r="V30" t="n">
-        <v>144.9756266685854</v>
+        <v>214.7022651201945</v>
       </c>
       <c r="W30" t="n">
-        <v>75.24898821697644</v>
+        <v>214.7022651201945</v>
       </c>
       <c r="X30" t="n">
-        <v>5.522349765367433</v>
+        <v>214.7022651201945</v>
       </c>
       <c r="Y30" t="n">
-        <v>5.522349765367433</v>
+        <v>214.7022651201945</v>
       </c>
     </row>
     <row r="31">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>136.6642113651536</v>
+        <v>206.3908498167626</v>
       </c>
       <c r="C31" t="n">
+        <v>206.3908498167626</v>
+      </c>
+      <c r="D31" t="n">
+        <v>206.3908498167626</v>
+      </c>
+      <c r="E31" t="n">
+        <v>206.3908498167626</v>
+      </c>
+      <c r="F31" t="n">
+        <v>144.9756266685854</v>
+      </c>
+      <c r="G31" t="n">
         <v>75.24898821697644</v>
-      </c>
-      <c r="D31" t="n">
-        <v>75.24898821697644</v>
-      </c>
-      <c r="E31" t="n">
-        <v>5.522349765367433</v>
-      </c>
-      <c r="F31" t="n">
-        <v>5.522349765367433</v>
-      </c>
-      <c r="G31" t="n">
-        <v>5.522349765367433</v>
       </c>
       <c r="H31" t="n">
         <v>5.522349765367433</v>
@@ -6627,13 +6627,13 @@
         <v>5.522349765367433</v>
       </c>
       <c r="L31" t="n">
-        <v>71.10025322910575</v>
+        <v>73.86142811178941</v>
       </c>
       <c r="M31" t="n">
-        <v>139.4393315755277</v>
+        <v>142.2005064582114</v>
       </c>
       <c r="N31" t="n">
-        <v>207.7784099219497</v>
+        <v>210.5395848046334</v>
       </c>
       <c r="O31" t="n">
         <v>276.1174882683716</v>
@@ -6645,28 +6645,28 @@
         <v>276.1174882683716</v>
       </c>
       <c r="R31" t="n">
+        <v>276.1174882683716</v>
+      </c>
+      <c r="S31" t="n">
+        <v>276.1174882683716</v>
+      </c>
+      <c r="T31" t="n">
+        <v>276.1174882683716</v>
+      </c>
+      <c r="U31" t="n">
+        <v>276.1174882683716</v>
+      </c>
+      <c r="V31" t="n">
+        <v>276.1174882683716</v>
+      </c>
+      <c r="W31" t="n">
+        <v>276.1174882683716</v>
+      </c>
+      <c r="X31" t="n">
+        <v>276.1174882683716</v>
+      </c>
+      <c r="Y31" t="n">
         <v>206.3908498167626</v>
-      </c>
-      <c r="S31" t="n">
-        <v>206.3908498167626</v>
-      </c>
-      <c r="T31" t="n">
-        <v>206.3908498167626</v>
-      </c>
-      <c r="U31" t="n">
-        <v>206.3908498167626</v>
-      </c>
-      <c r="V31" t="n">
-        <v>206.3908498167626</v>
-      </c>
-      <c r="W31" t="n">
-        <v>206.3908498167626</v>
-      </c>
-      <c r="X31" t="n">
-        <v>206.3908498167626</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>136.6642113651536</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>144.9756266685854</v>
+        <v>84.11287582416838</v>
       </c>
       <c r="C32" t="n">
-        <v>144.9756266685854</v>
+        <v>84.11287582416838</v>
       </c>
       <c r="D32" t="n">
-        <v>144.9756266685854</v>
+        <v>14.38623737255938</v>
       </c>
       <c r="E32" t="n">
-        <v>144.9756266685854</v>
+        <v>14.38623737255938</v>
       </c>
       <c r="F32" t="n">
-        <v>75.24898821697644</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="G32" t="n">
         <v>5.522349765367433</v>
@@ -6700,7 +6700,7 @@
         <v>5.522349765367433</v>
       </c>
       <c r="J32" t="n">
-        <v>5.522349765367433</v>
+        <v>73.86142811178941</v>
       </c>
       <c r="K32" t="n">
         <v>73.86142811178941</v>
@@ -6712,40 +6712,40 @@
         <v>152.1364608057478</v>
       </c>
       <c r="N32" t="n">
-        <v>207.7784099219497</v>
+        <v>200.1667070974252</v>
       </c>
       <c r="O32" t="n">
-        <v>276.1174882683716</v>
+        <v>232.1850454457712</v>
       </c>
       <c r="P32" t="n">
-        <v>276.1174882683716</v>
+        <v>232.1850454457712</v>
       </c>
       <c r="Q32" t="n">
         <v>276.1174882683716</v>
       </c>
       <c r="R32" t="n">
-        <v>276.1174882683716</v>
+        <v>223.5661527273864</v>
       </c>
       <c r="S32" t="n">
-        <v>276.1174882683716</v>
+        <v>223.5661527273864</v>
       </c>
       <c r="T32" t="n">
-        <v>214.7022651201945</v>
+        <v>223.5661527273864</v>
       </c>
       <c r="U32" t="n">
-        <v>214.7022651201945</v>
+        <v>223.5661527273864</v>
       </c>
       <c r="V32" t="n">
-        <v>214.7022651201945</v>
+        <v>223.5661527273864</v>
       </c>
       <c r="W32" t="n">
-        <v>214.7022651201945</v>
+        <v>153.8395142757774</v>
       </c>
       <c r="X32" t="n">
-        <v>214.7022651201945</v>
+        <v>153.8395142757774</v>
       </c>
       <c r="Y32" t="n">
-        <v>144.9756266685854</v>
+        <v>153.8395142757774</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>136.6642113651536</v>
+        <v>87.76096907875609</v>
       </c>
       <c r="C33" t="n">
-        <v>136.6642113651536</v>
+        <v>87.76096907875609</v>
       </c>
       <c r="D33" t="n">
-        <v>136.6642113651536</v>
+        <v>87.76096907875609</v>
       </c>
       <c r="E33" t="n">
-        <v>136.6642113651536</v>
+        <v>18.03433062714709</v>
       </c>
       <c r="F33" t="n">
-        <v>136.6642113651536</v>
+        <v>18.03433062714709</v>
       </c>
       <c r="G33" t="n">
-        <v>136.5651224310529</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="H33" t="n">
-        <v>66.83848397944391</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="I33" t="n">
         <v>5.522349765367433</v>
       </c>
       <c r="J33" t="n">
-        <v>17.41613371387393</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="K33" t="n">
-        <v>17.41613371387393</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="L33" t="n">
-        <v>59.390589567631</v>
+        <v>47.4968056191245</v>
       </c>
       <c r="M33" t="n">
-        <v>127.729667914053</v>
+        <v>115.8358839655465</v>
       </c>
       <c r="N33" t="n">
-        <v>196.0687462604749</v>
+        <v>184.1749623119684</v>
       </c>
       <c r="O33" t="n">
-        <v>251.2015882321627</v>
+        <v>239.3078042836563</v>
       </c>
       <c r="P33" t="n">
-        <v>276.1174882683716</v>
+        <v>264.2237043198651</v>
       </c>
       <c r="Q33" t="n">
         <v>276.1174882683716</v>
       </c>
       <c r="R33" t="n">
-        <v>276.1174882683716</v>
+        <v>227.2142459819741</v>
       </c>
       <c r="S33" t="n">
-        <v>276.1174882683716</v>
+        <v>157.4876075303651</v>
       </c>
       <c r="T33" t="n">
-        <v>206.3908498167626</v>
+        <v>157.4876075303651</v>
       </c>
       <c r="U33" t="n">
-        <v>206.3908498167626</v>
+        <v>157.4876075303651</v>
       </c>
       <c r="V33" t="n">
-        <v>206.3908498167626</v>
+        <v>157.4876075303651</v>
       </c>
       <c r="W33" t="n">
-        <v>206.3908498167626</v>
+        <v>157.4876075303651</v>
       </c>
       <c r="X33" t="n">
-        <v>136.6642113651536</v>
+        <v>157.4876075303651</v>
       </c>
       <c r="Y33" t="n">
-        <v>136.6642113651536</v>
+        <v>157.4876075303651</v>
       </c>
     </row>
     <row r="34">
@@ -6885,22 +6885,22 @@
         <v>214.7022651201945</v>
       </c>
       <c r="S34" t="n">
-        <v>214.7022651201945</v>
+        <v>144.9756266685854</v>
       </c>
       <c r="T34" t="n">
-        <v>214.7022651201945</v>
+        <v>75.24898821697644</v>
       </c>
       <c r="U34" t="n">
-        <v>144.9756266685854</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="V34" t="n">
-        <v>144.9756266685854</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="W34" t="n">
-        <v>75.24898821697644</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="X34" t="n">
-        <v>75.24898821697644</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="Y34" t="n">
         <v>5.522349765367433</v>
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>3.881232023569891</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="C35" t="n">
-        <v>3.881232023569891</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="D35" t="n">
-        <v>3.881232023569891</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="E35" t="n">
-        <v>3.881232023569891</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="F35" t="n">
-        <v>3.881232023569891</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="G35" t="n">
-        <v>3.881232023569891</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="H35" t="n">
-        <v>3.881232023569891</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="I35" t="n">
-        <v>3.881232023569891</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="J35" t="n">
-        <v>3.881232023569891</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="K35" t="n">
-        <v>3.881232023569891</v>
+        <v>13.32171479007741</v>
       </c>
       <c r="L35" t="n">
-        <v>13.8171863711063</v>
+        <v>23.25766913761382</v>
       </c>
       <c r="M35" t="n">
-        <v>56.54228748028625</v>
+        <v>65.98277024679376</v>
       </c>
       <c r="N35" t="n">
-        <v>104.5725337719637</v>
+        <v>114.0130165384712</v>
       </c>
       <c r="O35" t="n">
         <v>146.0313548868172</v>
       </c>
       <c r="P35" t="n">
-        <v>194.0616011784946</v>
+        <v>146.0313548868172</v>
       </c>
       <c r="Q35" t="n">
         <v>194.0616011784946</v>
       </c>
       <c r="R35" t="n">
-        <v>145.0561463354404</v>
+        <v>150.8975965527325</v>
       </c>
       <c r="S35" t="n">
-        <v>96.05069149238618</v>
+        <v>150.8975965527325</v>
       </c>
       <c r="T35" t="n">
-        <v>47.045236649332</v>
+        <v>101.8921417096783</v>
       </c>
       <c r="U35" t="n">
-        <v>47.045236649332</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="V35" t="n">
-        <v>47.045236649332</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="W35" t="n">
-        <v>47.045236649332</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="X35" t="n">
-        <v>3.881232023569891</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="Y35" t="n">
-        <v>3.881232023569891</v>
+        <v>52.88668686662408</v>
       </c>
     </row>
     <row r="36">
@@ -6992,40 +6992,40 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3.881232023569891</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="C36" t="n">
-        <v>3.881232023569891</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="D36" t="n">
-        <v>3.881232023569891</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="E36" t="n">
-        <v>3.881232023569891</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="F36" t="n">
-        <v>3.881232023569891</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="G36" t="n">
-        <v>3.881232023569891</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="H36" t="n">
-        <v>3.881232023569891</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="I36" t="n">
-        <v>3.881232023569891</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="J36" t="n">
-        <v>3.881232023569891</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="K36" t="n">
-        <v>3.881232023569891</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="L36" t="n">
         <v>45.85568787732696</v>
       </c>
       <c r="M36" t="n">
-        <v>93.88593416900437</v>
+        <v>73.0852085589309</v>
       </c>
       <c r="N36" t="n">
         <v>121.1154548506083</v>
@@ -7040,28 +7040,28 @@
         <v>194.0616011784946</v>
       </c>
       <c r="R36" t="n">
-        <v>145.158358892097</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="S36" t="n">
-        <v>96.15290404904285</v>
+        <v>145.0561463354404</v>
       </c>
       <c r="T36" t="n">
-        <v>52.88668686662407</v>
+        <v>145.0561463354404</v>
       </c>
       <c r="U36" t="n">
-        <v>52.88668686662407</v>
+        <v>145.0561463354404</v>
       </c>
       <c r="V36" t="n">
-        <v>52.88668686662407</v>
+        <v>96.05069149238619</v>
       </c>
       <c r="W36" t="n">
-        <v>52.88668686662407</v>
+        <v>47.045236649332</v>
       </c>
       <c r="X36" t="n">
-        <v>52.88668686662407</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="Y36" t="n">
-        <v>52.88668686662407</v>
+        <v>3.881232023569892</v>
       </c>
     </row>
     <row r="37">
@@ -7071,43 +7071,43 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.88668686662407</v>
+        <v>96.05069149238619</v>
       </c>
       <c r="C37" t="n">
-        <v>3.881232023569891</v>
+        <v>96.05069149238619</v>
       </c>
       <c r="D37" t="n">
-        <v>3.881232023569891</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="E37" t="n">
-        <v>3.881232023569891</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="F37" t="n">
-        <v>3.881232023569891</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="G37" t="n">
-        <v>3.881232023569891</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="H37" t="n">
-        <v>3.881232023569891</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="I37" t="n">
-        <v>3.881232023569891</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="J37" t="n">
-        <v>3.881232023569891</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="K37" t="n">
-        <v>51.91147831524729</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="L37" t="n">
-        <v>98.00110859513975</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="M37" t="n">
-        <v>98.00110859513975</v>
+        <v>49.97086230346238</v>
       </c>
       <c r="N37" t="n">
-        <v>98.00110859513975</v>
+        <v>98.00110859513978</v>
       </c>
       <c r="O37" t="n">
         <v>146.0313548868172</v>
@@ -7119,28 +7119,28 @@
         <v>194.0616011784946</v>
       </c>
       <c r="R37" t="n">
-        <v>145.0561463354404</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="S37" t="n">
-        <v>145.0561463354404</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="T37" t="n">
         <v>145.0561463354404</v>
       </c>
       <c r="U37" t="n">
-        <v>101.8921417096783</v>
+        <v>145.0561463354404</v>
       </c>
       <c r="V37" t="n">
-        <v>101.8921417096783</v>
+        <v>145.0561463354404</v>
       </c>
       <c r="W37" t="n">
-        <v>101.8921417096783</v>
+        <v>96.05069149238619</v>
       </c>
       <c r="X37" t="n">
-        <v>101.8921417096783</v>
+        <v>96.05069149238619</v>
       </c>
       <c r="Y37" t="n">
-        <v>52.88668686662407</v>
+        <v>96.05069149238619</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>3.881232023569893</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="C38" t="n">
-        <v>3.881232023569893</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="D38" t="n">
-        <v>3.881232023569893</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="E38" t="n">
-        <v>3.881232023569893</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="F38" t="n">
-        <v>3.881232023569893</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="G38" t="n">
-        <v>3.881232023569893</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="H38" t="n">
-        <v>3.881232023569893</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="I38" t="n">
-        <v>3.881232023569893</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="J38" t="n">
-        <v>3.881232023569893</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="K38" t="n">
-        <v>23.25766913761387</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="L38" t="n">
-        <v>71.2879154292913</v>
+        <v>13.8171863711063</v>
       </c>
       <c r="M38" t="n">
-        <v>114.0130165384712</v>
+        <v>61.84743266278371</v>
       </c>
       <c r="N38" t="n">
-        <v>162.0432628301486</v>
+        <v>109.8776789544611</v>
       </c>
       <c r="O38" t="n">
-        <v>194.0616011784947</v>
+        <v>157.9079252461385</v>
       </c>
       <c r="P38" t="n">
-        <v>194.0616011784947</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="Q38" t="n">
-        <v>194.0616011784947</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="R38" t="n">
-        <v>145.0561463354405</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="S38" t="n">
-        <v>96.05069149238626</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="T38" t="n">
-        <v>47.04523664933205</v>
+        <v>145.0561463354404</v>
       </c>
       <c r="U38" t="n">
-        <v>47.04523664933205</v>
+        <v>96.05069149238619</v>
       </c>
       <c r="V38" t="n">
-        <v>3.881232023569893</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="W38" t="n">
-        <v>3.881232023569893</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="X38" t="n">
-        <v>3.881232023569893</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="Y38" t="n">
-        <v>3.881232023569893</v>
+        <v>52.88668686662408</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>47.14744920598872</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="C39" t="n">
-        <v>47.14744920598872</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="D39" t="n">
-        <v>47.14744920598872</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="E39" t="n">
-        <v>47.14744920598872</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="F39" t="n">
-        <v>47.14744920598872</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="G39" t="n">
-        <v>3.881232023569893</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="H39" t="n">
-        <v>3.881232023569893</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="I39" t="n">
-        <v>3.881232023569893</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="J39" t="n">
-        <v>3.881232023569893</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="K39" t="n">
-        <v>3.881232023569893</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="L39" t="n">
         <v>45.85568787732696</v>
       </c>
       <c r="M39" t="n">
-        <v>93.8859341690044</v>
+        <v>93.88593416900437</v>
       </c>
       <c r="N39" t="n">
-        <v>121.1154548506084</v>
+        <v>141.9161804606818</v>
       </c>
       <c r="O39" t="n">
-        <v>169.1457011422858</v>
+        <v>169.1457011422857</v>
       </c>
       <c r="P39" t="n">
-        <v>194.0616011784947</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="Q39" t="n">
-        <v>194.0616011784947</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="R39" t="n">
-        <v>145.1583588920971</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="S39" t="n">
-        <v>145.1583588920971</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="T39" t="n">
-        <v>145.1583588920971</v>
+        <v>150.8975965527325</v>
       </c>
       <c r="U39" t="n">
-        <v>96.15290404904293</v>
+        <v>101.8921417096783</v>
       </c>
       <c r="V39" t="n">
-        <v>96.15290404904293</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="W39" t="n">
-        <v>47.14744920598872</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="X39" t="n">
-        <v>47.14744920598872</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="Y39" t="n">
-        <v>47.14744920598872</v>
+        <v>3.881232023569892</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.8866868666241</v>
+        <v>101.8921417096783</v>
       </c>
       <c r="C40" t="n">
-        <v>52.8866868666241</v>
+        <v>101.8921417096783</v>
       </c>
       <c r="D40" t="n">
-        <v>52.8866868666241</v>
+        <v>101.8921417096783</v>
       </c>
       <c r="E40" t="n">
-        <v>3.881232023569893</v>
+        <v>101.8921417096783</v>
       </c>
       <c r="F40" t="n">
-        <v>3.881232023569893</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="G40" t="n">
-        <v>3.881232023569893</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="H40" t="n">
-        <v>3.881232023569893</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="I40" t="n">
-        <v>3.881232023569893</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="J40" t="n">
-        <v>3.881232023569893</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="K40" t="n">
-        <v>51.91147831524732</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="L40" t="n">
-        <v>99.94172460692475</v>
+        <v>49.97086230346238</v>
       </c>
       <c r="M40" t="n">
-        <v>146.0313548868172</v>
+        <v>98.00110859513978</v>
       </c>
       <c r="N40" t="n">
         <v>146.0313548868172</v>
       </c>
       <c r="O40" t="n">
-        <v>146.0313548868172</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="P40" t="n">
-        <v>194.0616011784947</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="Q40" t="n">
-        <v>194.0616011784947</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="R40" t="n">
-        <v>194.0616011784947</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="S40" t="n">
-        <v>194.0616011784947</v>
+        <v>150.8975965527325</v>
       </c>
       <c r="T40" t="n">
-        <v>194.0616011784947</v>
+        <v>101.8921417096783</v>
       </c>
       <c r="U40" t="n">
-        <v>145.0561463354405</v>
+        <v>101.8921417096783</v>
       </c>
       <c r="V40" t="n">
-        <v>145.0561463354405</v>
+        <v>101.8921417096783</v>
       </c>
       <c r="W40" t="n">
-        <v>96.05069149238626</v>
+        <v>101.8921417096783</v>
       </c>
       <c r="X40" t="n">
-        <v>52.8866868666241</v>
+        <v>101.8921417096783</v>
       </c>
       <c r="Y40" t="n">
-        <v>52.8866868666241</v>
+        <v>101.8921417096783</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>47.04523664933205</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="C41" t="n">
-        <v>47.04523664933205</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="D41" t="n">
-        <v>3.881232023569893</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="E41" t="n">
-        <v>3.881232023569893</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="F41" t="n">
-        <v>3.881232023569893</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="G41" t="n">
-        <v>3.881232023569893</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="H41" t="n">
-        <v>3.881232023569893</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="I41" t="n">
-        <v>3.881232023569893</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="J41" t="n">
-        <v>3.881232023569893</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="K41" t="n">
-        <v>45.34005313842346</v>
+        <v>13.32171479007741</v>
       </c>
       <c r="L41" t="n">
-        <v>55.27600748595987</v>
+        <v>23.25766913761382</v>
       </c>
       <c r="M41" t="n">
-        <v>98.00110859513981</v>
+        <v>65.98277024679376</v>
       </c>
       <c r="N41" t="n">
+        <v>114.0130165384712</v>
+      </c>
+      <c r="O41" t="n">
         <v>146.0313548868172</v>
       </c>
-      <c r="O41" t="n">
-        <v>194.0616011784947</v>
-      </c>
       <c r="P41" t="n">
-        <v>194.0616011784947</v>
+        <v>146.0313548868172</v>
       </c>
       <c r="Q41" t="n">
-        <v>194.0616011784947</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="R41" t="n">
-        <v>145.0561463354405</v>
+        <v>150.8975965527325</v>
       </c>
       <c r="S41" t="n">
-        <v>145.0561463354405</v>
+        <v>150.8975965527325</v>
       </c>
       <c r="T41" t="n">
-        <v>145.0561463354405</v>
+        <v>150.8975965527325</v>
       </c>
       <c r="U41" t="n">
-        <v>145.0561463354405</v>
+        <v>101.8921417096783</v>
       </c>
       <c r="V41" t="n">
-        <v>145.0561463354405</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="W41" t="n">
-        <v>145.0561463354405</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="X41" t="n">
-        <v>96.05069149238626</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="Y41" t="n">
-        <v>47.04523664933205</v>
+        <v>52.88668686662408</v>
       </c>
     </row>
     <row r="42">
@@ -7466,52 +7466,52 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>96.15290404904293</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="C42" t="n">
-        <v>96.15290404904293</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="D42" t="n">
-        <v>96.15290404904293</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="E42" t="n">
-        <v>96.15290404904293</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="F42" t="n">
-        <v>47.14744920598872</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="G42" t="n">
-        <v>47.14744920598872</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="H42" t="n">
-        <v>3.881232023569893</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="I42" t="n">
-        <v>3.881232023569893</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="J42" t="n">
-        <v>3.881232023569893</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="K42" t="n">
-        <v>3.881232023569893</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="L42" t="n">
         <v>45.85568787732696</v>
       </c>
       <c r="M42" t="n">
-        <v>93.8859341690044</v>
+        <v>93.88593416900437</v>
       </c>
       <c r="N42" t="n">
-        <v>141.9161804606818</v>
+        <v>121.1154548506083</v>
       </c>
       <c r="O42" t="n">
-        <v>189.9464267523593</v>
+        <v>169.1457011422857</v>
       </c>
       <c r="P42" t="n">
-        <v>194.0616011784947</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="Q42" t="n">
-        <v>194.0616011784947</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="R42" t="n">
         <v>145.1583588920971</v>
@@ -7523,19 +7523,19 @@
         <v>145.1583588920971</v>
       </c>
       <c r="U42" t="n">
-        <v>145.1583588920971</v>
+        <v>101.8921417096783</v>
       </c>
       <c r="V42" t="n">
-        <v>145.1583588920971</v>
+        <v>101.8921417096783</v>
       </c>
       <c r="W42" t="n">
-        <v>145.1583588920971</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="X42" t="n">
-        <v>145.1583588920971</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="Y42" t="n">
-        <v>145.1583588920971</v>
+        <v>52.88668686662408</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>96.05069149238626</v>
+        <v>96.05069149238619</v>
       </c>
       <c r="C43" t="n">
-        <v>96.05069149238626</v>
+        <v>96.05069149238619</v>
       </c>
       <c r="D43" t="n">
-        <v>96.05069149238626</v>
+        <v>96.05069149238619</v>
       </c>
       <c r="E43" t="n">
-        <v>96.05069149238626</v>
+        <v>96.05069149238619</v>
       </c>
       <c r="F43" t="n">
-        <v>52.8866868666241</v>
+        <v>47.045236649332</v>
       </c>
       <c r="G43" t="n">
-        <v>3.881232023569893</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="H43" t="n">
-        <v>3.881232023569893</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="I43" t="n">
-        <v>3.881232023569893</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="J43" t="n">
-        <v>3.881232023569893</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="K43" t="n">
-        <v>51.91147831524732</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="L43" t="n">
-        <v>99.94172460692475</v>
+        <v>51.9114783152473</v>
       </c>
       <c r="M43" t="n">
-        <v>147.9719708986022</v>
+        <v>99.94172460692471</v>
       </c>
       <c r="N43" t="n">
-        <v>147.9719708986022</v>
+        <v>147.9719708986021</v>
       </c>
       <c r="O43" t="n">
-        <v>147.9719708986022</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="P43" t="n">
-        <v>194.0616011784947</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="Q43" t="n">
-        <v>194.0616011784947</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="R43" t="n">
-        <v>194.0616011784947</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="S43" t="n">
-        <v>194.0616011784947</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="T43" t="n">
-        <v>194.0616011784947</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="U43" t="n">
-        <v>145.0561463354405</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="V43" t="n">
-        <v>96.05069149238626</v>
+        <v>145.0561463354404</v>
       </c>
       <c r="W43" t="n">
-        <v>96.05069149238626</v>
+        <v>145.0561463354404</v>
       </c>
       <c r="X43" t="n">
-        <v>96.05069149238626</v>
+        <v>96.05069149238619</v>
       </c>
       <c r="Y43" t="n">
-        <v>96.05069149238626</v>
+        <v>96.05069149238619</v>
       </c>
     </row>
     <row r="44">
@@ -7624,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>3.881232023569892</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="C44" t="n">
-        <v>3.881232023569892</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="D44" t="n">
         <v>3.881232023569892</v>
@@ -7654,46 +7654,46 @@
         <v>3.881232023569892</v>
       </c>
       <c r="L44" t="n">
-        <v>13.8171863711063</v>
+        <v>23.25766913761382</v>
       </c>
       <c r="M44" t="n">
-        <v>61.84743266278371</v>
+        <v>65.98277024679376</v>
       </c>
       <c r="N44" t="n">
-        <v>109.8776789544611</v>
+        <v>114.0130165384712</v>
       </c>
       <c r="O44" t="n">
         <v>146.0313548868172</v>
       </c>
       <c r="P44" t="n">
-        <v>146.0313548868172</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="Q44" t="n">
         <v>194.0616011784946</v>
       </c>
       <c r="R44" t="n">
-        <v>194.0616011784946</v>
+        <v>150.8975965527325</v>
       </c>
       <c r="S44" t="n">
-        <v>194.0616011784946</v>
+        <v>150.8975965527325</v>
       </c>
       <c r="T44" t="n">
-        <v>194.0616011784946</v>
+        <v>150.8975965527325</v>
       </c>
       <c r="U44" t="n">
-        <v>194.0616011784946</v>
+        <v>101.8921417096783</v>
       </c>
       <c r="V44" t="n">
-        <v>145.0561463354404</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="W44" t="n">
-        <v>96.05069149238619</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="X44" t="n">
-        <v>47.045236649332</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="Y44" t="n">
-        <v>3.881232023569892</v>
+        <v>52.88668686662408</v>
       </c>
     </row>
     <row r="45">
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>101.8921417096783</v>
+        <v>47.14744920598867</v>
       </c>
       <c r="C45" t="n">
-        <v>101.8921417096783</v>
+        <v>47.14744920598867</v>
       </c>
       <c r="D45" t="n">
-        <v>101.8921417096783</v>
+        <v>47.14744920598867</v>
       </c>
       <c r="E45" t="n">
-        <v>52.88668686662408</v>
+        <v>47.14744920598867</v>
       </c>
       <c r="F45" t="n">
-        <v>52.88668686662408</v>
+        <v>47.14744920598867</v>
       </c>
       <c r="G45" t="n">
-        <v>3.881232023569892</v>
+        <v>47.14744920598867</v>
       </c>
       <c r="H45" t="n">
-        <v>3.881232023569892</v>
+        <v>47.14744920598867</v>
       </c>
       <c r="I45" t="n">
         <v>3.881232023569892</v>
@@ -7733,10 +7733,10 @@
         <v>3.881232023569892</v>
       </c>
       <c r="L45" t="n">
-        <v>25.05496226725349</v>
+        <v>45.85568787732696</v>
       </c>
       <c r="M45" t="n">
-        <v>73.0852085589309</v>
+        <v>93.88593416900437</v>
       </c>
       <c r="N45" t="n">
         <v>121.1154548506083</v>
@@ -7751,28 +7751,28 @@
         <v>194.0616011784946</v>
       </c>
       <c r="R45" t="n">
-        <v>194.0616011784946</v>
+        <v>145.1583588920971</v>
       </c>
       <c r="S45" t="n">
-        <v>194.0616011784946</v>
+        <v>96.15290404904286</v>
       </c>
       <c r="T45" t="n">
-        <v>194.0616011784946</v>
+        <v>47.14744920598867</v>
       </c>
       <c r="U45" t="n">
-        <v>150.8975965527325</v>
+        <v>47.14744920598867</v>
       </c>
       <c r="V45" t="n">
-        <v>101.8921417096783</v>
+        <v>47.14744920598867</v>
       </c>
       <c r="W45" t="n">
-        <v>101.8921417096783</v>
+        <v>47.14744920598867</v>
       </c>
       <c r="X45" t="n">
-        <v>101.8921417096783</v>
+        <v>47.14744920598867</v>
       </c>
       <c r="Y45" t="n">
-        <v>101.8921417096783</v>
+        <v>47.14744920598867</v>
       </c>
     </row>
     <row r="46">
@@ -7782,13 +7782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>96.05069149238619</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="C46" t="n">
-        <v>96.05069149238619</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="D46" t="n">
-        <v>47.045236649332</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="E46" t="n">
         <v>3.881232023569892</v>
@@ -7809,19 +7809,19 @@
         <v>3.881232023569892</v>
       </c>
       <c r="K46" t="n">
+        <v>3.881232023569892</v>
+      </c>
+      <c r="L46" t="n">
+        <v>3.881232023569892</v>
+      </c>
+      <c r="M46" t="n">
         <v>51.9114783152473</v>
       </c>
-      <c r="L46" t="n">
-        <v>99.94172460692471</v>
-      </c>
-      <c r="M46" t="n">
-        <v>147.9719708986021</v>
-      </c>
       <c r="N46" t="n">
-        <v>194.0616011784946</v>
+        <v>98.00110859513978</v>
       </c>
       <c r="O46" t="n">
-        <v>194.0616011784946</v>
+        <v>146.0313548868172</v>
       </c>
       <c r="P46" t="n">
         <v>194.0616011784946</v>
@@ -7836,22 +7836,22 @@
         <v>145.0561463354404</v>
       </c>
       <c r="T46" t="n">
-        <v>145.0561463354404</v>
+        <v>101.8921417096783</v>
       </c>
       <c r="U46" t="n">
-        <v>145.0561463354404</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="V46" t="n">
-        <v>145.0561463354404</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="W46" t="n">
-        <v>145.0561463354404</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="X46" t="n">
-        <v>145.0561463354404</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="Y46" t="n">
-        <v>145.0561463354404</v>
+        <v>3.881232023569892</v>
       </c>
     </row>
   </sheetData>
@@ -8698,7 +8698,7 @@
         <v>38.47908277185959</v>
       </c>
       <c r="M11" t="n">
-        <v>5.358732507573187</v>
+        <v>5.358732507573194</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8850,19 +8850,19 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K13" t="n">
-        <v>96.35349442422532</v>
+        <v>47.83809412960169</v>
       </c>
       <c r="L13" t="n">
-        <v>77.5635960405568</v>
+        <v>31.00841393965533</v>
       </c>
       <c r="M13" t="n">
-        <v>77.91823012972323</v>
+        <v>75.95801193600107</v>
       </c>
       <c r="N13" t="n">
-        <v>20.76680140568403</v>
+        <v>69.28220170030768</v>
       </c>
       <c r="O13" t="n">
-        <v>39.69977393631557</v>
+        <v>88.21517423093921</v>
       </c>
       <c r="P13" t="n">
         <v>101.7399315424738</v>
@@ -8932,10 +8932,10 @@
         <v>21.95586290547635</v>
       </c>
       <c r="L14" t="n">
-        <v>38.47908277185962</v>
+        <v>36.51886457813745</v>
       </c>
       <c r="M14" t="n">
-        <v>3.398514313851052</v>
+        <v>5.358732507573166</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -9087,22 +9087,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K16" t="n">
-        <v>47.83809412960169</v>
+        <v>94.39327623050318</v>
       </c>
       <c r="L16" t="n">
-        <v>77.56359604055683</v>
+        <v>79.52381423427897</v>
       </c>
       <c r="M16" t="n">
-        <v>77.91823012972326</v>
+        <v>77.91823012972323</v>
       </c>
       <c r="N16" t="n">
-        <v>20.76680140568403</v>
+        <v>69.28220170030768</v>
       </c>
       <c r="O16" t="n">
-        <v>88.21517423093924</v>
+        <v>39.69977393631557</v>
       </c>
       <c r="P16" t="n">
-        <v>101.7399315424738</v>
+        <v>53.22453124785014</v>
       </c>
       <c r="Q16" t="n">
         <v>65.34295837775146</v>
@@ -9169,16 +9169,16 @@
         <v>21.95586290547635</v>
       </c>
       <c r="L17" t="n">
-        <v>38.47908277185962</v>
+        <v>38.47908277185959</v>
       </c>
       <c r="M17" t="n">
-        <v>5.358732507573215</v>
+        <v>3.398514313851045</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>14.21342619348128</v>
+        <v>16.17364438720347</v>
       </c>
       <c r="P17" t="n">
         <v>7.246555403111074</v>
@@ -9324,19 +9324,19 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
-        <v>96.35349442422535</v>
+        <v>96.35349442422533</v>
       </c>
       <c r="L19" t="n">
         <v>31.00841393965533</v>
       </c>
       <c r="M19" t="n">
-        <v>77.91823012972324</v>
+        <v>77.91823012972323</v>
       </c>
       <c r="N19" t="n">
         <v>20.76680140568403</v>
       </c>
       <c r="O19" t="n">
-        <v>86.25495603721707</v>
+        <v>86.25495603721706</v>
       </c>
       <c r="P19" t="n">
         <v>101.7399315424738</v>
@@ -9415,13 +9415,13 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>16.17364438720344</v>
       </c>
       <c r="P20" t="n">
-        <v>16.78239658140145</v>
+        <v>49.1241524888217</v>
       </c>
       <c r="Q20" t="n">
-        <v>102.6166016087918</v>
+        <v>54.10120131416818</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9561,22 +9561,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
-        <v>96.35349442422532</v>
+        <v>47.83809412960169</v>
       </c>
       <c r="L22" t="n">
-        <v>79.52381423427896</v>
+        <v>79.52381423427897</v>
       </c>
       <c r="M22" t="n">
-        <v>29.40282983509958</v>
+        <v>77.91823012972323</v>
       </c>
       <c r="N22" t="n">
-        <v>20.76680140568403</v>
+        <v>67.32198350658552</v>
       </c>
       <c r="O22" t="n">
-        <v>86.25495603721703</v>
+        <v>88.21517423093921</v>
       </c>
       <c r="P22" t="n">
-        <v>101.7399315424738</v>
+        <v>53.22453124785014</v>
       </c>
       <c r="Q22" t="n">
         <v>65.34295837775146</v>
@@ -9646,19 +9646,19 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>13.04732121921409</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>20.51397177246923</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>36.6876161596727</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>7.246555403111074</v>
+        <v>76.27592747020398</v>
       </c>
       <c r="Q23" t="n">
-        <v>54.10120131416818</v>
+        <v>55.32073839843129</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9810,10 +9810,10 @@
         <v>89.79617347277694</v>
       </c>
       <c r="O25" t="n">
-        <v>105.9400804653441</v>
+        <v>39.69977393631557</v>
       </c>
       <c r="P25" t="n">
-        <v>53.22453124785014</v>
+        <v>119.4648377768787</v>
       </c>
       <c r="Q25" t="n">
         <v>65.34295837775146</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>117.8749713680665</v>
+        <v>93.22180417228722</v>
       </c>
       <c r="K26" t="n">
         <v>21.95586290547635</v>
@@ -9886,16 +9886,16 @@
         <v>25.87270428004246</v>
       </c>
       <c r="N26" t="n">
-        <v>7.688588711640882</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>36.6876161596727</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>7.246555403111074</v>
       </c>
       <c r="Q26" t="n">
-        <v>54.10120131416818</v>
+        <v>123.1305733812611</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9959,7 +9959,7 @@
         <v>3.266346048945991</v>
       </c>
       <c r="L27" t="n">
-        <v>12.0139231803096</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9968,7 +9968,7 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>12.01392318030958</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -10035,10 +10035,10 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>106.7437663446525</v>
+        <v>47.83809412960169</v>
       </c>
       <c r="L28" t="n">
-        <v>31.00841393965533</v>
+        <v>100.0377860067482</v>
       </c>
       <c r="M28" t="n">
         <v>98.43220190219249</v>
@@ -10047,10 +10047,10 @@
         <v>89.79617347277694</v>
       </c>
       <c r="O28" t="n">
-        <v>108.7291460034085</v>
+        <v>105.9400804653441</v>
       </c>
       <c r="P28" t="n">
-        <v>60.55916556182791</v>
+        <v>53.22453124785014</v>
       </c>
       <c r="Q28" t="n">
         <v>65.34295837775146</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>48.84559930097362</v>
+        <v>117.8749713680665</v>
       </c>
       <c r="K29" t="n">
         <v>21.95586290547635</v>
@@ -10120,19 +10120,19 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>25.87270428004246</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>20.51397177246926</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>36.6876161596727</v>
+        <v>1.219537084263123</v>
       </c>
       <c r="P29" t="n">
         <v>7.246555403111074</v>
       </c>
       <c r="Q29" t="n">
-        <v>110.3051903204327</v>
+        <v>123.1305733812611</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10193,7 +10193,7 @@
         <v>48.10003053698959</v>
       </c>
       <c r="K30" t="n">
-        <v>15.28026922925558</v>
+        <v>3.266346048945991</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10211,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>33.59957280668804</v>
+        <v>45.61349598699763</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10275,7 +10275,7 @@
         <v>47.83809412960169</v>
       </c>
       <c r="L31" t="n">
-        <v>97.24872046868393</v>
+        <v>100.0377860067482</v>
       </c>
       <c r="M31" t="n">
         <v>98.43220190219249</v>
@@ -10284,7 +10284,7 @@
         <v>89.79617347277694</v>
       </c>
       <c r="O31" t="n">
-        <v>108.7291460034085</v>
+        <v>105.9400804653441</v>
       </c>
       <c r="P31" t="n">
         <v>53.22453124785014</v>
@@ -10348,10 +10348,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>48.84559930097362</v>
+        <v>117.8749713680665</v>
       </c>
       <c r="K32" t="n">
-        <v>90.98523497256926</v>
+        <v>21.95586290547635</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10360,16 +10360,16 @@
         <v>25.87270428004246</v>
       </c>
       <c r="N32" t="n">
-        <v>7.688588711640882</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>36.6876161596727</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>7.246555403111074</v>
       </c>
       <c r="Q32" t="n">
-        <v>54.10120131416818</v>
+        <v>98.47740618548173</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>60.11395371729918</v>
+        <v>48.10003053698959</v>
       </c>
       <c r="K33" t="n">
         <v>3.266346048945991</v>
@@ -10448,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>33.59957280668804</v>
+        <v>45.61349598699763</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10588,7 +10588,7 @@
         <v>48.84559930097362</v>
       </c>
       <c r="K35" t="n">
-        <v>21.95586290547635</v>
+        <v>31.49170408376677</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10600,13 +10600,13 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>9.53584117829039</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>55.76195569773472</v>
+        <v>7.246555403111074</v>
       </c>
       <c r="Q35" t="n">
-        <v>54.10120131416818</v>
+        <v>102.6166016087919</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10746,16 +10746,16 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K37" t="n">
-        <v>96.35349442422532</v>
+        <v>47.83809412960169</v>
       </c>
       <c r="L37" t="n">
-        <v>77.5635960405568</v>
+        <v>31.00841393965533</v>
       </c>
       <c r="M37" t="n">
-        <v>29.40282983509958</v>
+        <v>75.95801193600107</v>
       </c>
       <c r="N37" t="n">
-        <v>20.76680140568403</v>
+        <v>69.28220170030768</v>
       </c>
       <c r="O37" t="n">
         <v>88.21517423093921</v>
@@ -10825,22 +10825,22 @@
         <v>48.84559930097362</v>
       </c>
       <c r="K38" t="n">
-        <v>41.52802160653088</v>
+        <v>21.95586290547635</v>
       </c>
       <c r="L38" t="n">
-        <v>38.47908277185959</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>5.358732507573194</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>16.17364438720344</v>
       </c>
       <c r="P38" t="n">
-        <v>7.246555403111074</v>
+        <v>43.76541998124851</v>
       </c>
       <c r="Q38" t="n">
         <v>54.10120131416818</v>
@@ -10983,22 +10983,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
-        <v>96.35349442422535</v>
+        <v>47.83809412960169</v>
       </c>
       <c r="L40" t="n">
-        <v>79.523814234279</v>
+        <v>77.56359604055683</v>
       </c>
       <c r="M40" t="n">
-        <v>75.95801193600109</v>
+        <v>77.91823012972323</v>
       </c>
       <c r="N40" t="n">
-        <v>20.76680140568403</v>
+        <v>69.28220170030768</v>
       </c>
       <c r="O40" t="n">
-        <v>39.69977393631557</v>
+        <v>88.21517423093921</v>
       </c>
       <c r="P40" t="n">
-        <v>101.7399315424738</v>
+        <v>53.22453124785014</v>
       </c>
       <c r="Q40" t="n">
         <v>65.34295837775146</v>
@@ -11062,7 +11062,7 @@
         <v>48.84559930097362</v>
       </c>
       <c r="K41" t="n">
-        <v>63.83345999118702</v>
+        <v>31.49170408376677</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11074,13 +11074,13 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>16.17364438720347</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>7.246555403111074</v>
       </c>
       <c r="Q41" t="n">
-        <v>54.10120131416818</v>
+        <v>102.6166016087919</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11220,22 +11220,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>96.35349442422535</v>
+        <v>47.83809412960169</v>
       </c>
       <c r="L43" t="n">
-        <v>79.523814234279</v>
+        <v>79.52381423427897</v>
       </c>
       <c r="M43" t="n">
-        <v>77.91823012972324</v>
+        <v>77.91823012972323</v>
       </c>
       <c r="N43" t="n">
-        <v>20.76680140568403</v>
+        <v>69.28220170030768</v>
       </c>
       <c r="O43" t="n">
-        <v>39.69977393631557</v>
+        <v>86.25495603721706</v>
       </c>
       <c r="P43" t="n">
-        <v>99.77971334875163</v>
+        <v>53.22453124785014</v>
       </c>
       <c r="Q43" t="n">
         <v>65.34295837775146</v>
@@ -11302,22 +11302,22 @@
         <v>21.95586290547635</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>9.535841178290418</v>
       </c>
       <c r="M44" t="n">
-        <v>5.358732507573194</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>4.177108670717232</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>7.246555403111074</v>
+        <v>55.76195569773472</v>
       </c>
       <c r="Q44" t="n">
-        <v>102.6166016087919</v>
+        <v>54.10120131416818</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11457,10 +11457,10 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>96.35349442422533</v>
+        <v>47.83809412960169</v>
       </c>
       <c r="L46" t="n">
-        <v>79.52381423427897</v>
+        <v>31.00841393965533</v>
       </c>
       <c r="M46" t="n">
         <v>77.91823012972323</v>
@@ -11469,10 +11469,10 @@
         <v>67.32198350658552</v>
       </c>
       <c r="O46" t="n">
-        <v>39.69977393631557</v>
+        <v>88.21517423093921</v>
       </c>
       <c r="P46" t="n">
-        <v>53.22453124785014</v>
+        <v>101.7399315424738</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>334.2184413688569</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23266,16 +23266,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>339.1980054927573</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>358.3606454470878</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>365.229726001192</v>
+        <v>413.7451262958156</v>
       </c>
       <c r="H11" t="n">
-        <v>275.0075159212884</v>
+        <v>280.7905516364075</v>
       </c>
       <c r="I11" t="n">
         <v>150.4260830375935</v>
@@ -23305,10 +23305,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>52.02582218557539</v>
+        <v>3.510421890951747</v>
       </c>
       <c r="S11" t="n">
-        <v>173.5260039260038</v>
+        <v>125.0106036313801</v>
       </c>
       <c r="T11" t="n">
         <v>216.2774064515606</v>
@@ -23336,25 +23336,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>118.0177833552437</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>98.92966527001511</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>102.3368478138794</v>
+        <v>102.2356573827893</v>
       </c>
       <c r="G12" t="n">
-        <v>87.99472139402377</v>
+        <v>136.5101216886474</v>
       </c>
       <c r="H12" t="n">
-        <v>104.1865984690043</v>
+        <v>55.67119817438063</v>
       </c>
       <c r="I12" t="n">
         <v>60.7029728719357</v>
@@ -23384,10 +23384,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>48.41420986353356</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>107.6878153935333</v>
+        <v>156.2032156881569</v>
       </c>
       <c r="T12" t="n">
         <v>196.8055600934023</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>131.3165798873137</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>118.7314208040042</v>
       </c>
       <c r="D13" t="n">
         <v>100.1000727235887</v>
@@ -23460,13 +23460,13 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>27.65621884003237</v>
       </c>
       <c r="R13" t="n">
         <v>145.8777136505296</v>
       </c>
       <c r="S13" t="n">
-        <v>163.3249231362086</v>
+        <v>211.8403234308322</v>
       </c>
       <c r="T13" t="n">
         <v>224.9602743187949</v>
@@ -23478,10 +23478,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>238.0075980419674</v>
+        <v>243.7906337570865</v>
       </c>
       <c r="X13" t="n">
-        <v>210.633509649565</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23503,19 +23503,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>333.4149697776381</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>365.229726001192</v>
+        <v>413.7451262958156</v>
       </c>
       <c r="H14" t="n">
         <v>323.522916215912</v>
       </c>
       <c r="I14" t="n">
-        <v>150.4260830375935</v>
+        <v>107.693718458089</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>3.510421890951726</v>
+        <v>3.510421890951747</v>
       </c>
       <c r="S14" t="n">
         <v>125.0106036313801</v>
@@ -23551,7 +23551,7 @@
         <v>216.2774064515606</v>
       </c>
       <c r="U14" t="n">
-        <v>208.4886794307864</v>
+        <v>251.2210440102909</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23582,7 +23582,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>109.1296801607773</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
@@ -23630,16 +23630,16 @@
         <v>154.0731955138978</v>
       </c>
       <c r="U15" t="n">
-        <v>177.3711531367088</v>
+        <v>177.3711531367089</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>203.1795828662959</v>
+        <v>203.179582866296</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>157.2575849088538</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23652,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>131.3165798873136</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>124.5144565191233</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>97.9185623519455</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23706,22 +23706,22 @@
         <v>211.8403234308322</v>
       </c>
       <c r="T16" t="n">
-        <v>176.4448740241712</v>
+        <v>224.9602743187949</v>
       </c>
       <c r="U16" t="n">
-        <v>243.5485543713334</v>
+        <v>237.7655186562142</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>238.0075980419674</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>170.0692530574711</v>
       </c>
     </row>
     <row r="17">
@@ -23737,10 +23737,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>306.1676413260593</v>
       </c>
       <c r="E17" t="n">
-        <v>339.1980054927573</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -23779,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>52.02582218557539</v>
+        <v>3.510421890951747</v>
       </c>
       <c r="S17" t="n">
         <v>173.5260039260038</v>
@@ -23788,10 +23788,10 @@
         <v>216.2774064515606</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2210440102909</v>
+        <v>208.4886794307864</v>
       </c>
       <c r="V17" t="n">
-        <v>279.2368581755113</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>300.7255684227894</v>
@@ -23800,7 +23800,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>337.7225383614299</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23858,28 +23858,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>48.41420986353356</v>
       </c>
       <c r="S18" t="n">
-        <v>107.6878153935332</v>
+        <v>113.4708511086524</v>
       </c>
       <c r="T18" t="n">
-        <v>196.8055600934023</v>
+        <v>148.2901597987787</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8865534313325</v>
+        <v>177.3711531367089</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>203.179582866296</v>
       </c>
       <c r="X18" t="n">
-        <v>157.2575849088538</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>162.8491407667097</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -23898,16 +23898,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>97.9185623519455</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>124.5599240086488</v>
+        <v>167.2922885881534</v>
       </c>
       <c r="H19" t="n">
-        <v>107.4997760913735</v>
+        <v>156.0151763859972</v>
       </c>
       <c r="I19" t="n">
         <v>134.438937943893</v>
@@ -23937,13 +23937,13 @@
         <v>27.65621884003237</v>
       </c>
       <c r="R19" t="n">
-        <v>145.8777136505296</v>
+        <v>97.36231335590594</v>
       </c>
       <c r="S19" t="n">
-        <v>163.3249231362085</v>
+        <v>163.3249231362086</v>
       </c>
       <c r="T19" t="n">
-        <v>224.9602743187949</v>
+        <v>176.4448740241712</v>
       </c>
       <c r="U19" t="n">
         <v>286.2809189508379</v>
@@ -23958,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>175.8522887725903</v>
       </c>
     </row>
     <row r="20">
@@ -23974,7 +23974,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>306.1676413260593</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -23983,10 +23983,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>371.0127617163111</v>
+        <v>413.7451262958156</v>
       </c>
       <c r="H20" t="n">
-        <v>275.0075159212884</v>
+        <v>323.522916215912</v>
       </c>
       <c r="I20" t="n">
         <v>150.4260830375935</v>
@@ -24016,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>52.02582218557539</v>
+        <v>3.510421890951747</v>
       </c>
       <c r="S20" t="n">
         <v>173.5260039260038</v>
@@ -24028,13 +24028,13 @@
         <v>251.2210440102909</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>279.2368581755113</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>326.9987360989646</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24062,7 +24062,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>93.67656667805284</v>
+        <v>136.5101216886474</v>
       </c>
       <c r="H21" t="n">
         <v>104.1865984690043</v>
@@ -24095,19 +24095,19 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>48.41420986353356</v>
       </c>
       <c r="S21" t="n">
-        <v>107.6878153935333</v>
+        <v>113.4708511086524</v>
       </c>
       <c r="T21" t="n">
-        <v>196.8055600934023</v>
+        <v>148.2901597987787</v>
       </c>
       <c r="U21" t="n">
         <v>225.8865534313325</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>184.2851868548016</v>
       </c>
       <c r="W21" t="n">
         <v>203.179582866296</v>
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.2922885881534</v>
+        <v>118.7768882935297</v>
       </c>
       <c r="H22" t="n">
         <v>156.0151763859972</v>
@@ -24177,10 +24177,10 @@
         <v>145.8777136505296</v>
       </c>
       <c r="S22" t="n">
-        <v>163.3249231362086</v>
+        <v>211.8403234308322</v>
       </c>
       <c r="T22" t="n">
-        <v>176.4448740241713</v>
+        <v>182.2279097392904</v>
       </c>
       <c r="U22" t="n">
         <v>286.2809189508379</v>
@@ -24189,7 +24189,7 @@
         <v>203.6222430292044</v>
       </c>
       <c r="W22" t="n">
-        <v>243.7906337570865</v>
+        <v>238.0075980419674</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>313.7044695963876</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24214,13 +24214,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>312.9009980051688</v>
+        <v>373.1551213411418</v>
       </c>
       <c r="F23" t="n">
-        <v>337.8466736746185</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>413.7451262958156</v>
+        <v>344.7157542287227</v>
       </c>
       <c r="H23" t="n">
         <v>323.522916215912</v>
@@ -24256,16 +24256,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>173.5260039260038</v>
+        <v>104.4966318589109</v>
       </c>
       <c r="T23" t="n">
         <v>216.2774064515606</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2210440102909</v>
+        <v>182.191671943198</v>
       </c>
       <c r="V23" t="n">
-        <v>318.9770097390149</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24290,13 +24290,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>78.41569349754585</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>96.84400953870554</v>
+        <v>88.61570838830804</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>76.03984032629097</v>
       </c>
       <c r="G24" t="n">
         <v>136.5101216886474</v>
@@ -24305,7 +24305,7 @@
         <v>104.1865984690043</v>
       </c>
       <c r="I24" t="n">
-        <v>60.7029728719357</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24332,16 +24332,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>48.41420986353356</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>87.17384362106401</v>
+        <v>156.2032156881569</v>
       </c>
       <c r="T24" t="n">
-        <v>127.7761880263094</v>
+        <v>196.8055600934023</v>
       </c>
       <c r="U24" t="n">
-        <v>225.8865534313325</v>
+        <v>205.1732931830135</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>110.8026081148444</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24414,22 +24414,22 @@
         <v>145.8777136505296</v>
       </c>
       <c r="S25" t="n">
-        <v>178.6954713541692</v>
+        <v>211.8403234308322</v>
       </c>
       <c r="T25" t="n">
-        <v>224.9602743187949</v>
+        <v>155.930902251702</v>
       </c>
       <c r="U25" t="n">
         <v>217.251546883745</v>
       </c>
       <c r="V25" t="n">
-        <v>183.1082712567351</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>253.378146259928</v>
       </c>
       <c r="X25" t="n">
-        <v>156.6802833219442</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24442,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>313.7044695963876</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>304.4718208543121</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24454,16 +24454,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>337.8466736746185</v>
       </c>
       <c r="G26" t="n">
-        <v>413.7451262958156</v>
+        <v>344.7157542287227</v>
       </c>
       <c r="H26" t="n">
         <v>323.522916215912</v>
       </c>
       <c r="I26" t="n">
-        <v>150.4260830375935</v>
+        <v>141.6508343064735</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,16 +24490,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>52.02582218557539</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>173.5260039260038</v>
       </c>
       <c r="T26" t="n">
-        <v>147.2480343844676</v>
+        <v>216.2774064515606</v>
       </c>
       <c r="U26" t="n">
-        <v>182.191671943198</v>
+        <v>251.2210440102909</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24511,7 +24511,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>317.2085665889607</v>
       </c>
     </row>
     <row r="27">
@@ -24530,7 +24530,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>145.2582194022391</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
@@ -24569,25 +24569,25 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>48.41420986353356</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>95.40214477146151</v>
+        <v>87.17384362106401</v>
       </c>
       <c r="T27" t="n">
-        <v>196.8055600934023</v>
+        <v>127.7761880263094</v>
       </c>
       <c r="U27" t="n">
-        <v>225.8865534313325</v>
+        <v>156.8571813642396</v>
       </c>
       <c r="V27" t="n">
-        <v>163.7712150823324</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>182.6656110938267</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>136.7436131363846</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24615,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.2922885881534</v>
+        <v>106.491217671458</v>
       </c>
       <c r="H28" t="n">
         <v>156.0151763859972</v>
@@ -24654,16 +24654,16 @@
         <v>211.8403234308322</v>
       </c>
       <c r="T28" t="n">
-        <v>155.930902251702</v>
+        <v>224.9602743187949</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2809189508379</v>
+        <v>217.251546883745</v>
       </c>
       <c r="V28" t="n">
-        <v>183.1082712567351</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>225.7219274198956</v>
+        <v>217.4936262694981</v>
       </c>
       <c r="X28" t="n">
         <v>156.6802833219442</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>313.7044695963876</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24691,13 +24691,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>398.1007970105914</v>
       </c>
       <c r="G29" t="n">
         <v>413.7451262958156</v>
       </c>
       <c r="H29" t="n">
-        <v>323.522916215912</v>
+        <v>254.4935441488191</v>
       </c>
       <c r="I29" t="n">
         <v>150.4260830375935</v>
@@ -24727,19 +24727,19 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>52.02582218557539</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>104.4966318589109</v>
+        <v>173.5260039260038</v>
       </c>
       <c r="T29" t="n">
-        <v>147.2480343844676</v>
+        <v>216.2774064515606</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2210440102909</v>
+        <v>182.191671943198</v>
       </c>
       <c r="V29" t="n">
-        <v>258.722886403042</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24748,7 +24748,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>325.4368677393581</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24770,13 +24770,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>76.03984032629097</v>
       </c>
       <c r="G30" t="n">
-        <v>136.5101216886474</v>
+        <v>67.48074962155451</v>
       </c>
       <c r="H30" t="n">
-        <v>104.1865984690043</v>
+        <v>35.15722640191137</v>
       </c>
       <c r="I30" t="n">
         <v>60.7029728719357</v>
@@ -24806,7 +24806,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>48.41420986353356</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>156.2032156881569</v>
@@ -24815,16 +24815,16 @@
         <v>196.8055600934023</v>
       </c>
       <c r="U30" t="n">
-        <v>165.0854825146371</v>
+        <v>213.4996923781707</v>
       </c>
       <c r="V30" t="n">
-        <v>163.7712150823324</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>182.6656110938267</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>136.7436131363846</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24840,22 +24840,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>106.4457501819324</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>77.40459057947626</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>84.61997710623584</v>
       </c>
       <c r="G31" t="n">
-        <v>167.2922885881534</v>
+        <v>98.26291652106048</v>
       </c>
       <c r="H31" t="n">
-        <v>156.0151763859972</v>
+        <v>86.98580431890431</v>
       </c>
       <c r="I31" t="n">
         <v>134.438937943893</v>
@@ -24885,7 +24885,7 @@
         <v>27.65621884003237</v>
       </c>
       <c r="R31" t="n">
-        <v>76.84834158343668</v>
+        <v>145.8777136505296</v>
       </c>
       <c r="S31" t="n">
         <v>211.8403234308322</v>
@@ -24916,22 +24916,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>313.7044695963876</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>285.65366955359</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>337.8466736746185</v>
+        <v>398.1007970105914</v>
       </c>
       <c r="G32" t="n">
-        <v>344.7157542287227</v>
+        <v>413.7451262958156</v>
       </c>
       <c r="H32" t="n">
         <v>323.522916215912</v>
@@ -24964,13 +24964,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>52.02582218557539</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>173.5260039260038</v>
       </c>
       <c r="T32" t="n">
-        <v>155.4763355348651</v>
+        <v>216.2774064515606</v>
       </c>
       <c r="U32" t="n">
         <v>251.2210440102909</v>
@@ -24979,13 +24979,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>280.2115966503201</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>317.2085665889607</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24995,7 +24995,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>97.50381158277443</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
@@ -25004,19 +25004,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>88.61570838830804</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>136.4120236438877</v>
+        <v>124.1232606354856</v>
       </c>
       <c r="H33" t="n">
-        <v>35.15722640191137</v>
+        <v>104.1865984690043</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>60.7029728719357</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25043,13 +25043,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>48.41420986353356</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>156.2032156881569</v>
+        <v>87.17384362106401</v>
       </c>
       <c r="T33" t="n">
-        <v>127.7761880263094</v>
+        <v>196.8055600934023</v>
       </c>
       <c r="U33" t="n">
         <v>225.8865534313325</v>
@@ -25061,7 +25061,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>136.7436131363846</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25125,10 +25125,10 @@
         <v>85.07664273383418</v>
       </c>
       <c r="S34" t="n">
-        <v>211.8403234308322</v>
+        <v>142.8109513637393</v>
       </c>
       <c r="T34" t="n">
-        <v>224.9602743187949</v>
+        <v>155.930902251702</v>
       </c>
       <c r="U34" t="n">
         <v>217.251546883745</v>
@@ -25137,13 +25137,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>217.4936262694981</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>149.5552812850019</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25168,7 +25168,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>413.7451262958156</v>
+        <v>365.229726001192</v>
       </c>
       <c r="H35" t="n">
         <v>323.522916215912</v>
@@ -25201,16 +25201,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>3.510421890951754</v>
+        <v>9.293457606070902</v>
       </c>
       <c r="S35" t="n">
-        <v>125.0106036313801</v>
+        <v>173.5260039260038</v>
       </c>
       <c r="T35" t="n">
         <v>167.7620061569369</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2210440102909</v>
+        <v>202.7056437156673</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25219,7 +25219,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>326.9987360989646</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25232,7 +25232,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>118.0177833552437</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -25280,25 +25280,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>48.41420986353356</v>
       </c>
       <c r="S36" t="n">
         <v>107.6878153935333</v>
       </c>
       <c r="T36" t="n">
-        <v>153.9720050828077</v>
+        <v>196.8055600934023</v>
       </c>
       <c r="U36" t="n">
         <v>225.8865534313325</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>184.2851868548016</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>203.179582866296</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>163.040620623973</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25314,10 +25314,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>118.7314208040042</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>105.8831084387079</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25332,7 +25332,7 @@
         <v>156.0151763859972</v>
       </c>
       <c r="I37" t="n">
-        <v>134.438937943893</v>
+        <v>85.92353764926932</v>
       </c>
       <c r="J37" t="n">
         <v>43.96174265608267</v>
@@ -25359,28 +25359,28 @@
         <v>27.65621884003237</v>
       </c>
       <c r="R37" t="n">
-        <v>97.36231335590594</v>
+        <v>145.8777136505296</v>
       </c>
       <c r="S37" t="n">
         <v>211.8403234308322</v>
       </c>
       <c r="T37" t="n">
-        <v>224.9602743187949</v>
+        <v>176.4448740241712</v>
       </c>
       <c r="U37" t="n">
-        <v>243.5485543713334</v>
+        <v>286.2809189508379</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>238.0075980419674</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>170.0692530574711</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25405,7 +25405,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>413.7451262958156</v>
+        <v>365.229726001192</v>
       </c>
       <c r="H38" t="n">
         <v>323.522916215912</v>
@@ -25438,16 +25438,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>3.510421890951726</v>
+        <v>52.02582218557539</v>
       </c>
       <c r="S38" t="n">
-        <v>125.0106036313801</v>
+        <v>173.5260039260038</v>
       </c>
       <c r="T38" t="n">
         <v>167.7620061569369</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2210440102909</v>
+        <v>202.7056437156673</v>
       </c>
       <c r="V38" t="n">
         <v>285.0198938906304</v>
@@ -25484,7 +25484,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>93.67656667805278</v>
+        <v>136.5101216886474</v>
       </c>
       <c r="H39" t="n">
         <v>104.1865984690043</v>
@@ -25517,22 +25517,22 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>48.41420986353356</v>
       </c>
       <c r="S39" t="n">
         <v>156.2032156881569</v>
       </c>
       <c r="T39" t="n">
-        <v>196.8055600934023</v>
+        <v>154.0731955138978</v>
       </c>
       <c r="U39" t="n">
-        <v>177.3711531367088</v>
+        <v>177.3711531367089</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>184.2851868548016</v>
       </c>
       <c r="W39" t="n">
-        <v>203.1795828662959</v>
+        <v>203.179582866296</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -25557,13 +25557,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>97.9185623519455</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>96.9056477283076</v>
       </c>
       <c r="G40" t="n">
-        <v>167.2922885881534</v>
+        <v>118.7768882935297</v>
       </c>
       <c r="H40" t="n">
         <v>156.0151763859972</v>
@@ -25599,22 +25599,22 @@
         <v>145.8777136505296</v>
       </c>
       <c r="S40" t="n">
-        <v>211.8403234308322</v>
+        <v>169.1079588513277</v>
       </c>
       <c r="T40" t="n">
-        <v>224.9602743187949</v>
+        <v>176.4448740241712</v>
       </c>
       <c r="U40" t="n">
-        <v>237.7655186562142</v>
+        <v>286.2809189508379</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>238.0075980419673</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>182.9772908095326</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25633,7 +25633,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>311.9506770411784</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -25642,7 +25642,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>413.7451262958156</v>
+        <v>365.229726001192</v>
       </c>
       <c r="H41" t="n">
         <v>323.522916215912</v>
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>3.510421890951726</v>
+        <v>9.293457606070902</v>
       </c>
       <c r="S41" t="n">
         <v>173.5260039260038</v>
@@ -25684,19 +25684,19 @@
         <v>216.2774064515606</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2210440102909</v>
+        <v>202.7056437156673</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>279.2368581755113</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>321.2157003838454</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>337.7225383614299</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25706,7 +25706,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>118.0177833552437</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -25718,13 +25718,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>96.5538120987602</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>136.5101216886474</v>
+        <v>87.99472139402377</v>
       </c>
       <c r="H42" t="n">
-        <v>61.35304345840964</v>
+        <v>104.1865984690043</v>
       </c>
       <c r="I42" t="n">
         <v>60.7029728719357</v>
@@ -25763,13 +25763,13 @@
         <v>196.8055600934023</v>
       </c>
       <c r="U42" t="n">
-        <v>225.8865534313325</v>
+        <v>183.0529984207379</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>203.179582866296</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -25797,10 +25797,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>102.6886834434267</v>
+        <v>96.9056477283076</v>
       </c>
       <c r="G43" t="n">
-        <v>118.7768882935297</v>
+        <v>124.5599240086489</v>
       </c>
       <c r="H43" t="n">
         <v>156.0151763859972</v>
@@ -25842,16 +25842,16 @@
         <v>224.9602743187949</v>
       </c>
       <c r="U43" t="n">
-        <v>237.7655186562142</v>
+        <v>286.2809189508379</v>
       </c>
       <c r="V43" t="n">
-        <v>203.6222430292043</v>
+        <v>203.6222430292044</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>177.1942550944135</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25870,7 +25870,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>306.1676413260593</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25912,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>52.02582218557539</v>
+        <v>9.293457606070902</v>
       </c>
       <c r="S44" t="n">
         <v>173.5260039260038</v>
@@ -25921,19 +25921,19 @@
         <v>216.2774064515606</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2210440102909</v>
+        <v>202.7056437156673</v>
       </c>
       <c r="V44" t="n">
         <v>279.2368581755113</v>
       </c>
       <c r="W44" t="n">
-        <v>300.7255684227894</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>321.2157003838454</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>343.5055740765491</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25952,19 +25952,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>109.1296801607773</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>87.99472139402377</v>
+        <v>136.5101216886474</v>
       </c>
       <c r="H45" t="n">
         <v>104.1865984690043</v>
       </c>
       <c r="I45" t="n">
-        <v>60.7029728719357</v>
+        <v>17.86941786134111</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,19 +25991,19 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>48.41420986353356</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>156.2032156881569</v>
+        <v>107.6878153935333</v>
       </c>
       <c r="T45" t="n">
-        <v>196.8055600934023</v>
+        <v>148.2901597987787</v>
       </c>
       <c r="U45" t="n">
-        <v>183.154188851828</v>
+        <v>225.8865534313325</v>
       </c>
       <c r="V45" t="n">
-        <v>184.2851868548016</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>251.6949831609196</v>
@@ -26022,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>131.3165798873137</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>100.1000727235887</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>103.7015980670647</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26076,16 +26076,16 @@
         <v>163.3249231362086</v>
       </c>
       <c r="T46" t="n">
-        <v>224.9602743187949</v>
+        <v>182.2279097392904</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2809189508379</v>
+        <v>237.7655186562142</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>238.0075980419674</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>326617.9727217137</v>
+        <v>326617.9727217139</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>326617.9727217138</v>
+        <v>326617.9727217139</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>309883.9426142954</v>
+        <v>309883.9426142952</v>
       </c>
     </row>
     <row r="14">
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>553011.5286340008</v>
+        <v>553011.528634001</v>
       </c>
       <c r="C2" t="n">
-        <v>553011.5286340009</v>
+        <v>553011.528634001</v>
       </c>
       <c r="D2" t="n">
-        <v>553011.5286340008</v>
+        <v>553011.528634001</v>
       </c>
       <c r="E2" t="n">
         <v>183052.0459652118</v>
@@ -26337,10 +26337,10 @@
         <v>190897.6727292724</v>
       </c>
       <c r="J2" t="n">
+        <v>190897.6727292724</v>
+      </c>
+      <c r="K2" t="n">
         <v>190897.6727292725</v>
-      </c>
-      <c r="K2" t="n">
-        <v>190897.6727292724</v>
       </c>
       <c r="L2" t="n">
         <v>190897.6727292724</v>
@@ -26352,7 +26352,7 @@
         <v>183052.0459652118</v>
       </c>
       <c r="O2" t="n">
-        <v>183052.0459652118</v>
+        <v>183052.0459652117</v>
       </c>
       <c r="P2" t="n">
         <v>183052.0459652118</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>5455.095887706801</v>
+        <v>5455.095887706799</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>6978.067993434956</v>
+        <v>6978.067993434965</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26435,10 +26435,10 @@
         <v>18398.68035405393</v>
       </c>
       <c r="H4" t="n">
-        <v>18398.68035405392</v>
+        <v>18398.68035405393</v>
       </c>
       <c r="I4" t="n">
-        <v>22655.61211448741</v>
+        <v>22655.6121144874</v>
       </c>
       <c r="J4" t="n">
         <v>22655.61211448741</v>
@@ -26447,7 +26447,7 @@
         <v>22655.61211448741</v>
       </c>
       <c r="L4" t="n">
-        <v>22655.61211448741</v>
+        <v>22655.6121144874</v>
       </c>
       <c r="M4" t="n">
         <v>18398.68035405393</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>72315.1725829268</v>
+        <v>72354.89478374005</v>
       </c>
       <c r="C6" t="n">
-        <v>72315.17258292691</v>
+        <v>72354.89478374005</v>
       </c>
       <c r="D6" t="n">
-        <v>72315.1725829268</v>
+        <v>72354.89478374005</v>
       </c>
       <c r="E6" t="n">
-        <v>-186258.0216966548</v>
+        <v>-173886.3167402155</v>
       </c>
       <c r="F6" t="n">
-        <v>139510.7541931921</v>
+        <v>151882.4591496315</v>
       </c>
       <c r="G6" t="n">
-        <v>139510.7541931921</v>
+        <v>151882.4591496315</v>
       </c>
       <c r="H6" t="n">
-        <v>139510.7541931921</v>
+        <v>151882.4591496315</v>
       </c>
       <c r="I6" t="n">
-        <v>136687.6825943857</v>
+        <v>148797.8666586897</v>
       </c>
       <c r="J6" t="n">
-        <v>142142.7784820925</v>
+        <v>154252.9625463964</v>
       </c>
       <c r="K6" t="n">
-        <v>142142.7784820925</v>
+        <v>154252.9625463965</v>
       </c>
       <c r="L6" t="n">
-        <v>142142.7784820925</v>
+        <v>154252.9625463964</v>
       </c>
       <c r="M6" t="n">
-        <v>132532.6861997572</v>
+        <v>144904.3911561966</v>
       </c>
       <c r="N6" t="n">
-        <v>139510.7541931922</v>
+        <v>151882.4591496314</v>
       </c>
       <c r="O6" t="n">
-        <v>139510.7541931921</v>
+        <v>151882.4591496314</v>
       </c>
       <c r="P6" t="n">
-        <v>139510.7541931921</v>
+        <v>151882.4591496315</v>
       </c>
     </row>
   </sheetData>
@@ -26798,16 +26798,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>48.51540029462364</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="F4" t="n">
-        <v>48.51540029462367</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="G4" t="n">
-        <v>48.51540029462367</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="H4" t="n">
-        <v>48.51540029462363</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="I4" t="n">
         <v>69.02937206709291</v>
@@ -26822,13 +26822,13 @@
         <v>69.02937206709291</v>
       </c>
       <c r="M4" t="n">
-        <v>48.51540029462364</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="N4" t="n">
-        <v>48.51540029462367</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="O4" t="n">
-        <v>48.51540029462367</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="P4" t="n">
         <v>48.51540029462365</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>48.51540029462364</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>20.51397177246927</v>
+        <v>20.51397177246926</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>28.00142852215436</v>
+        <v>28.0014285221544</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>48.51540029462364</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31846,7 +31846,7 @@
         <v>134.575092925413</v>
       </c>
       <c r="L12" t="n">
-        <v>159.9419860866253</v>
+        <v>180.9528200361945</v>
       </c>
       <c r="M12" t="n">
         <v>190.649434216642</v>
@@ -31858,7 +31858,7 @@
         <v>191.1116447390681</v>
       </c>
       <c r="P12" t="n">
-        <v>159.1419832084806</v>
+        <v>138.1311492589115</v>
       </c>
       <c r="Q12" t="n">
         <v>106.3822012793335</v>
@@ -32089,13 +32089,13 @@
         <v>190.649434216642</v>
       </c>
       <c r="N15" t="n">
-        <v>179.857112377957</v>
+        <v>158.8462784283878</v>
       </c>
       <c r="O15" t="n">
         <v>191.1116447390681</v>
       </c>
       <c r="P15" t="n">
-        <v>138.1311492589115</v>
+        <v>159.1419832084806</v>
       </c>
       <c r="Q15" t="n">
         <v>106.3822012793335</v>
@@ -32323,7 +32323,7 @@
         <v>180.9528200361945</v>
       </c>
       <c r="M18" t="n">
-        <v>190.649434216642</v>
+        <v>169.6386002670728</v>
       </c>
       <c r="N18" t="n">
         <v>179.857112377957</v>
@@ -32332,7 +32332,7 @@
         <v>191.1116447390681</v>
       </c>
       <c r="P18" t="n">
-        <v>138.1311492589115</v>
+        <v>159.1419832084806</v>
       </c>
       <c r="Q18" t="n">
         <v>106.3822012793335</v>
@@ -32560,10 +32560,10 @@
         <v>180.9528200361945</v>
       </c>
       <c r="M21" t="n">
-        <v>169.6386002670727</v>
+        <v>190.649434216642</v>
       </c>
       <c r="N21" t="n">
-        <v>179.8571123779569</v>
+        <v>158.8462784283878</v>
       </c>
       <c r="O21" t="n">
         <v>191.1116447390681</v>
@@ -33745,10 +33745,10 @@
         <v>180.9528200361945</v>
       </c>
       <c r="M36" t="n">
-        <v>190.649434216642</v>
+        <v>169.6386002670728</v>
       </c>
       <c r="N36" t="n">
-        <v>158.8462784283878</v>
+        <v>179.857112377957</v>
       </c>
       <c r="O36" t="n">
         <v>191.1116447390681</v>
@@ -33985,10 +33985,10 @@
         <v>190.649434216642</v>
       </c>
       <c r="N39" t="n">
-        <v>158.8462784283878</v>
+        <v>179.857112377957</v>
       </c>
       <c r="O39" t="n">
-        <v>191.1116447390681</v>
+        <v>170.1008107894989</v>
       </c>
       <c r="P39" t="n">
         <v>159.1419832084806</v>
@@ -34222,13 +34222,13 @@
         <v>190.649434216642</v>
       </c>
       <c r="N42" t="n">
-        <v>179.857112377957</v>
+        <v>158.8462784283878</v>
       </c>
       <c r="O42" t="n">
         <v>191.1116447390681</v>
       </c>
       <c r="P42" t="n">
-        <v>138.1311492589115</v>
+        <v>159.1419832084806</v>
       </c>
       <c r="Q42" t="n">
         <v>106.3822012793335</v>
@@ -34453,13 +34453,13 @@
         <v>134.575092925413</v>
       </c>
       <c r="L45" t="n">
-        <v>159.9419860866253</v>
+        <v>180.9528200361945</v>
       </c>
       <c r="M45" t="n">
         <v>190.649434216642</v>
       </c>
       <c r="N45" t="n">
-        <v>179.857112377957</v>
+        <v>158.8462784283878</v>
       </c>
       <c r="O45" t="n">
         <v>191.1116447390681</v>
@@ -35415,13 +35415,13 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>48.51540029462364</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="M11" t="n">
-        <v>48.51540029462364</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="N11" t="n">
-        <v>48.51540029462364</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="O11" t="n">
         <v>46.55518210090149</v>
@@ -35494,19 +35494,19 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>21.38760630675109</v>
+        <v>42.39844025632027</v>
       </c>
       <c r="M12" t="n">
-        <v>48.51540029462364</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="N12" t="n">
-        <v>48.51540029462364</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="O12" t="n">
-        <v>48.51540029462364</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="P12" t="n">
-        <v>25.16757579415039</v>
+        <v>4.156741844581223</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35570,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>48.51540029462364</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>46.55518210090148</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>48.51540029462364</v>
+        <v>46.5551821009015</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="P13" t="n">
-        <v>48.51540029462364</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35652,16 +35652,16 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>48.51540029462367</v>
+        <v>46.5551821009015</v>
       </c>
       <c r="M14" t="n">
-        <v>46.5551821009015</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="N14" t="n">
-        <v>48.51540029462367</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="O14" t="n">
-        <v>48.51540029462367</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -35734,16 +35734,16 @@
         <v>42.39844025632027</v>
       </c>
       <c r="M15" t="n">
-        <v>48.51540029462367</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="N15" t="n">
-        <v>48.51540029462367</v>
+        <v>27.50456634505447</v>
       </c>
       <c r="O15" t="n">
-        <v>48.51540029462367</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="P15" t="n">
-        <v>4.156741844581223</v>
+        <v>25.16757579415039</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>46.5551821009015</v>
       </c>
       <c r="L16" t="n">
-        <v>46.5551821009015</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="M16" t="n">
-        <v>48.51540029462367</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="O16" t="n">
-        <v>48.51540029462367</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>48.51540029462367</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35889,16 +35889,16 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>48.51540029462367</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="M17" t="n">
-        <v>48.51540029462367</v>
+        <v>46.5551821009015</v>
       </c>
       <c r="N17" t="n">
-        <v>48.51540029462367</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="O17" t="n">
-        <v>46.55518210090149</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -35971,16 +35971,16 @@
         <v>42.39844025632027</v>
       </c>
       <c r="M18" t="n">
-        <v>48.51540029462367</v>
+        <v>27.50456634505448</v>
       </c>
       <c r="N18" t="n">
-        <v>48.51540029462367</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="O18" t="n">
-        <v>48.51540029462367</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="P18" t="n">
-        <v>4.156741844581223</v>
+        <v>25.16757579415039</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>48.51540029462367</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>48.51540029462367</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>46.5551821009015</v>
+        <v>46.55518210090149</v>
       </c>
       <c r="P19" t="n">
-        <v>48.51540029462367</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36135,13 +36135,13 @@
         <v>48.51540029462365</v>
       </c>
       <c r="O20" t="n">
-        <v>32.34175590742021</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="P20" t="n">
-        <v>9.535841178290376</v>
+        <v>41.87759708571063</v>
       </c>
       <c r="Q20" t="n">
-        <v>48.51540029462363</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36208,13 +36208,13 @@
         <v>42.39844025632027</v>
       </c>
       <c r="M21" t="n">
-        <v>27.50456634505442</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="N21" t="n">
-        <v>48.51540029462363</v>
+        <v>27.50456634505447</v>
       </c>
       <c r="O21" t="n">
-        <v>48.51540029462363</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="P21" t="n">
         <v>25.16757579415039</v>
@@ -36281,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>48.51540029462363</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>48.51540029462363</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>46.55518210090149</v>
       </c>
       <c r="O22" t="n">
-        <v>46.55518210090146</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="P22" t="n">
-        <v>48.51540029462363</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36366,19 +36366,19 @@
         <v>10.03631752276405</v>
       </c>
       <c r="M23" t="n">
-        <v>56.20398900626454</v>
+        <v>43.15666778705045</v>
       </c>
       <c r="N23" t="n">
+        <v>48.51540029462365</v>
+      </c>
+      <c r="O23" t="n">
+        <v>32.34175590742021</v>
+      </c>
+      <c r="P23" t="n">
         <v>69.02937206709291</v>
       </c>
-      <c r="O23" t="n">
-        <v>69.02937206709291</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>1.219537084263107</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36530,10 +36530,10 @@
         <v>69.02937206709291</v>
       </c>
       <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
         <v>66.24030652902856</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>69.02937206709291</v>
+        <v>44.37620487131361</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -36606,16 +36606,16 @@
         <v>69.02937206709291</v>
       </c>
       <c r="N26" t="n">
-        <v>56.20398900626453</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="O26" t="n">
+        <v>32.34175590742021</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
         <v>69.02937206709291</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36679,7 +36679,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>54.41236343662987</v>
+        <v>42.39844025632027</v>
       </c>
       <c r="M27" t="n">
         <v>69.02937206709291</v>
@@ -36688,7 +36688,7 @@
         <v>69.02937206709291</v>
       </c>
       <c r="O27" t="n">
-        <v>55.68973936534124</v>
+        <v>67.70366254565081</v>
       </c>
       <c r="P27" t="n">
         <v>25.16757579415039</v>
@@ -36755,10 +36755,10 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>58.90567221505084</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>69.02937206709291</v>
       </c>
       <c r="M28" t="n">
         <v>69.02937206709291</v>
@@ -36767,10 +36767,10 @@
         <v>69.02937206709291</v>
       </c>
       <c r="O28" t="n">
-        <v>69.02937206709291</v>
+        <v>66.24030652902856</v>
       </c>
       <c r="P28" t="n">
-        <v>7.334634313977776</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>69.02937206709291</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -36840,19 +36840,19 @@
         <v>10.03631752276405</v>
       </c>
       <c r="M29" t="n">
+        <v>43.15666778705045</v>
+      </c>
+      <c r="N29" t="n">
+        <v>48.51540029462365</v>
+      </c>
+      <c r="O29" t="n">
+        <v>33.56129299168333</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
         <v>69.02937206709291</v>
-      </c>
-      <c r="N29" t="n">
-        <v>69.02937206709291</v>
-      </c>
-      <c r="O29" t="n">
-        <v>69.02937206709291</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>56.20398900626453</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36913,7 +36913,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>12.01392318030959</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>42.39844025632027</v>
@@ -36931,7 +36931,7 @@
         <v>25.16757579415039</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>12.01392318030959</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36995,7 +36995,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>66.2403065290286</v>
+        <v>69.02937206709291</v>
       </c>
       <c r="M31" t="n">
         <v>69.02937206709291</v>
@@ -37004,7 +37004,7 @@
         <v>69.02937206709291</v>
       </c>
       <c r="O31" t="n">
-        <v>69.02937206709291</v>
+        <v>66.24030652902856</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -37068,10 +37068,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>69.02937206709291</v>
       </c>
       <c r="K32" t="n">
-        <v>69.02937206709291</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>10.03631752276405</v>
@@ -37080,16 +37080,16 @@
         <v>69.02937206709291</v>
       </c>
       <c r="N32" t="n">
-        <v>56.20398900626453</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="O32" t="n">
-        <v>69.02937206709291</v>
+        <v>32.34175590742021</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>44.37620487131355</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>12.01392318030959</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -37168,7 +37168,7 @@
         <v>25.16757579415039</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>12.01392318030959</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37308,7 +37308,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>9.535841178290418</v>
       </c>
       <c r="L35" t="n">
         <v>10.03631752276405</v>
@@ -37320,13 +37320,13 @@
         <v>48.51540029462365</v>
       </c>
       <c r="O35" t="n">
-        <v>41.8775970857106</v>
+        <v>32.34175590742021</v>
       </c>
       <c r="P35" t="n">
-        <v>48.51540029462364</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37393,13 +37393,13 @@
         <v>42.39844025632027</v>
       </c>
       <c r="M36" t="n">
-        <v>48.51540029462364</v>
+        <v>27.50456634505448</v>
       </c>
       <c r="N36" t="n">
-        <v>27.50456634505445</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="O36" t="n">
-        <v>48.51540029462364</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="P36" t="n">
         <v>25.16757579415039</v>
@@ -37466,22 +37466,22 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>48.51540029462364</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>46.55518210090148</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>46.5551821009015</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="O37" t="n">
-        <v>48.51540029462364</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="P37" t="n">
-        <v>48.51540029462364</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37545,22 +37545,22 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>19.57215870105453</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>48.51540029462367</v>
+        <v>10.03631752276405</v>
       </c>
       <c r="M38" t="n">
-        <v>43.15666778705045</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="N38" t="n">
         <v>48.51540029462365</v>
       </c>
       <c r="O38" t="n">
-        <v>32.34175590742021</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>36.51886457813744</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37630,13 +37630,13 @@
         <v>42.39844025632027</v>
       </c>
       <c r="M39" t="n">
-        <v>48.51540029462367</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="N39" t="n">
-        <v>27.5045663450545</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="O39" t="n">
-        <v>48.51540029462367</v>
+        <v>27.50456634505447</v>
       </c>
       <c r="P39" t="n">
         <v>25.16757579415039</v>
@@ -37703,22 +37703,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>48.51540029462367</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>48.51540029462367</v>
+        <v>46.5551821009015</v>
       </c>
       <c r="M40" t="n">
-        <v>46.5551821009015</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="P40" t="n">
-        <v>48.51540029462367</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37782,7 +37782,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>41.87759708571067</v>
+        <v>9.535841178290418</v>
       </c>
       <c r="L41" t="n">
         <v>10.03631752276405</v>
@@ -37791,16 +37791,16 @@
         <v>43.15666778705045</v>
       </c>
       <c r="N41" t="n">
-        <v>48.51540029462367</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="O41" t="n">
-        <v>48.51540029462367</v>
+        <v>32.34175590742021</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37867,16 +37867,16 @@
         <v>42.39844025632027</v>
       </c>
       <c r="M42" t="n">
-        <v>48.51540029462367</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="N42" t="n">
-        <v>48.51540029462367</v>
+        <v>27.50456634505447</v>
       </c>
       <c r="O42" t="n">
-        <v>48.51540029462367</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="P42" t="n">
-        <v>4.156741844581223</v>
+        <v>25.16757579415039</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37940,22 +37940,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>48.51540029462367</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>48.51540029462367</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="M43" t="n">
-        <v>48.51540029462367</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>46.55518210090149</v>
       </c>
       <c r="P43" t="n">
-        <v>46.55518210090149</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38022,22 +38022,22 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>10.03631752276405</v>
+        <v>19.57215870105447</v>
       </c>
       <c r="M44" t="n">
-        <v>48.51540029462365</v>
+        <v>43.15666778705045</v>
       </c>
       <c r="N44" t="n">
         <v>48.51540029462365</v>
       </c>
       <c r="O44" t="n">
-        <v>36.51886457813744</v>
+        <v>32.34175590742021</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="Q44" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38101,13 +38101,13 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>21.38760630675111</v>
+        <v>42.39844025632027</v>
       </c>
       <c r="M45" t="n">
         <v>48.51540029462365</v>
       </c>
       <c r="N45" t="n">
-        <v>48.51540029462365</v>
+        <v>27.50456634505447</v>
       </c>
       <c r="O45" t="n">
         <v>48.51540029462365</v>
@@ -38177,22 +38177,22 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
         <v>48.51540029462365</v>
       </c>
       <c r="N46" t="n">
-        <v>46.55518210090149</v>
+        <v>46.5551821009015</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
